--- a/BackTest/2020-01-25 BackTest BCH.xlsx
+++ b/BackTest/2020-01-25 BackTest BCH.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>-39.39647041999999</v>
       </c>
       <c r="H2" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>-26.39647041999999</v>
       </c>
       <c r="H3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>-24.99647041999999</v>
       </c>
       <c r="H4" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>-21.03137041999999</v>
       </c>
       <c r="H5" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>-21.00137041999999</v>
       </c>
       <c r="H6" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>-81.04324528999999</v>
       </c>
       <c r="H7" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>-81.07324528999999</v>
       </c>
       <c r="H8" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>-60.79973503999999</v>
       </c>
       <c r="H9" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>-60.81973503999999</v>
       </c>
       <c r="H10" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>-141.28273504</v>
       </c>
       <c r="H11" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>-146.18273504</v>
       </c>
       <c r="H12" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>-146.18273504</v>
       </c>
       <c r="H13" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>-144.56763504</v>
       </c>
       <c r="H14" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>-147.76763504</v>
       </c>
       <c r="H15" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>-147.76523504</v>
       </c>
       <c r="H16" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>-153.36523504</v>
       </c>
       <c r="H17" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>-144.96523504</v>
       </c>
       <c r="H18" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>-214.15523504</v>
       </c>
       <c r="H19" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>-411.95783504</v>
       </c>
       <c r="H20" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>-710.78453504</v>
       </c>
       <c r="H21" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1111,7 +1111,7 @@
         <v>-730.72393504</v>
       </c>
       <c r="H22" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>-750.9271350400001</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1276,7 +1276,7 @@
         <v>-940.1296350400002</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
         <v>-900.0212350400002</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1474,7 +1474,7 @@
         <v>-858.2699350400002</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1672,7 +1672,7 @@
         <v>-851.6654350400003</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -1705,7 +1705,7 @@
         <v>-843.6060350400003</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -2497,7 +2497,7 @@
         <v>-627.85501861</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -2530,7 +2530,7 @@
         <v>-628.58421861</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -2563,7 +2563,7 @@
         <v>-648.39921861</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -2596,7 +2596,7 @@
         <v>-648.44871861</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -2629,7 +2629,7 @@
         <v>-686.18331861</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -2662,7 +2662,7 @@
         <v>-683.18331861</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -2695,7 +2695,7 @@
         <v>-691.18331861</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -2728,7 +2728,7 @@
         <v>-692.18331861</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -2761,7 +2761,7 @@
         <v>-692.43281861</v>
       </c>
       <c r="H72" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -2794,7 +2794,7 @@
         <v>-708.43281861</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -2827,7 +2827,7 @@
         <v>-765.9711186100001</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -2860,7 +2860,7 @@
         <v>-769.9077190200001</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -2893,7 +2893,7 @@
         <v>-814.36661902</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -2926,7 +2926,7 @@
         <v>-892.35121902</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -2959,7 +2959,7 @@
         <v>-865.45451902</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
@@ -2992,7 +2992,7 @@
         <v>-794.9815190200001</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
@@ -3025,7 +3025,7 @@
         <v>-795.3899190200001</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -3058,7 +3058,7 @@
         <v>-803.7028190200001</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
@@ -3091,7 +3091,7 @@
         <v>-985.6129190200002</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
@@ -3124,7 +3124,7 @@
         <v>-1211.98811902</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
@@ -3157,7 +3157,7 @@
         <v>-1210.11291902</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
@@ -3190,7 +3190,7 @@
         <v>-1212.60001902</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
@@ -3223,7 +3223,7 @@
         <v>-1479.88741902</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
@@ -3322,7 +3322,7 @@
         <v>-1598.48611902</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
@@ -3454,7 +3454,7 @@
         <v>-1589.04011902</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -3520,7 +3520,7 @@
         <v>-1598.14531902</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -3553,7 +3553,7 @@
         <v>-1611.63641902</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -3586,7 +3586,7 @@
         <v>-1599.80641902</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -3619,7 +3619,7 @@
         <v>-1569.96281902</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -3652,7 +3652,7 @@
         <v>-1572.55771902</v>
       </c>
       <c r="H99" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -3685,7 +3685,7 @@
         <v>-1593.96023169</v>
       </c>
       <c r="H100" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -3817,7 +3817,7 @@
         <v>-1675.63487012</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
@@ -3850,7 +3850,7 @@
         <v>-1615.67287012</v>
       </c>
       <c r="H105" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
@@ -3916,7 +3916,7 @@
         <v>-1594.54077012</v>
       </c>
       <c r="H107" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
@@ -3949,7 +3949,7 @@
         <v>-1599.54077012</v>
       </c>
       <c r="H108" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
@@ -3982,7 +3982,7 @@
         <v>-1578.45377012</v>
       </c>
       <c r="H109" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
@@ -4048,7 +4048,7 @@
         <v>-1574.73197012</v>
       </c>
       <c r="H111" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
@@ -4114,7 +4114,7 @@
         <v>-1597.330170120001</v>
       </c>
       <c r="H113" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
@@ -4180,7 +4180,7 @@
         <v>-1619.13457012</v>
       </c>
       <c r="H115" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
@@ -4213,7 +4213,7 @@
         <v>-1684.64467012</v>
       </c>
       <c r="H116" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -4246,7 +4246,7 @@
         <v>-1679.64467012</v>
       </c>
       <c r="H117" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -4312,7 +4312,7 @@
         <v>-1667.23787012</v>
       </c>
       <c r="H119" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
@@ -4378,7 +4378,7 @@
         <v>-1668.37507012</v>
       </c>
       <c r="H121" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
@@ -4444,7 +4444,7 @@
         <v>-1648.77007012</v>
       </c>
       <c r="H123" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
@@ -4477,7 +4477,7 @@
         <v>-1647.09007012</v>
       </c>
       <c r="H124" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
@@ -4510,7 +4510,7 @@
         <v>-1647.09007012</v>
       </c>
       <c r="H125" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
@@ -4576,7 +4576,7 @@
         <v>-1649.08947012</v>
       </c>
       <c r="H127" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
@@ -4642,7 +4642,7 @@
         <v>-1644.35907012</v>
       </c>
       <c r="H129" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
@@ -4708,7 +4708,7 @@
         <v>-1656.35907012</v>
       </c>
       <c r="H131" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
@@ -4741,7 +4741,7 @@
         <v>-1656.35907012</v>
       </c>
       <c r="H132" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
@@ -4774,7 +4774,7 @@
         <v>-1643.68447012</v>
       </c>
       <c r="H133" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
@@ -4972,7 +4972,7 @@
         <v>-1697.62374298</v>
       </c>
       <c r="H139" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
@@ -5005,7 +5005,7 @@
         <v>-1661.93014298</v>
       </c>
       <c r="H140" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
@@ -5038,7 +5038,7 @@
         <v>-1669.51374298</v>
       </c>
       <c r="H141" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
@@ -5071,7 +5071,7 @@
         <v>-1669.51374298</v>
       </c>
       <c r="H142" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
@@ -5104,7 +5104,7 @@
         <v>-1674.51374298</v>
       </c>
       <c r="H143" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
@@ -5137,7 +5137,7 @@
         <v>-1766.92644298</v>
       </c>
       <c r="H144" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
@@ -5170,7 +5170,7 @@
         <v>-1746.92644298</v>
       </c>
       <c r="H145" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
@@ -5236,7 +5236,7 @@
         <v>-1746.54944298</v>
       </c>
       <c r="H147" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
@@ -5269,7 +5269,7 @@
         <v>-1744.80594298</v>
       </c>
       <c r="H148" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
@@ -5302,7 +5302,7 @@
         <v>-1744.12384298</v>
       </c>
       <c r="H149" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
@@ -5368,7 +5368,7 @@
         <v>-1764.18204298</v>
       </c>
       <c r="H151" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
@@ -5401,7 +5401,7 @@
         <v>-1763.40334298</v>
       </c>
       <c r="H152" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
@@ -7711,7 +7711,7 @@
         <v>-1870.8977747</v>
       </c>
       <c r="H222" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
@@ -7744,7 +7744,7 @@
         <v>-1873.2841747</v>
       </c>
       <c r="H223" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
@@ -7777,7 +7777,7 @@
         <v>-1827.9001747</v>
       </c>
       <c r="H224" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
@@ -7810,7 +7810,7 @@
         <v>-1750.0883747</v>
       </c>
       <c r="H225" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
@@ -7843,7 +7843,7 @@
         <v>-1750.0883747</v>
       </c>
       <c r="H226" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
@@ -7876,7 +7876,7 @@
         <v>-1750.0883747</v>
       </c>
       <c r="H227" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
@@ -7909,7 +7909,7 @@
         <v>-1750.0883747</v>
       </c>
       <c r="H228" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
@@ -7942,7 +7942,7 @@
         <v>-1741.9161747</v>
       </c>
       <c r="H229" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
@@ -7975,7 +7975,7 @@
         <v>-1741.9161747</v>
       </c>
       <c r="H230" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
@@ -8008,7 +8008,7 @@
         <v>-1739.5557747</v>
       </c>
       <c r="H231" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
@@ -8041,7 +8041,7 @@
         <v>-1782.3007747</v>
       </c>
       <c r="H232" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
@@ -8074,7 +8074,7 @@
         <v>-1772.0127747</v>
       </c>
       <c r="H233" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
@@ -8107,7 +8107,7 @@
         <v>-1772.0127747</v>
       </c>
       <c r="H234" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
@@ -8140,7 +8140,7 @@
         <v>-1774.4127747</v>
       </c>
       <c r="H235" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
@@ -8173,7 +8173,7 @@
         <v>-1771.9659747</v>
       </c>
       <c r="H236" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
@@ -8206,7 +8206,7 @@
         <v>-1711.7788747</v>
       </c>
       <c r="H237" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
@@ -8239,7 +8239,7 @@
         <v>-1706.7788747</v>
       </c>
       <c r="H238" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
@@ -8272,7 +8272,7 @@
         <v>-1713.1059747</v>
       </c>
       <c r="H239" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
@@ -8305,7 +8305,7 @@
         <v>-1760.8474747</v>
       </c>
       <c r="H240" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
@@ -8338,7 +8338,7 @@
         <v>-1745.5029747</v>
       </c>
       <c r="H241" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
@@ -8371,7 +8371,7 @@
         <v>-1745.5029747</v>
       </c>
       <c r="H242" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
@@ -8404,7 +8404,7 @@
         <v>-1747.5029747</v>
       </c>
       <c r="H243" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
@@ -8437,7 +8437,7 @@
         <v>-1750.5029747</v>
       </c>
       <c r="H244" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
@@ -8470,7 +8470,7 @@
         <v>-1754.8471747</v>
       </c>
       <c r="H245" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
@@ -8503,7 +8503,7 @@
         <v>-1754.8471747</v>
       </c>
       <c r="H246" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
@@ -8536,7 +8536,7 @@
         <v>-1768.8471747</v>
       </c>
       <c r="H247" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
@@ -8569,7 +8569,7 @@
         <v>-1782.0341747</v>
       </c>
       <c r="H248" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
@@ -8602,7 +8602,7 @@
         <v>-1781.9838747</v>
       </c>
       <c r="H249" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
@@ -8635,7 +8635,7 @@
         <v>-1781.7191747</v>
       </c>
       <c r="H250" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
@@ -8668,7 +8668,7 @@
         <v>-1781.7072747</v>
       </c>
       <c r="H251" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
@@ -8701,7 +8701,7 @@
         <v>-1781.7072747</v>
       </c>
       <c r="H252" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
@@ -8734,7 +8734,7 @@
         <v>-1781.7072747</v>
       </c>
       <c r="H253" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
@@ -8767,7 +8767,7 @@
         <v>-1779.8914747</v>
       </c>
       <c r="H254" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
@@ -8800,7 +8800,7 @@
         <v>-1790.1308747</v>
       </c>
       <c r="H255" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
@@ -8833,7 +8833,7 @@
         <v>-1790.1308747</v>
       </c>
       <c r="H256" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
@@ -8866,7 +8866,7 @@
         <v>-1790.1308747</v>
       </c>
       <c r="H257" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
@@ -8899,7 +8899,7 @@
         <v>-1802.5980747</v>
       </c>
       <c r="H258" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
@@ -8932,7 +8932,7 @@
         <v>-1798.1163747</v>
       </c>
       <c r="H259" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
@@ -8965,7 +8965,7 @@
         <v>-1798.1163747</v>
       </c>
       <c r="H260" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
@@ -8998,7 +8998,7 @@
         <v>-1796.7068747</v>
       </c>
       <c r="H261" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
@@ -9097,7 +9097,7 @@
         <v>-1796.3008747</v>
       </c>
       <c r="H264" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
@@ -9130,7 +9130,7 @@
         <v>-1796.3906747</v>
       </c>
       <c r="H265" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
@@ -9163,7 +9163,7 @@
         <v>-1796.3906747</v>
       </c>
       <c r="H266" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
@@ -9196,7 +9196,7 @@
         <v>-1796.3348747</v>
       </c>
       <c r="H267" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
@@ -9229,7 +9229,7 @@
         <v>-1796.9694747</v>
       </c>
       <c r="H268" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
@@ -9262,7 +9262,7 @@
         <v>-1796.2825747</v>
       </c>
       <c r="H269" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
@@ -9295,7 +9295,7 @@
         <v>-1795.2263747</v>
       </c>
       <c r="H270" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
@@ -9328,7 +9328,7 @@
         <v>-1793.3905747</v>
       </c>
       <c r="H271" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
@@ -9361,7 +9361,7 @@
         <v>-1791.4047747</v>
       </c>
       <c r="H272" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
@@ -9394,7 +9394,7 @@
         <v>-1783.4047747</v>
       </c>
       <c r="H273" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
@@ -9427,7 +9427,7 @@
         <v>-1774.7659747</v>
       </c>
       <c r="H274" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
@@ -9460,7 +9460,7 @@
         <v>-1772.7559747</v>
       </c>
       <c r="H275" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
@@ -9493,7 +9493,7 @@
         <v>-1772.7559747</v>
       </c>
       <c r="H276" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
@@ -9526,7 +9526,7 @@
         <v>-1764.88165333</v>
       </c>
       <c r="H277" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
@@ -9559,7 +9559,7 @@
         <v>-1764.88715333</v>
       </c>
       <c r="H278" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
@@ -9592,7 +9592,7 @@
         <v>-1798.13435333</v>
       </c>
       <c r="H279" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
@@ -9625,7 +9625,7 @@
         <v>-1803.35805333</v>
       </c>
       <c r="H280" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
@@ -9658,7 +9658,7 @@
         <v>-1803.35805333</v>
       </c>
       <c r="H281" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
@@ -9691,7 +9691,7 @@
         <v>-1803.35805333</v>
       </c>
       <c r="H282" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
@@ -9724,7 +9724,7 @@
         <v>-1812.42345943</v>
       </c>
       <c r="H283" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
@@ -9757,7 +9757,7 @@
         <v>-1803.74895943</v>
       </c>
       <c r="H284" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
@@ -9790,7 +9790,7 @@
         <v>-1802.74895943</v>
       </c>
       <c r="H285" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
@@ -9823,7 +9823,7 @@
         <v>-1803.41415943</v>
       </c>
       <c r="H286" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
@@ -9856,7 +9856,7 @@
         <v>-1806.19155943</v>
       </c>
       <c r="H287" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
@@ -9889,7 +9889,7 @@
         <v>-1806.19155943</v>
       </c>
       <c r="H288" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
@@ -9922,7 +9922,7 @@
         <v>-1814.21855943</v>
       </c>
       <c r="H289" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
@@ -9955,7 +9955,7 @@
         <v>-1815.06295943</v>
       </c>
       <c r="H290" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
@@ -9988,7 +9988,7 @@
         <v>-1815.06295943</v>
       </c>
       <c r="H291" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
@@ -10021,7 +10021,7 @@
         <v>-1819.06615943</v>
       </c>
       <c r="H292" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
@@ -10054,7 +10054,7 @@
         <v>-1829.96885943</v>
       </c>
       <c r="H293" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
@@ -10153,7 +10153,7 @@
         <v>-1834.20775943</v>
       </c>
       <c r="H296" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
@@ -10186,7 +10186,7 @@
         <v>-1836.96975943</v>
       </c>
       <c r="H297" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
@@ -10219,7 +10219,7 @@
         <v>-1868.38045943</v>
       </c>
       <c r="H298" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
@@ -10252,7 +10252,7 @@
         <v>-1863.38045943</v>
       </c>
       <c r="H299" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
@@ -10285,7 +10285,7 @@
         <v>-1864.05975943</v>
       </c>
       <c r="H300" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
@@ -10318,7 +10318,7 @@
         <v>-1862.55775943</v>
       </c>
       <c r="H301" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
@@ -11968,7 +11968,7 @@
         <v>-2104.10504466</v>
       </c>
       <c r="H351" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I351" t="inlineStr"/>
       <c r="J351" t="inlineStr"/>
@@ -12001,7 +12001,7 @@
         <v>-2134.57754466</v>
       </c>
       <c r="H352" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I352" t="inlineStr"/>
       <c r="J352" t="inlineStr"/>
@@ -12034,7 +12034,7 @@
         <v>-2130.92764466</v>
       </c>
       <c r="H353" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I353" t="inlineStr"/>
       <c r="J353" t="inlineStr"/>
@@ -12628,7 +12628,7 @@
         <v>-2128.51717915</v>
       </c>
       <c r="H371" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I371" t="inlineStr"/>
       <c r="J371" t="inlineStr"/>
@@ -12661,7 +12661,7 @@
         <v>-2130.01717915</v>
       </c>
       <c r="H372" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I372" t="inlineStr"/>
       <c r="J372" t="inlineStr"/>
@@ -12694,7 +12694,7 @@
         <v>-2161.76667915</v>
       </c>
       <c r="H373" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I373" t="inlineStr"/>
       <c r="J373" t="inlineStr"/>
@@ -12727,7 +12727,7 @@
         <v>-2161.76667915</v>
       </c>
       <c r="H374" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I374" t="inlineStr"/>
       <c r="J374" t="inlineStr"/>
@@ -12760,7 +12760,7 @@
         <v>-2208.69267915</v>
       </c>
       <c r="H375" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I375" t="inlineStr"/>
       <c r="J375" t="inlineStr"/>
@@ -13156,7 +13156,7 @@
         <v>-2161.360484889999</v>
       </c>
       <c r="H387" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I387" t="inlineStr"/>
       <c r="J387" t="inlineStr"/>
@@ -13288,7 +13288,7 @@
         <v>-2100.49608511</v>
       </c>
       <c r="H391" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I391" t="inlineStr"/>
       <c r="J391" t="inlineStr"/>
@@ -13321,7 +13321,7 @@
         <v>-2100.49608511</v>
       </c>
       <c r="H392" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I392" t="inlineStr"/>
       <c r="J392" t="inlineStr"/>
@@ -13354,7 +13354,7 @@
         <v>-2180.25178511</v>
       </c>
       <c r="H393" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I393" t="inlineStr"/>
       <c r="J393" t="inlineStr"/>
@@ -13387,7 +13387,7 @@
         <v>-2190.25178511</v>
       </c>
       <c r="H394" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I394" t="inlineStr"/>
       <c r="J394" t="inlineStr"/>
@@ -13420,7 +13420,7 @@
         <v>-2182.795085109999</v>
       </c>
       <c r="H395" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I395" t="inlineStr"/>
       <c r="J395" t="inlineStr"/>
@@ -13453,7 +13453,7 @@
         <v>-2191.832385109999</v>
       </c>
       <c r="H396" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I396" t="inlineStr"/>
       <c r="J396" t="inlineStr"/>
@@ -15565,7 +15565,7 @@
         <v>-2815.598352549999</v>
       </c>
       <c r="H460" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I460" t="inlineStr"/>
       <c r="J460" t="inlineStr"/>
@@ -15598,7 +15598,7 @@
         <v>-2771.303452549999</v>
       </c>
       <c r="H461" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I461" t="inlineStr"/>
       <c r="J461" t="inlineStr"/>
@@ -15697,7 +15697,7 @@
         <v>-2755.182452549999</v>
       </c>
       <c r="H464" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I464" t="inlineStr"/>
       <c r="J464" t="inlineStr"/>
@@ -15961,7 +15961,7 @@
         <v>-3013.18612831</v>
       </c>
       <c r="H472" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I472" t="inlineStr"/>
       <c r="J472" t="inlineStr"/>
@@ -16093,7 +16093,7 @@
         <v>-3167.29002831</v>
       </c>
       <c r="H476" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I476" t="inlineStr"/>
       <c r="J476" t="inlineStr"/>
@@ -16126,7 +16126,7 @@
         <v>-3139.77902831</v>
       </c>
       <c r="H477" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I477" t="inlineStr"/>
       <c r="J477" t="inlineStr"/>
@@ -20053,11 +20053,17 @@
         <v>-4009.08568666</v>
       </c>
       <c r="H596" t="n">
-        <v>0</v>
-      </c>
-      <c r="I596" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I596" t="n">
+        <v>359900</v>
+      </c>
       <c r="J596" t="inlineStr"/>
-      <c r="K596" t="inlineStr"/>
+      <c r="K596" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L596" t="n">
         <v>1</v>
       </c>
@@ -20090,7 +20096,11 @@
       </c>
       <c r="I597" t="inlineStr"/>
       <c r="J597" t="inlineStr"/>
-      <c r="K597" t="inlineStr"/>
+      <c r="K597" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L597" t="n">
         <v>1</v>
       </c>
@@ -20119,11 +20129,17 @@
         <v>-4015.27428666</v>
       </c>
       <c r="H598" t="n">
-        <v>0</v>
-      </c>
-      <c r="I598" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I598" t="n">
+        <v>359800</v>
+      </c>
       <c r="J598" t="inlineStr"/>
-      <c r="K598" t="inlineStr"/>
+      <c r="K598" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L598" t="n">
         <v>1</v>
       </c>
@@ -20156,7 +20172,11 @@
       </c>
       <c r="I599" t="inlineStr"/>
       <c r="J599" t="inlineStr"/>
-      <c r="K599" t="inlineStr"/>
+      <c r="K599" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L599" t="n">
         <v>1</v>
       </c>
@@ -20189,7 +20209,11 @@
       </c>
       <c r="I600" t="inlineStr"/>
       <c r="J600" t="inlineStr"/>
-      <c r="K600" t="inlineStr"/>
+      <c r="K600" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L600" t="n">
         <v>1</v>
       </c>
@@ -20222,7 +20246,11 @@
       </c>
       <c r="I601" t="inlineStr"/>
       <c r="J601" t="inlineStr"/>
-      <c r="K601" t="inlineStr"/>
+      <c r="K601" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L601" t="n">
         <v>1</v>
       </c>
@@ -20255,7 +20283,11 @@
       </c>
       <c r="I602" t="inlineStr"/>
       <c r="J602" t="inlineStr"/>
-      <c r="K602" t="inlineStr"/>
+      <c r="K602" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L602" t="n">
         <v>1</v>
       </c>
@@ -20288,7 +20320,11 @@
       </c>
       <c r="I603" t="inlineStr"/>
       <c r="J603" t="inlineStr"/>
-      <c r="K603" t="inlineStr"/>
+      <c r="K603" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L603" t="n">
         <v>1</v>
       </c>
@@ -20321,7 +20357,11 @@
       </c>
       <c r="I604" t="inlineStr"/>
       <c r="J604" t="inlineStr"/>
-      <c r="K604" t="inlineStr"/>
+      <c r="K604" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L604" t="n">
         <v>1</v>
       </c>
@@ -20354,7 +20394,11 @@
       </c>
       <c r="I605" t="inlineStr"/>
       <c r="J605" t="inlineStr"/>
-      <c r="K605" t="inlineStr"/>
+      <c r="K605" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L605" t="n">
         <v>1</v>
       </c>
@@ -20387,7 +20431,11 @@
       </c>
       <c r="I606" t="inlineStr"/>
       <c r="J606" t="inlineStr"/>
-      <c r="K606" t="inlineStr"/>
+      <c r="K606" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L606" t="n">
         <v>1</v>
       </c>
@@ -20420,7 +20468,11 @@
       </c>
       <c r="I607" t="inlineStr"/>
       <c r="J607" t="inlineStr"/>
-      <c r="K607" t="inlineStr"/>
+      <c r="K607" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L607" t="n">
         <v>1</v>
       </c>
@@ -20453,7 +20505,11 @@
       </c>
       <c r="I608" t="inlineStr"/>
       <c r="J608" t="inlineStr"/>
-      <c r="K608" t="inlineStr"/>
+      <c r="K608" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L608" t="n">
         <v>1</v>
       </c>
@@ -20486,7 +20542,11 @@
       </c>
       <c r="I609" t="inlineStr"/>
       <c r="J609" t="inlineStr"/>
-      <c r="K609" t="inlineStr"/>
+      <c r="K609" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L609" t="n">
         <v>1</v>
       </c>
@@ -20519,7 +20579,11 @@
       </c>
       <c r="I610" t="inlineStr"/>
       <c r="J610" t="inlineStr"/>
-      <c r="K610" t="inlineStr"/>
+      <c r="K610" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L610" t="n">
         <v>1</v>
       </c>
@@ -20552,7 +20616,11 @@
       </c>
       <c r="I611" t="inlineStr"/>
       <c r="J611" t="inlineStr"/>
-      <c r="K611" t="inlineStr"/>
+      <c r="K611" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L611" t="n">
         <v>1</v>
       </c>
@@ -20585,7 +20653,11 @@
       </c>
       <c r="I612" t="inlineStr"/>
       <c r="J612" t="inlineStr"/>
-      <c r="K612" t="inlineStr"/>
+      <c r="K612" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L612" t="n">
         <v>1</v>
       </c>
@@ -20618,7 +20690,11 @@
       </c>
       <c r="I613" t="inlineStr"/>
       <c r="J613" t="inlineStr"/>
-      <c r="K613" t="inlineStr"/>
+      <c r="K613" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L613" t="n">
         <v>1</v>
       </c>
@@ -20651,7 +20727,11 @@
       </c>
       <c r="I614" t="inlineStr"/>
       <c r="J614" t="inlineStr"/>
-      <c r="K614" t="inlineStr"/>
+      <c r="K614" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L614" t="n">
         <v>1</v>
       </c>
@@ -20684,7 +20764,11 @@
       </c>
       <c r="I615" t="inlineStr"/>
       <c r="J615" t="inlineStr"/>
-      <c r="K615" t="inlineStr"/>
+      <c r="K615" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L615" t="n">
         <v>1</v>
       </c>
@@ -20717,7 +20801,11 @@
       </c>
       <c r="I616" t="inlineStr"/>
       <c r="J616" t="inlineStr"/>
-      <c r="K616" t="inlineStr"/>
+      <c r="K616" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L616" t="n">
         <v>1</v>
       </c>
@@ -20750,7 +20838,11 @@
       </c>
       <c r="I617" t="inlineStr"/>
       <c r="J617" t="inlineStr"/>
-      <c r="K617" t="inlineStr"/>
+      <c r="K617" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L617" t="n">
         <v>1</v>
       </c>
@@ -20783,7 +20875,11 @@
       </c>
       <c r="I618" t="inlineStr"/>
       <c r="J618" t="inlineStr"/>
-      <c r="K618" t="inlineStr"/>
+      <c r="K618" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L618" t="n">
         <v>1</v>
       </c>
@@ -20816,7 +20912,11 @@
       </c>
       <c r="I619" t="inlineStr"/>
       <c r="J619" t="inlineStr"/>
-      <c r="K619" t="inlineStr"/>
+      <c r="K619" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L619" t="n">
         <v>1</v>
       </c>
@@ -20849,7 +20949,11 @@
       </c>
       <c r="I620" t="inlineStr"/>
       <c r="J620" t="inlineStr"/>
-      <c r="K620" t="inlineStr"/>
+      <c r="K620" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L620" t="n">
         <v>1</v>
       </c>
@@ -20882,7 +20986,11 @@
       </c>
       <c r="I621" t="inlineStr"/>
       <c r="J621" t="inlineStr"/>
-      <c r="K621" t="inlineStr"/>
+      <c r="K621" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L621" t="n">
         <v>1</v>
       </c>
@@ -20915,7 +21023,11 @@
       </c>
       <c r="I622" t="inlineStr"/>
       <c r="J622" t="inlineStr"/>
-      <c r="K622" t="inlineStr"/>
+      <c r="K622" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L622" t="n">
         <v>1</v>
       </c>
@@ -20948,7 +21060,11 @@
       </c>
       <c r="I623" t="inlineStr"/>
       <c r="J623" t="inlineStr"/>
-      <c r="K623" t="inlineStr"/>
+      <c r="K623" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L623" t="n">
         <v>1</v>
       </c>
@@ -20981,7 +21097,11 @@
       </c>
       <c r="I624" t="inlineStr"/>
       <c r="J624" t="inlineStr"/>
-      <c r="K624" t="inlineStr"/>
+      <c r="K624" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L624" t="n">
         <v>1</v>
       </c>
@@ -21014,7 +21134,11 @@
       </c>
       <c r="I625" t="inlineStr"/>
       <c r="J625" t="inlineStr"/>
-      <c r="K625" t="inlineStr"/>
+      <c r="K625" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L625" t="n">
         <v>1</v>
       </c>
@@ -21047,7 +21171,11 @@
       </c>
       <c r="I626" t="inlineStr"/>
       <c r="J626" t="inlineStr"/>
-      <c r="K626" t="inlineStr"/>
+      <c r="K626" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L626" t="n">
         <v>1</v>
       </c>
@@ -21080,7 +21208,11 @@
       </c>
       <c r="I627" t="inlineStr"/>
       <c r="J627" t="inlineStr"/>
-      <c r="K627" t="inlineStr"/>
+      <c r="K627" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L627" t="n">
         <v>1</v>
       </c>
@@ -21113,7 +21245,11 @@
       </c>
       <c r="I628" t="inlineStr"/>
       <c r="J628" t="inlineStr"/>
-      <c r="K628" t="inlineStr"/>
+      <c r="K628" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L628" t="n">
         <v>1</v>
       </c>
@@ -21146,7 +21282,11 @@
       </c>
       <c r="I629" t="inlineStr"/>
       <c r="J629" t="inlineStr"/>
-      <c r="K629" t="inlineStr"/>
+      <c r="K629" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L629" t="n">
         <v>1</v>
       </c>
@@ -21179,7 +21319,11 @@
       </c>
       <c r="I630" t="inlineStr"/>
       <c r="J630" t="inlineStr"/>
-      <c r="K630" t="inlineStr"/>
+      <c r="K630" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L630" t="n">
         <v>1</v>
       </c>
@@ -21212,7 +21356,11 @@
       </c>
       <c r="I631" t="inlineStr"/>
       <c r="J631" t="inlineStr"/>
-      <c r="K631" t="inlineStr"/>
+      <c r="K631" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L631" t="n">
         <v>1</v>
       </c>
@@ -21245,7 +21393,11 @@
       </c>
       <c r="I632" t="inlineStr"/>
       <c r="J632" t="inlineStr"/>
-      <c r="K632" t="inlineStr"/>
+      <c r="K632" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L632" t="n">
         <v>1</v>
       </c>
@@ -21278,7 +21430,11 @@
       </c>
       <c r="I633" t="inlineStr"/>
       <c r="J633" t="inlineStr"/>
-      <c r="K633" t="inlineStr"/>
+      <c r="K633" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L633" t="n">
         <v>1</v>
       </c>
@@ -21311,7 +21467,11 @@
       </c>
       <c r="I634" t="inlineStr"/>
       <c r="J634" t="inlineStr"/>
-      <c r="K634" t="inlineStr"/>
+      <c r="K634" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L634" t="n">
         <v>1</v>
       </c>
@@ -21344,7 +21504,11 @@
       </c>
       <c r="I635" t="inlineStr"/>
       <c r="J635" t="inlineStr"/>
-      <c r="K635" t="inlineStr"/>
+      <c r="K635" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L635" t="n">
         <v>1</v>
       </c>
@@ -21377,7 +21541,11 @@
       </c>
       <c r="I636" t="inlineStr"/>
       <c r="J636" t="inlineStr"/>
-      <c r="K636" t="inlineStr"/>
+      <c r="K636" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L636" t="n">
         <v>1</v>
       </c>
@@ -21410,7 +21578,11 @@
       </c>
       <c r="I637" t="inlineStr"/>
       <c r="J637" t="inlineStr"/>
-      <c r="K637" t="inlineStr"/>
+      <c r="K637" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L637" t="n">
         <v>1</v>
       </c>
@@ -21443,7 +21615,11 @@
       </c>
       <c r="I638" t="inlineStr"/>
       <c r="J638" t="inlineStr"/>
-      <c r="K638" t="inlineStr"/>
+      <c r="K638" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L638" t="n">
         <v>1</v>
       </c>
@@ -21476,7 +21652,11 @@
       </c>
       <c r="I639" t="inlineStr"/>
       <c r="J639" t="inlineStr"/>
-      <c r="K639" t="inlineStr"/>
+      <c r="K639" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L639" t="n">
         <v>1</v>
       </c>
@@ -21509,7 +21689,11 @@
       </c>
       <c r="I640" t="inlineStr"/>
       <c r="J640" t="inlineStr"/>
-      <c r="K640" t="inlineStr"/>
+      <c r="K640" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L640" t="n">
         <v>1</v>
       </c>
@@ -21542,7 +21726,11 @@
       </c>
       <c r="I641" t="inlineStr"/>
       <c r="J641" t="inlineStr"/>
-      <c r="K641" t="inlineStr"/>
+      <c r="K641" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L641" t="n">
         <v>1</v>
       </c>
@@ -21575,7 +21763,11 @@
       </c>
       <c r="I642" t="inlineStr"/>
       <c r="J642" t="inlineStr"/>
-      <c r="K642" t="inlineStr"/>
+      <c r="K642" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L642" t="n">
         <v>1</v>
       </c>
@@ -21608,7 +21800,11 @@
       </c>
       <c r="I643" t="inlineStr"/>
       <c r="J643" t="inlineStr"/>
-      <c r="K643" t="inlineStr"/>
+      <c r="K643" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L643" t="n">
         <v>1</v>
       </c>
@@ -21641,7 +21837,11 @@
       </c>
       <c r="I644" t="inlineStr"/>
       <c r="J644" t="inlineStr"/>
-      <c r="K644" t="inlineStr"/>
+      <c r="K644" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L644" t="n">
         <v>1</v>
       </c>
@@ -21674,7 +21874,11 @@
       </c>
       <c r="I645" t="inlineStr"/>
       <c r="J645" t="inlineStr"/>
-      <c r="K645" t="inlineStr"/>
+      <c r="K645" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L645" t="n">
         <v>1</v>
       </c>
@@ -21707,7 +21911,11 @@
       </c>
       <c r="I646" t="inlineStr"/>
       <c r="J646" t="inlineStr"/>
-      <c r="K646" t="inlineStr"/>
+      <c r="K646" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L646" t="n">
         <v>1</v>
       </c>
@@ -21740,7 +21948,11 @@
       </c>
       <c r="I647" t="inlineStr"/>
       <c r="J647" t="inlineStr"/>
-      <c r="K647" t="inlineStr"/>
+      <c r="K647" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L647" t="n">
         <v>1</v>
       </c>
@@ -21773,7 +21985,11 @@
       </c>
       <c r="I648" t="inlineStr"/>
       <c r="J648" t="inlineStr"/>
-      <c r="K648" t="inlineStr"/>
+      <c r="K648" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L648" t="n">
         <v>1</v>
       </c>
@@ -21806,7 +22022,11 @@
       </c>
       <c r="I649" t="inlineStr"/>
       <c r="J649" t="inlineStr"/>
-      <c r="K649" t="inlineStr"/>
+      <c r="K649" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L649" t="n">
         <v>1</v>
       </c>
@@ -21839,7 +22059,11 @@
       </c>
       <c r="I650" t="inlineStr"/>
       <c r="J650" t="inlineStr"/>
-      <c r="K650" t="inlineStr"/>
+      <c r="K650" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L650" t="n">
         <v>1</v>
       </c>
@@ -21872,7 +22096,11 @@
       </c>
       <c r="I651" t="inlineStr"/>
       <c r="J651" t="inlineStr"/>
-      <c r="K651" t="inlineStr"/>
+      <c r="K651" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L651" t="n">
         <v>1</v>
       </c>
@@ -21905,7 +22133,11 @@
       </c>
       <c r="I652" t="inlineStr"/>
       <c r="J652" t="inlineStr"/>
-      <c r="K652" t="inlineStr"/>
+      <c r="K652" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L652" t="n">
         <v>1</v>
       </c>
@@ -21938,7 +22170,11 @@
       </c>
       <c r="I653" t="inlineStr"/>
       <c r="J653" t="inlineStr"/>
-      <c r="K653" t="inlineStr"/>
+      <c r="K653" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L653" t="n">
         <v>1</v>
       </c>
@@ -21971,7 +22207,11 @@
       </c>
       <c r="I654" t="inlineStr"/>
       <c r="J654" t="inlineStr"/>
-      <c r="K654" t="inlineStr"/>
+      <c r="K654" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L654" t="n">
         <v>1</v>
       </c>
@@ -22004,7 +22244,11 @@
       </c>
       <c r="I655" t="inlineStr"/>
       <c r="J655" t="inlineStr"/>
-      <c r="K655" t="inlineStr"/>
+      <c r="K655" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L655" t="n">
         <v>1</v>
       </c>
@@ -22037,7 +22281,11 @@
       </c>
       <c r="I656" t="inlineStr"/>
       <c r="J656" t="inlineStr"/>
-      <c r="K656" t="inlineStr"/>
+      <c r="K656" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L656" t="n">
         <v>1</v>
       </c>
@@ -22070,7 +22318,11 @@
       </c>
       <c r="I657" t="inlineStr"/>
       <c r="J657" t="inlineStr"/>
-      <c r="K657" t="inlineStr"/>
+      <c r="K657" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L657" t="n">
         <v>1</v>
       </c>
@@ -22103,7 +22355,11 @@
       </c>
       <c r="I658" t="inlineStr"/>
       <c r="J658" t="inlineStr"/>
-      <c r="K658" t="inlineStr"/>
+      <c r="K658" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L658" t="n">
         <v>1</v>
       </c>
@@ -22136,7 +22392,11 @@
       </c>
       <c r="I659" t="inlineStr"/>
       <c r="J659" t="inlineStr"/>
-      <c r="K659" t="inlineStr"/>
+      <c r="K659" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L659" t="n">
         <v>1</v>
       </c>
@@ -22169,7 +22429,11 @@
       </c>
       <c r="I660" t="inlineStr"/>
       <c r="J660" t="inlineStr"/>
-      <c r="K660" t="inlineStr"/>
+      <c r="K660" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L660" t="n">
         <v>1</v>
       </c>
@@ -22202,7 +22466,11 @@
       </c>
       <c r="I661" t="inlineStr"/>
       <c r="J661" t="inlineStr"/>
-      <c r="K661" t="inlineStr"/>
+      <c r="K661" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L661" t="n">
         <v>1</v>
       </c>
@@ -22235,7 +22503,11 @@
       </c>
       <c r="I662" t="inlineStr"/>
       <c r="J662" t="inlineStr"/>
-      <c r="K662" t="inlineStr"/>
+      <c r="K662" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L662" t="n">
         <v>1</v>
       </c>
@@ -22268,7 +22540,11 @@
       </c>
       <c r="I663" t="inlineStr"/>
       <c r="J663" t="inlineStr"/>
-      <c r="K663" t="inlineStr"/>
+      <c r="K663" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L663" t="n">
         <v>1</v>
       </c>
@@ -22301,7 +22577,11 @@
       </c>
       <c r="I664" t="inlineStr"/>
       <c r="J664" t="inlineStr"/>
-      <c r="K664" t="inlineStr"/>
+      <c r="K664" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L664" t="n">
         <v>1</v>
       </c>
@@ -22334,7 +22614,11 @@
       </c>
       <c r="I665" t="inlineStr"/>
       <c r="J665" t="inlineStr"/>
-      <c r="K665" t="inlineStr"/>
+      <c r="K665" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L665" t="n">
         <v>1</v>
       </c>
@@ -22367,7 +22651,11 @@
       </c>
       <c r="I666" t="inlineStr"/>
       <c r="J666" t="inlineStr"/>
-      <c r="K666" t="inlineStr"/>
+      <c r="K666" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L666" t="n">
         <v>1</v>
       </c>
@@ -22400,7 +22688,11 @@
       </c>
       <c r="I667" t="inlineStr"/>
       <c r="J667" t="inlineStr"/>
-      <c r="K667" t="inlineStr"/>
+      <c r="K667" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L667" t="n">
         <v>1</v>
       </c>
@@ -22433,7 +22725,11 @@
       </c>
       <c r="I668" t="inlineStr"/>
       <c r="J668" t="inlineStr"/>
-      <c r="K668" t="inlineStr"/>
+      <c r="K668" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L668" t="n">
         <v>1</v>
       </c>
@@ -22466,7 +22762,11 @@
       </c>
       <c r="I669" t="inlineStr"/>
       <c r="J669" t="inlineStr"/>
-      <c r="K669" t="inlineStr"/>
+      <c r="K669" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L669" t="n">
         <v>1</v>
       </c>
@@ -22499,7 +22799,11 @@
       </c>
       <c r="I670" t="inlineStr"/>
       <c r="J670" t="inlineStr"/>
-      <c r="K670" t="inlineStr"/>
+      <c r="K670" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L670" t="n">
         <v>1</v>
       </c>
@@ -22532,7 +22836,11 @@
       </c>
       <c r="I671" t="inlineStr"/>
       <c r="J671" t="inlineStr"/>
-      <c r="K671" t="inlineStr"/>
+      <c r="K671" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L671" t="n">
         <v>1</v>
       </c>
@@ -22565,7 +22873,11 @@
       </c>
       <c r="I672" t="inlineStr"/>
       <c r="J672" t="inlineStr"/>
-      <c r="K672" t="inlineStr"/>
+      <c r="K672" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L672" t="n">
         <v>1</v>
       </c>
@@ -22598,7 +22910,11 @@
       </c>
       <c r="I673" t="inlineStr"/>
       <c r="J673" t="inlineStr"/>
-      <c r="K673" t="inlineStr"/>
+      <c r="K673" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L673" t="n">
         <v>1</v>
       </c>
@@ -22631,7 +22947,11 @@
       </c>
       <c r="I674" t="inlineStr"/>
       <c r="J674" t="inlineStr"/>
-      <c r="K674" t="inlineStr"/>
+      <c r="K674" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L674" t="n">
         <v>1</v>
       </c>
@@ -22664,7 +22984,11 @@
       </c>
       <c r="I675" t="inlineStr"/>
       <c r="J675" t="inlineStr"/>
-      <c r="K675" t="inlineStr"/>
+      <c r="K675" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L675" t="n">
         <v>1</v>
       </c>
@@ -22697,7 +23021,11 @@
       </c>
       <c r="I676" t="inlineStr"/>
       <c r="J676" t="inlineStr"/>
-      <c r="K676" t="inlineStr"/>
+      <c r="K676" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L676" t="n">
         <v>1</v>
       </c>
@@ -22730,7 +23058,11 @@
       </c>
       <c r="I677" t="inlineStr"/>
       <c r="J677" t="inlineStr"/>
-      <c r="K677" t="inlineStr"/>
+      <c r="K677" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L677" t="n">
         <v>1</v>
       </c>
@@ -22763,7 +23095,11 @@
       </c>
       <c r="I678" t="inlineStr"/>
       <c r="J678" t="inlineStr"/>
-      <c r="K678" t="inlineStr"/>
+      <c r="K678" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L678" t="n">
         <v>1</v>
       </c>
@@ -22796,7 +23132,11 @@
       </c>
       <c r="I679" t="inlineStr"/>
       <c r="J679" t="inlineStr"/>
-      <c r="K679" t="inlineStr"/>
+      <c r="K679" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L679" t="n">
         <v>1</v>
       </c>
@@ -22829,7 +23169,11 @@
       </c>
       <c r="I680" t="inlineStr"/>
       <c r="J680" t="inlineStr"/>
-      <c r="K680" t="inlineStr"/>
+      <c r="K680" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L680" t="n">
         <v>1</v>
       </c>
@@ -22862,7 +23206,11 @@
       </c>
       <c r="I681" t="inlineStr"/>
       <c r="J681" t="inlineStr"/>
-      <c r="K681" t="inlineStr"/>
+      <c r="K681" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L681" t="n">
         <v>1</v>
       </c>
@@ -22895,7 +23243,11 @@
       </c>
       <c r="I682" t="inlineStr"/>
       <c r="J682" t="inlineStr"/>
-      <c r="K682" t="inlineStr"/>
+      <c r="K682" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L682" t="n">
         <v>1</v>
       </c>
@@ -22928,7 +23280,11 @@
       </c>
       <c r="I683" t="inlineStr"/>
       <c r="J683" t="inlineStr"/>
-      <c r="K683" t="inlineStr"/>
+      <c r="K683" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L683" t="n">
         <v>1</v>
       </c>
@@ -22961,7 +23317,11 @@
       </c>
       <c r="I684" t="inlineStr"/>
       <c r="J684" t="inlineStr"/>
-      <c r="K684" t="inlineStr"/>
+      <c r="K684" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L684" t="n">
         <v>1</v>
       </c>
@@ -22990,11 +23350,17 @@
         <v>-4420.414516380001</v>
       </c>
       <c r="H685" t="n">
-        <v>0</v>
-      </c>
-      <c r="I685" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I685" t="n">
+        <v>364000</v>
+      </c>
       <c r="J685" t="inlineStr"/>
-      <c r="K685" t="inlineStr"/>
+      <c r="K685" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L685" t="n">
         <v>1</v>
       </c>
@@ -23027,7 +23393,11 @@
       </c>
       <c r="I686" t="inlineStr"/>
       <c r="J686" t="inlineStr"/>
-      <c r="K686" t="inlineStr"/>
+      <c r="K686" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L686" t="n">
         <v>1</v>
       </c>
@@ -23056,11 +23426,17 @@
         <v>-4456.946016380001</v>
       </c>
       <c r="H687" t="n">
-        <v>0</v>
-      </c>
-      <c r="I687" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I687" t="n">
+        <v>363600</v>
+      </c>
       <c r="J687" t="inlineStr"/>
-      <c r="K687" t="inlineStr"/>
+      <c r="K687" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L687" t="n">
         <v>1</v>
       </c>
@@ -23093,7 +23469,11 @@
       </c>
       <c r="I688" t="inlineStr"/>
       <c r="J688" t="inlineStr"/>
-      <c r="K688" t="inlineStr"/>
+      <c r="K688" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L688" t="n">
         <v>1</v>
       </c>
@@ -23126,7 +23506,11 @@
       </c>
       <c r="I689" t="inlineStr"/>
       <c r="J689" t="inlineStr"/>
-      <c r="K689" t="inlineStr"/>
+      <c r="K689" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L689" t="n">
         <v>1</v>
       </c>
@@ -23159,7 +23543,11 @@
       </c>
       <c r="I690" t="inlineStr"/>
       <c r="J690" t="inlineStr"/>
-      <c r="K690" t="inlineStr"/>
+      <c r="K690" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L690" t="n">
         <v>1</v>
       </c>
@@ -23192,7 +23580,11 @@
       </c>
       <c r="I691" t="inlineStr"/>
       <c r="J691" t="inlineStr"/>
-      <c r="K691" t="inlineStr"/>
+      <c r="K691" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L691" t="n">
         <v>1</v>
       </c>
@@ -23225,7 +23617,11 @@
       </c>
       <c r="I692" t="inlineStr"/>
       <c r="J692" t="inlineStr"/>
-      <c r="K692" t="inlineStr"/>
+      <c r="K692" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L692" t="n">
         <v>1</v>
       </c>
@@ -23258,7 +23654,11 @@
       </c>
       <c r="I693" t="inlineStr"/>
       <c r="J693" t="inlineStr"/>
-      <c r="K693" t="inlineStr"/>
+      <c r="K693" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L693" t="n">
         <v>1</v>
       </c>
@@ -23291,7 +23691,11 @@
       </c>
       <c r="I694" t="inlineStr"/>
       <c r="J694" t="inlineStr"/>
-      <c r="K694" t="inlineStr"/>
+      <c r="K694" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L694" t="n">
         <v>1</v>
       </c>
@@ -23324,7 +23728,11 @@
       </c>
       <c r="I695" t="inlineStr"/>
       <c r="J695" t="inlineStr"/>
-      <c r="K695" t="inlineStr"/>
+      <c r="K695" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L695" t="n">
         <v>1</v>
       </c>
@@ -23357,7 +23765,11 @@
       </c>
       <c r="I696" t="inlineStr"/>
       <c r="J696" t="inlineStr"/>
-      <c r="K696" t="inlineStr"/>
+      <c r="K696" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L696" t="n">
         <v>1</v>
       </c>
@@ -23390,7 +23802,11 @@
       </c>
       <c r="I697" t="inlineStr"/>
       <c r="J697" t="inlineStr"/>
-      <c r="K697" t="inlineStr"/>
+      <c r="K697" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L697" t="n">
         <v>1</v>
       </c>
@@ -23423,7 +23839,11 @@
       </c>
       <c r="I698" t="inlineStr"/>
       <c r="J698" t="inlineStr"/>
-      <c r="K698" t="inlineStr"/>
+      <c r="K698" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L698" t="n">
         <v>1</v>
       </c>
@@ -23456,7 +23876,11 @@
       </c>
       <c r="I699" t="inlineStr"/>
       <c r="J699" t="inlineStr"/>
-      <c r="K699" t="inlineStr"/>
+      <c r="K699" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L699" t="n">
         <v>1</v>
       </c>
@@ -23489,7 +23913,11 @@
       </c>
       <c r="I700" t="inlineStr"/>
       <c r="J700" t="inlineStr"/>
-      <c r="K700" t="inlineStr"/>
+      <c r="K700" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L700" t="n">
         <v>1</v>
       </c>
@@ -23522,7 +23950,11 @@
       </c>
       <c r="I701" t="inlineStr"/>
       <c r="J701" t="inlineStr"/>
-      <c r="K701" t="inlineStr"/>
+      <c r="K701" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L701" t="n">
         <v>1</v>
       </c>
@@ -23555,7 +23987,11 @@
       </c>
       <c r="I702" t="inlineStr"/>
       <c r="J702" t="inlineStr"/>
-      <c r="K702" t="inlineStr"/>
+      <c r="K702" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L702" t="n">
         <v>1</v>
       </c>
@@ -23588,7 +24024,11 @@
       </c>
       <c r="I703" t="inlineStr"/>
       <c r="J703" t="inlineStr"/>
-      <c r="K703" t="inlineStr"/>
+      <c r="K703" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L703" t="n">
         <v>1</v>
       </c>
@@ -23621,7 +24061,11 @@
       </c>
       <c r="I704" t="inlineStr"/>
       <c r="J704" t="inlineStr"/>
-      <c r="K704" t="inlineStr"/>
+      <c r="K704" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L704" t="n">
         <v>1</v>
       </c>
@@ -23654,7 +24098,11 @@
       </c>
       <c r="I705" t="inlineStr"/>
       <c r="J705" t="inlineStr"/>
-      <c r="K705" t="inlineStr"/>
+      <c r="K705" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L705" t="n">
         <v>1</v>
       </c>
@@ -23687,7 +24135,11 @@
       </c>
       <c r="I706" t="inlineStr"/>
       <c r="J706" t="inlineStr"/>
-      <c r="K706" t="inlineStr"/>
+      <c r="K706" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L706" t="n">
         <v>1</v>
       </c>
@@ -23720,7 +24172,11 @@
       </c>
       <c r="I707" t="inlineStr"/>
       <c r="J707" t="inlineStr"/>
-      <c r="K707" t="inlineStr"/>
+      <c r="K707" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L707" t="n">
         <v>1</v>
       </c>
@@ -23753,7 +24209,11 @@
       </c>
       <c r="I708" t="inlineStr"/>
       <c r="J708" t="inlineStr"/>
-      <c r="K708" t="inlineStr"/>
+      <c r="K708" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L708" t="n">
         <v>1</v>
       </c>
@@ -23786,7 +24246,11 @@
       </c>
       <c r="I709" t="inlineStr"/>
       <c r="J709" t="inlineStr"/>
-      <c r="K709" t="inlineStr"/>
+      <c r="K709" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L709" t="n">
         <v>1</v>
       </c>
@@ -23819,7 +24283,11 @@
       </c>
       <c r="I710" t="inlineStr"/>
       <c r="J710" t="inlineStr"/>
-      <c r="K710" t="inlineStr"/>
+      <c r="K710" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L710" t="n">
         <v>1</v>
       </c>
@@ -23852,7 +24320,11 @@
       </c>
       <c r="I711" t="inlineStr"/>
       <c r="J711" t="inlineStr"/>
-      <c r="K711" t="inlineStr"/>
+      <c r="K711" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L711" t="n">
         <v>1</v>
       </c>
@@ -23885,7 +24357,11 @@
       </c>
       <c r="I712" t="inlineStr"/>
       <c r="J712" t="inlineStr"/>
-      <c r="K712" t="inlineStr"/>
+      <c r="K712" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L712" t="n">
         <v>1</v>
       </c>
@@ -23918,7 +24394,11 @@
       </c>
       <c r="I713" t="inlineStr"/>
       <c r="J713" t="inlineStr"/>
-      <c r="K713" t="inlineStr"/>
+      <c r="K713" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L713" t="n">
         <v>1</v>
       </c>
@@ -23951,7 +24431,11 @@
       </c>
       <c r="I714" t="inlineStr"/>
       <c r="J714" t="inlineStr"/>
-      <c r="K714" t="inlineStr"/>
+      <c r="K714" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L714" t="n">
         <v>1</v>
       </c>
@@ -23984,7 +24468,11 @@
       </c>
       <c r="I715" t="inlineStr"/>
       <c r="J715" t="inlineStr"/>
-      <c r="K715" t="inlineStr"/>
+      <c r="K715" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L715" t="n">
         <v>1</v>
       </c>
@@ -24017,7 +24505,11 @@
       </c>
       <c r="I716" t="inlineStr"/>
       <c r="J716" t="inlineStr"/>
-      <c r="K716" t="inlineStr"/>
+      <c r="K716" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L716" t="n">
         <v>1</v>
       </c>
@@ -24050,7 +24542,11 @@
       </c>
       <c r="I717" t="inlineStr"/>
       <c r="J717" t="inlineStr"/>
-      <c r="K717" t="inlineStr"/>
+      <c r="K717" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L717" t="n">
         <v>1</v>
       </c>
@@ -24083,7 +24579,11 @@
       </c>
       <c r="I718" t="inlineStr"/>
       <c r="J718" t="inlineStr"/>
-      <c r="K718" t="inlineStr"/>
+      <c r="K718" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L718" t="n">
         <v>1</v>
       </c>
@@ -24116,7 +24616,11 @@
       </c>
       <c r="I719" t="inlineStr"/>
       <c r="J719" t="inlineStr"/>
-      <c r="K719" t="inlineStr"/>
+      <c r="K719" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L719" t="n">
         <v>1</v>
       </c>
@@ -24149,7 +24653,11 @@
       </c>
       <c r="I720" t="inlineStr"/>
       <c r="J720" t="inlineStr"/>
-      <c r="K720" t="inlineStr"/>
+      <c r="K720" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L720" t="n">
         <v>1</v>
       </c>
@@ -24182,7 +24690,11 @@
       </c>
       <c r="I721" t="inlineStr"/>
       <c r="J721" t="inlineStr"/>
-      <c r="K721" t="inlineStr"/>
+      <c r="K721" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L721" t="n">
         <v>1</v>
       </c>
@@ -24215,7 +24727,11 @@
       </c>
       <c r="I722" t="inlineStr"/>
       <c r="J722" t="inlineStr"/>
-      <c r="K722" t="inlineStr"/>
+      <c r="K722" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L722" t="n">
         <v>1</v>
       </c>
@@ -24248,7 +24764,11 @@
       </c>
       <c r="I723" t="inlineStr"/>
       <c r="J723" t="inlineStr"/>
-      <c r="K723" t="inlineStr"/>
+      <c r="K723" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L723" t="n">
         <v>1</v>
       </c>
@@ -24281,7 +24801,11 @@
       </c>
       <c r="I724" t="inlineStr"/>
       <c r="J724" t="inlineStr"/>
-      <c r="K724" t="inlineStr"/>
+      <c r="K724" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L724" t="n">
         <v>1</v>
       </c>
@@ -24314,7 +24838,11 @@
       </c>
       <c r="I725" t="inlineStr"/>
       <c r="J725" t="inlineStr"/>
-      <c r="K725" t="inlineStr"/>
+      <c r="K725" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L725" t="n">
         <v>1</v>
       </c>
@@ -24347,7 +24875,11 @@
       </c>
       <c r="I726" t="inlineStr"/>
       <c r="J726" t="inlineStr"/>
-      <c r="K726" t="inlineStr"/>
+      <c r="K726" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L726" t="n">
         <v>1</v>
       </c>
@@ -24380,7 +24912,11 @@
       </c>
       <c r="I727" t="inlineStr"/>
       <c r="J727" t="inlineStr"/>
-      <c r="K727" t="inlineStr"/>
+      <c r="K727" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L727" t="n">
         <v>1</v>
       </c>
@@ -24413,7 +24949,11 @@
       </c>
       <c r="I728" t="inlineStr"/>
       <c r="J728" t="inlineStr"/>
-      <c r="K728" t="inlineStr"/>
+      <c r="K728" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L728" t="n">
         <v>1</v>
       </c>
@@ -24446,7 +24986,11 @@
       </c>
       <c r="I729" t="inlineStr"/>
       <c r="J729" t="inlineStr"/>
-      <c r="K729" t="inlineStr"/>
+      <c r="K729" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L729" t="n">
         <v>1</v>
       </c>
@@ -24479,7 +25023,11 @@
       </c>
       <c r="I730" t="inlineStr"/>
       <c r="J730" t="inlineStr"/>
-      <c r="K730" t="inlineStr"/>
+      <c r="K730" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L730" t="n">
         <v>1</v>
       </c>
@@ -24512,7 +25060,11 @@
       </c>
       <c r="I731" t="inlineStr"/>
       <c r="J731" t="inlineStr"/>
-      <c r="K731" t="inlineStr"/>
+      <c r="K731" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L731" t="n">
         <v>1</v>
       </c>
@@ -24545,7 +25097,11 @@
       </c>
       <c r="I732" t="inlineStr"/>
       <c r="J732" t="inlineStr"/>
-      <c r="K732" t="inlineStr"/>
+      <c r="K732" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L732" t="n">
         <v>1</v>
       </c>
@@ -24578,7 +25134,11 @@
       </c>
       <c r="I733" t="inlineStr"/>
       <c r="J733" t="inlineStr"/>
-      <c r="K733" t="inlineStr"/>
+      <c r="K733" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L733" t="n">
         <v>1</v>
       </c>
@@ -24611,7 +25171,11 @@
       </c>
       <c r="I734" t="inlineStr"/>
       <c r="J734" t="inlineStr"/>
-      <c r="K734" t="inlineStr"/>
+      <c r="K734" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L734" t="n">
         <v>1</v>
       </c>
@@ -24644,7 +25208,11 @@
       </c>
       <c r="I735" t="inlineStr"/>
       <c r="J735" t="inlineStr"/>
-      <c r="K735" t="inlineStr"/>
+      <c r="K735" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L735" t="n">
         <v>1</v>
       </c>
@@ -24677,7 +25245,11 @@
       </c>
       <c r="I736" t="inlineStr"/>
       <c r="J736" t="inlineStr"/>
-      <c r="K736" t="inlineStr"/>
+      <c r="K736" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L736" t="n">
         <v>1</v>
       </c>
@@ -24710,7 +25282,11 @@
       </c>
       <c r="I737" t="inlineStr"/>
       <c r="J737" t="inlineStr"/>
-      <c r="K737" t="inlineStr"/>
+      <c r="K737" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L737" t="n">
         <v>1</v>
       </c>
@@ -24743,7 +25319,11 @@
       </c>
       <c r="I738" t="inlineStr"/>
       <c r="J738" t="inlineStr"/>
-      <c r="K738" t="inlineStr"/>
+      <c r="K738" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L738" t="n">
         <v>1</v>
       </c>
@@ -24776,7 +25356,11 @@
       </c>
       <c r="I739" t="inlineStr"/>
       <c r="J739" t="inlineStr"/>
-      <c r="K739" t="inlineStr"/>
+      <c r="K739" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L739" t="n">
         <v>1</v>
       </c>
@@ -24809,7 +25393,11 @@
       </c>
       <c r="I740" t="inlineStr"/>
       <c r="J740" t="inlineStr"/>
-      <c r="K740" t="inlineStr"/>
+      <c r="K740" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L740" t="n">
         <v>1</v>
       </c>
@@ -24842,7 +25430,11 @@
       </c>
       <c r="I741" t="inlineStr"/>
       <c r="J741" t="inlineStr"/>
-      <c r="K741" t="inlineStr"/>
+      <c r="K741" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L741" t="n">
         <v>1</v>
       </c>
@@ -24875,7 +25467,11 @@
       </c>
       <c r="I742" t="inlineStr"/>
       <c r="J742" t="inlineStr"/>
-      <c r="K742" t="inlineStr"/>
+      <c r="K742" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L742" t="n">
         <v>1</v>
       </c>
@@ -24908,7 +25504,11 @@
       </c>
       <c r="I743" t="inlineStr"/>
       <c r="J743" t="inlineStr"/>
-      <c r="K743" t="inlineStr"/>
+      <c r="K743" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L743" t="n">
         <v>1</v>
       </c>
@@ -24941,7 +25541,11 @@
       </c>
       <c r="I744" t="inlineStr"/>
       <c r="J744" t="inlineStr"/>
-      <c r="K744" t="inlineStr"/>
+      <c r="K744" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L744" t="n">
         <v>1</v>
       </c>
@@ -24974,7 +25578,11 @@
       </c>
       <c r="I745" t="inlineStr"/>
       <c r="J745" t="inlineStr"/>
-      <c r="K745" t="inlineStr"/>
+      <c r="K745" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L745" t="n">
         <v>1</v>
       </c>
@@ -25007,7 +25615,11 @@
       </c>
       <c r="I746" t="inlineStr"/>
       <c r="J746" t="inlineStr"/>
-      <c r="K746" t="inlineStr"/>
+      <c r="K746" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L746" t="n">
         <v>1</v>
       </c>
@@ -25040,7 +25652,11 @@
       </c>
       <c r="I747" t="inlineStr"/>
       <c r="J747" t="inlineStr"/>
-      <c r="K747" t="inlineStr"/>
+      <c r="K747" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L747" t="n">
         <v>1</v>
       </c>
@@ -25073,7 +25689,11 @@
       </c>
       <c r="I748" t="inlineStr"/>
       <c r="J748" t="inlineStr"/>
-      <c r="K748" t="inlineStr"/>
+      <c r="K748" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L748" t="n">
         <v>1</v>
       </c>
@@ -25106,7 +25726,11 @@
       </c>
       <c r="I749" t="inlineStr"/>
       <c r="J749" t="inlineStr"/>
-      <c r="K749" t="inlineStr"/>
+      <c r="K749" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L749" t="n">
         <v>1</v>
       </c>
@@ -25139,7 +25763,11 @@
       </c>
       <c r="I750" t="inlineStr"/>
       <c r="J750" t="inlineStr"/>
-      <c r="K750" t="inlineStr"/>
+      <c r="K750" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L750" t="n">
         <v>1</v>
       </c>
@@ -25172,7 +25800,11 @@
       </c>
       <c r="I751" t="inlineStr"/>
       <c r="J751" t="inlineStr"/>
-      <c r="K751" t="inlineStr"/>
+      <c r="K751" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L751" t="n">
         <v>1</v>
       </c>
@@ -25205,7 +25837,11 @@
       </c>
       <c r="I752" t="inlineStr"/>
       <c r="J752" t="inlineStr"/>
-      <c r="K752" t="inlineStr"/>
+      <c r="K752" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L752" t="n">
         <v>1</v>
       </c>
@@ -25238,7 +25874,11 @@
       </c>
       <c r="I753" t="inlineStr"/>
       <c r="J753" t="inlineStr"/>
-      <c r="K753" t="inlineStr"/>
+      <c r="K753" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L753" t="n">
         <v>1</v>
       </c>
@@ -25271,7 +25911,11 @@
       </c>
       <c r="I754" t="inlineStr"/>
       <c r="J754" t="inlineStr"/>
-      <c r="K754" t="inlineStr"/>
+      <c r="K754" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L754" t="n">
         <v>1</v>
       </c>
@@ -25304,7 +25948,11 @@
       </c>
       <c r="I755" t="inlineStr"/>
       <c r="J755" t="inlineStr"/>
-      <c r="K755" t="inlineStr"/>
+      <c r="K755" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L755" t="n">
         <v>1</v>
       </c>
@@ -25337,7 +25985,11 @@
       </c>
       <c r="I756" t="inlineStr"/>
       <c r="J756" t="inlineStr"/>
-      <c r="K756" t="inlineStr"/>
+      <c r="K756" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L756" t="n">
         <v>1</v>
       </c>
@@ -25370,7 +26022,11 @@
       </c>
       <c r="I757" t="inlineStr"/>
       <c r="J757" t="inlineStr"/>
-      <c r="K757" t="inlineStr"/>
+      <c r="K757" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L757" t="n">
         <v>1</v>
       </c>
@@ -25403,7 +26059,11 @@
       </c>
       <c r="I758" t="inlineStr"/>
       <c r="J758" t="inlineStr"/>
-      <c r="K758" t="inlineStr"/>
+      <c r="K758" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L758" t="n">
         <v>1</v>
       </c>
@@ -25436,7 +26096,11 @@
       </c>
       <c r="I759" t="inlineStr"/>
       <c r="J759" t="inlineStr"/>
-      <c r="K759" t="inlineStr"/>
+      <c r="K759" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L759" t="n">
         <v>1</v>
       </c>
@@ -25469,7 +26133,11 @@
       </c>
       <c r="I760" t="inlineStr"/>
       <c r="J760" t="inlineStr"/>
-      <c r="K760" t="inlineStr"/>
+      <c r="K760" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L760" t="n">
         <v>1</v>
       </c>
@@ -25502,7 +26170,11 @@
       </c>
       <c r="I761" t="inlineStr"/>
       <c r="J761" t="inlineStr"/>
-      <c r="K761" t="inlineStr"/>
+      <c r="K761" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L761" t="n">
         <v>1</v>
       </c>
@@ -25535,7 +26207,11 @@
       </c>
       <c r="I762" t="inlineStr"/>
       <c r="J762" t="inlineStr"/>
-      <c r="K762" t="inlineStr"/>
+      <c r="K762" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L762" t="n">
         <v>1</v>
       </c>
@@ -25568,7 +26244,11 @@
       </c>
       <c r="I763" t="inlineStr"/>
       <c r="J763" t="inlineStr"/>
-      <c r="K763" t="inlineStr"/>
+      <c r="K763" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L763" t="n">
         <v>1</v>
       </c>
@@ -25601,7 +26281,11 @@
       </c>
       <c r="I764" t="inlineStr"/>
       <c r="J764" t="inlineStr"/>
-      <c r="K764" t="inlineStr"/>
+      <c r="K764" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L764" t="n">
         <v>1</v>
       </c>
@@ -25634,7 +26318,11 @@
       </c>
       <c r="I765" t="inlineStr"/>
       <c r="J765" t="inlineStr"/>
-      <c r="K765" t="inlineStr"/>
+      <c r="K765" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L765" t="n">
         <v>1</v>
       </c>
@@ -25667,7 +26355,11 @@
       </c>
       <c r="I766" t="inlineStr"/>
       <c r="J766" t="inlineStr"/>
-      <c r="K766" t="inlineStr"/>
+      <c r="K766" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L766" t="n">
         <v>1</v>
       </c>
@@ -25700,7 +26392,11 @@
       </c>
       <c r="I767" t="inlineStr"/>
       <c r="J767" t="inlineStr"/>
-      <c r="K767" t="inlineStr"/>
+      <c r="K767" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L767" t="n">
         <v>1</v>
       </c>
@@ -25733,7 +26429,11 @@
       </c>
       <c r="I768" t="inlineStr"/>
       <c r="J768" t="inlineStr"/>
-      <c r="K768" t="inlineStr"/>
+      <c r="K768" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L768" t="n">
         <v>1</v>
       </c>
@@ -25766,7 +26466,11 @@
       </c>
       <c r="I769" t="inlineStr"/>
       <c r="J769" t="inlineStr"/>
-      <c r="K769" t="inlineStr"/>
+      <c r="K769" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L769" t="n">
         <v>1</v>
       </c>
@@ -25799,7 +26503,11 @@
       </c>
       <c r="I770" t="inlineStr"/>
       <c r="J770" t="inlineStr"/>
-      <c r="K770" t="inlineStr"/>
+      <c r="K770" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L770" t="n">
         <v>1</v>
       </c>
@@ -25832,7 +26540,11 @@
       </c>
       <c r="I771" t="inlineStr"/>
       <c r="J771" t="inlineStr"/>
-      <c r="K771" t="inlineStr"/>
+      <c r="K771" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L771" t="n">
         <v>1</v>
       </c>
@@ -25865,7 +26577,11 @@
       </c>
       <c r="I772" t="inlineStr"/>
       <c r="J772" t="inlineStr"/>
-      <c r="K772" t="inlineStr"/>
+      <c r="K772" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L772" t="n">
         <v>1</v>
       </c>
@@ -25898,7 +26614,11 @@
       </c>
       <c r="I773" t="inlineStr"/>
       <c r="J773" t="inlineStr"/>
-      <c r="K773" t="inlineStr"/>
+      <c r="K773" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L773" t="n">
         <v>1</v>
       </c>
@@ -25931,7 +26651,11 @@
       </c>
       <c r="I774" t="inlineStr"/>
       <c r="J774" t="inlineStr"/>
-      <c r="K774" t="inlineStr"/>
+      <c r="K774" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L774" t="n">
         <v>1</v>
       </c>
@@ -25964,7 +26688,11 @@
       </c>
       <c r="I775" t="inlineStr"/>
       <c r="J775" t="inlineStr"/>
-      <c r="K775" t="inlineStr"/>
+      <c r="K775" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L775" t="n">
         <v>1</v>
       </c>
@@ -25997,7 +26725,11 @@
       </c>
       <c r="I776" t="inlineStr"/>
       <c r="J776" t="inlineStr"/>
-      <c r="K776" t="inlineStr"/>
+      <c r="K776" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L776" t="n">
         <v>1</v>
       </c>
@@ -26030,7 +26762,11 @@
       </c>
       <c r="I777" t="inlineStr"/>
       <c r="J777" t="inlineStr"/>
-      <c r="K777" t="inlineStr"/>
+      <c r="K777" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L777" t="n">
         <v>1</v>
       </c>
@@ -26063,7 +26799,11 @@
       </c>
       <c r="I778" t="inlineStr"/>
       <c r="J778" t="inlineStr"/>
-      <c r="K778" t="inlineStr"/>
+      <c r="K778" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L778" t="n">
         <v>1</v>
       </c>
@@ -26096,7 +26836,11 @@
       </c>
       <c r="I779" t="inlineStr"/>
       <c r="J779" t="inlineStr"/>
-      <c r="K779" t="inlineStr"/>
+      <c r="K779" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L779" t="n">
         <v>1</v>
       </c>
@@ -26129,7 +26873,11 @@
       </c>
       <c r="I780" t="inlineStr"/>
       <c r="J780" t="inlineStr"/>
-      <c r="K780" t="inlineStr"/>
+      <c r="K780" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L780" t="n">
         <v>1</v>
       </c>
@@ -26162,7 +26910,11 @@
       </c>
       <c r="I781" t="inlineStr"/>
       <c r="J781" t="inlineStr"/>
-      <c r="K781" t="inlineStr"/>
+      <c r="K781" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L781" t="n">
         <v>1</v>
       </c>
@@ -26195,7 +26947,11 @@
       </c>
       <c r="I782" t="inlineStr"/>
       <c r="J782" t="inlineStr"/>
-      <c r="K782" t="inlineStr"/>
+      <c r="K782" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L782" t="n">
         <v>1</v>
       </c>
@@ -26228,7 +26984,11 @@
       </c>
       <c r="I783" t="inlineStr"/>
       <c r="J783" t="inlineStr"/>
-      <c r="K783" t="inlineStr"/>
+      <c r="K783" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L783" t="n">
         <v>1</v>
       </c>
@@ -26261,7 +27021,11 @@
       </c>
       <c r="I784" t="inlineStr"/>
       <c r="J784" t="inlineStr"/>
-      <c r="K784" t="inlineStr"/>
+      <c r="K784" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L784" t="n">
         <v>1</v>
       </c>
@@ -26294,7 +27058,11 @@
       </c>
       <c r="I785" t="inlineStr"/>
       <c r="J785" t="inlineStr"/>
-      <c r="K785" t="inlineStr"/>
+      <c r="K785" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L785" t="n">
         <v>1</v>
       </c>
@@ -26327,7 +27095,11 @@
       </c>
       <c r="I786" t="inlineStr"/>
       <c r="J786" t="inlineStr"/>
-      <c r="K786" t="inlineStr"/>
+      <c r="K786" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L786" t="n">
         <v>1</v>
       </c>
@@ -26360,7 +27132,11 @@
       </c>
       <c r="I787" t="inlineStr"/>
       <c r="J787" t="inlineStr"/>
-      <c r="K787" t="inlineStr"/>
+      <c r="K787" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L787" t="n">
         <v>1</v>
       </c>
@@ -26393,7 +27169,11 @@
       </c>
       <c r="I788" t="inlineStr"/>
       <c r="J788" t="inlineStr"/>
-      <c r="K788" t="inlineStr"/>
+      <c r="K788" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L788" t="n">
         <v>1</v>
       </c>
@@ -26426,7 +27206,11 @@
       </c>
       <c r="I789" t="inlineStr"/>
       <c r="J789" t="inlineStr"/>
-      <c r="K789" t="inlineStr"/>
+      <c r="K789" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L789" t="n">
         <v>1</v>
       </c>
@@ -26459,7 +27243,11 @@
       </c>
       <c r="I790" t="inlineStr"/>
       <c r="J790" t="inlineStr"/>
-      <c r="K790" t="inlineStr"/>
+      <c r="K790" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L790" t="n">
         <v>1</v>
       </c>
@@ -26492,7 +27280,11 @@
       </c>
       <c r="I791" t="inlineStr"/>
       <c r="J791" t="inlineStr"/>
-      <c r="K791" t="inlineStr"/>
+      <c r="K791" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L791" t="n">
         <v>1</v>
       </c>
@@ -26525,7 +27317,11 @@
       </c>
       <c r="I792" t="inlineStr"/>
       <c r="J792" t="inlineStr"/>
-      <c r="K792" t="inlineStr"/>
+      <c r="K792" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L792" t="n">
         <v>1</v>
       </c>
@@ -26558,7 +27354,11 @@
       </c>
       <c r="I793" t="inlineStr"/>
       <c r="J793" t="inlineStr"/>
-      <c r="K793" t="inlineStr"/>
+      <c r="K793" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L793" t="n">
         <v>1</v>
       </c>
@@ -26591,7 +27391,11 @@
       </c>
       <c r="I794" t="inlineStr"/>
       <c r="J794" t="inlineStr"/>
-      <c r="K794" t="inlineStr"/>
+      <c r="K794" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L794" t="n">
         <v>1</v>
       </c>
@@ -26624,7 +27428,11 @@
       </c>
       <c r="I795" t="inlineStr"/>
       <c r="J795" t="inlineStr"/>
-      <c r="K795" t="inlineStr"/>
+      <c r="K795" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L795" t="n">
         <v>1</v>
       </c>
@@ -26657,7 +27465,11 @@
       </c>
       <c r="I796" t="inlineStr"/>
       <c r="J796" t="inlineStr"/>
-      <c r="K796" t="inlineStr"/>
+      <c r="K796" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L796" t="n">
         <v>1</v>
       </c>
@@ -26690,7 +27502,11 @@
       </c>
       <c r="I797" t="inlineStr"/>
       <c r="J797" t="inlineStr"/>
-      <c r="K797" t="inlineStr"/>
+      <c r="K797" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L797" t="n">
         <v>1</v>
       </c>
@@ -26723,7 +27539,11 @@
       </c>
       <c r="I798" t="inlineStr"/>
       <c r="J798" t="inlineStr"/>
-      <c r="K798" t="inlineStr"/>
+      <c r="K798" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L798" t="n">
         <v>1</v>
       </c>
@@ -26756,7 +27576,11 @@
       </c>
       <c r="I799" t="inlineStr"/>
       <c r="J799" t="inlineStr"/>
-      <c r="K799" t="inlineStr"/>
+      <c r="K799" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L799" t="n">
         <v>1</v>
       </c>
@@ -26789,7 +27613,11 @@
       </c>
       <c r="I800" t="inlineStr"/>
       <c r="J800" t="inlineStr"/>
-      <c r="K800" t="inlineStr"/>
+      <c r="K800" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L800" t="n">
         <v>1</v>
       </c>
@@ -26822,7 +27650,11 @@
       </c>
       <c r="I801" t="inlineStr"/>
       <c r="J801" t="inlineStr"/>
-      <c r="K801" t="inlineStr"/>
+      <c r="K801" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L801" t="n">
         <v>1</v>
       </c>
@@ -26855,7 +27687,11 @@
       </c>
       <c r="I802" t="inlineStr"/>
       <c r="J802" t="inlineStr"/>
-      <c r="K802" t="inlineStr"/>
+      <c r="K802" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L802" t="n">
         <v>1</v>
       </c>
@@ -26888,7 +27724,11 @@
       </c>
       <c r="I803" t="inlineStr"/>
       <c r="J803" t="inlineStr"/>
-      <c r="K803" t="inlineStr"/>
+      <c r="K803" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L803" t="n">
         <v>1</v>
       </c>
@@ -26921,7 +27761,11 @@
       </c>
       <c r="I804" t="inlineStr"/>
       <c r="J804" t="inlineStr"/>
-      <c r="K804" t="inlineStr"/>
+      <c r="K804" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L804" t="n">
         <v>1</v>
       </c>
@@ -26954,7 +27798,11 @@
       </c>
       <c r="I805" t="inlineStr"/>
       <c r="J805" t="inlineStr"/>
-      <c r="K805" t="inlineStr"/>
+      <c r="K805" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L805" t="n">
         <v>1</v>
       </c>
@@ -26987,7 +27835,11 @@
       </c>
       <c r="I806" t="inlineStr"/>
       <c r="J806" t="inlineStr"/>
-      <c r="K806" t="inlineStr"/>
+      <c r="K806" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L806" t="n">
         <v>1</v>
       </c>
@@ -27020,7 +27872,11 @@
       </c>
       <c r="I807" t="inlineStr"/>
       <c r="J807" t="inlineStr"/>
-      <c r="K807" t="inlineStr"/>
+      <c r="K807" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L807" t="n">
         <v>1</v>
       </c>
@@ -27053,7 +27909,11 @@
       </c>
       <c r="I808" t="inlineStr"/>
       <c r="J808" t="inlineStr"/>
-      <c r="K808" t="inlineStr"/>
+      <c r="K808" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L808" t="n">
         <v>1</v>
       </c>
@@ -27086,7 +27946,11 @@
       </c>
       <c r="I809" t="inlineStr"/>
       <c r="J809" t="inlineStr"/>
-      <c r="K809" t="inlineStr"/>
+      <c r="K809" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L809" t="n">
         <v>1</v>
       </c>
@@ -27119,7 +27983,11 @@
       </c>
       <c r="I810" t="inlineStr"/>
       <c r="J810" t="inlineStr"/>
-      <c r="K810" t="inlineStr"/>
+      <c r="K810" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L810" t="n">
         <v>1</v>
       </c>
@@ -27148,11 +28016,17 @@
         <v>-5903.874232889994</v>
       </c>
       <c r="H811" t="n">
-        <v>0</v>
-      </c>
-      <c r="I811" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I811" t="n">
+        <v>356000</v>
+      </c>
       <c r="J811" t="inlineStr"/>
-      <c r="K811" t="inlineStr"/>
+      <c r="K811" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L811" t="n">
         <v>1</v>
       </c>
@@ -27181,11 +28055,17 @@
         <v>-5986.296932889994</v>
       </c>
       <c r="H812" t="n">
-        <v>0</v>
-      </c>
-      <c r="I812" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I812" t="n">
+        <v>356200</v>
+      </c>
       <c r="J812" t="inlineStr"/>
-      <c r="K812" t="inlineStr"/>
+      <c r="K812" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L812" t="n">
         <v>1</v>
       </c>
@@ -27214,11 +28094,17 @@
         <v>-5673.583932889995</v>
       </c>
       <c r="H813" t="n">
-        <v>0</v>
-      </c>
-      <c r="I813" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I813" t="n">
+        <v>353900</v>
+      </c>
       <c r="J813" t="inlineStr"/>
-      <c r="K813" t="inlineStr"/>
+      <c r="K813" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L813" t="n">
         <v>1</v>
       </c>
@@ -27251,7 +28137,11 @@
       </c>
       <c r="I814" t="inlineStr"/>
       <c r="J814" t="inlineStr"/>
-      <c r="K814" t="inlineStr"/>
+      <c r="K814" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L814" t="n">
         <v>1</v>
       </c>
@@ -27284,7 +28174,11 @@
       </c>
       <c r="I815" t="inlineStr"/>
       <c r="J815" t="inlineStr"/>
-      <c r="K815" t="inlineStr"/>
+      <c r="K815" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L815" t="n">
         <v>1</v>
       </c>
@@ -27317,7 +28211,11 @@
       </c>
       <c r="I816" t="inlineStr"/>
       <c r="J816" t="inlineStr"/>
-      <c r="K816" t="inlineStr"/>
+      <c r="K816" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L816" t="n">
         <v>1</v>
       </c>
@@ -27350,7 +28248,11 @@
       </c>
       <c r="I817" t="inlineStr"/>
       <c r="J817" t="inlineStr"/>
-      <c r="K817" t="inlineStr"/>
+      <c r="K817" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L817" t="n">
         <v>1</v>
       </c>
@@ -27379,11 +28281,17 @@
         <v>-5691.884132889994</v>
       </c>
       <c r="H818" t="n">
-        <v>0</v>
-      </c>
-      <c r="I818" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I818" t="n">
+        <v>357000</v>
+      </c>
       <c r="J818" t="inlineStr"/>
-      <c r="K818" t="inlineStr"/>
+      <c r="K818" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L818" t="n">
         <v>1</v>
       </c>
@@ -27412,11 +28320,17 @@
         <v>-5748.719032889994</v>
       </c>
       <c r="H819" t="n">
-        <v>0</v>
-      </c>
-      <c r="I819" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I819" t="n">
+        <v>356100</v>
+      </c>
       <c r="J819" t="inlineStr"/>
-      <c r="K819" t="inlineStr"/>
+      <c r="K819" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L819" t="n">
         <v>1</v>
       </c>
@@ -27445,11 +28359,17 @@
         <v>-5759.940332889994</v>
       </c>
       <c r="H820" t="n">
-        <v>0</v>
-      </c>
-      <c r="I820" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I820" t="n">
+        <v>355900</v>
+      </c>
       <c r="J820" t="inlineStr"/>
-      <c r="K820" t="inlineStr"/>
+      <c r="K820" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L820" t="n">
         <v>1</v>
       </c>
@@ -27478,11 +28398,17 @@
         <v>-5780.354832889994</v>
       </c>
       <c r="H821" t="n">
-        <v>0</v>
-      </c>
-      <c r="I821" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I821" t="n">
+        <v>355500</v>
+      </c>
       <c r="J821" t="inlineStr"/>
-      <c r="K821" t="inlineStr"/>
+      <c r="K821" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L821" t="n">
         <v>1</v>
       </c>
@@ -27511,11 +28437,17 @@
         <v>-5780.354832889994</v>
       </c>
       <c r="H822" t="n">
-        <v>0</v>
-      </c>
-      <c r="I822" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I822" t="n">
+        <v>354200</v>
+      </c>
       <c r="J822" t="inlineStr"/>
-      <c r="K822" t="inlineStr"/>
+      <c r="K822" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L822" t="n">
         <v>1</v>
       </c>
@@ -27544,11 +28476,17 @@
         <v>-5785.754832889994</v>
       </c>
       <c r="H823" t="n">
-        <v>0</v>
-      </c>
-      <c r="I823" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I823" t="n">
+        <v>354200</v>
+      </c>
       <c r="J823" t="inlineStr"/>
-      <c r="K823" t="inlineStr"/>
+      <c r="K823" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L823" t="n">
         <v>1</v>
       </c>
@@ -27577,15 +28515,17 @@
         <v>-5764.767532889994</v>
       </c>
       <c r="H824" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I824" t="n">
         <v>354000</v>
       </c>
-      <c r="J824" t="n">
-        <v>354000</v>
-      </c>
-      <c r="K824" t="inlineStr"/>
+      <c r="J824" t="inlineStr"/>
+      <c r="K824" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L824" t="n">
         <v>1</v>
       </c>
@@ -27614,17 +28554,15 @@
         <v>-5771.484632889994</v>
       </c>
       <c r="H825" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I825" t="n">
         <v>355000</v>
       </c>
-      <c r="J825" t="n">
-        <v>354000</v>
-      </c>
+      <c r="J825" t="inlineStr"/>
       <c r="K825" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L825" t="n">
@@ -27655,17 +28593,15 @@
         <v>-5803.037132889994</v>
       </c>
       <c r="H826" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I826" t="n">
         <v>354200</v>
       </c>
-      <c r="J826" t="n">
-        <v>354000</v>
-      </c>
+      <c r="J826" t="inlineStr"/>
       <c r="K826" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L826" t="n">
@@ -27696,12 +28632,12 @@
         <v>-5777.206832889994</v>
       </c>
       <c r="H827" t="n">
-        <v>0</v>
-      </c>
-      <c r="I827" t="inlineStr"/>
-      <c r="J827" t="n">
-        <v>354000</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I827" t="n">
+        <v>353500</v>
+      </c>
+      <c r="J827" t="inlineStr"/>
       <c r="K827" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27735,12 +28671,12 @@
         <v>-5787.819832889994</v>
       </c>
       <c r="H828" t="n">
-        <v>0</v>
-      </c>
-      <c r="I828" t="inlineStr"/>
-      <c r="J828" t="n">
-        <v>354000</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I828" t="n">
+        <v>355600</v>
+      </c>
+      <c r="J828" t="inlineStr"/>
       <c r="K828" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27774,12 +28710,12 @@
         <v>-5787.819832889994</v>
       </c>
       <c r="H829" t="n">
-        <v>0</v>
-      </c>
-      <c r="I829" t="inlineStr"/>
-      <c r="J829" t="n">
-        <v>354000</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I829" t="n">
+        <v>354500</v>
+      </c>
+      <c r="J829" t="inlineStr"/>
       <c r="K829" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27813,12 +28749,12 @@
         <v>-5924.083532889995</v>
       </c>
       <c r="H830" t="n">
-        <v>0</v>
-      </c>
-      <c r="I830" t="inlineStr"/>
-      <c r="J830" t="n">
-        <v>354000</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I830" t="n">
+        <v>354500</v>
+      </c>
+      <c r="J830" t="inlineStr"/>
       <c r="K830" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27852,12 +28788,12 @@
         <v>-5935.513232889994</v>
       </c>
       <c r="H831" t="n">
-        <v>0</v>
-      </c>
-      <c r="I831" t="inlineStr"/>
-      <c r="J831" t="n">
-        <v>354000</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I831" t="n">
+        <v>354200</v>
+      </c>
+      <c r="J831" t="inlineStr"/>
       <c r="K831" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27894,9 +28830,7 @@
         <v>0</v>
       </c>
       <c r="I832" t="inlineStr"/>
-      <c r="J832" t="n">
-        <v>354000</v>
-      </c>
+      <c r="J832" t="inlineStr"/>
       <c r="K832" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27930,12 +28864,12 @@
         <v>-5935.513232889994</v>
       </c>
       <c r="H833" t="n">
-        <v>0</v>
-      </c>
-      <c r="I833" t="inlineStr"/>
-      <c r="J833" t="n">
-        <v>354000</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I833" t="n">
+        <v>353300</v>
+      </c>
+      <c r="J833" t="inlineStr"/>
       <c r="K833" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27969,12 +28903,12 @@
         <v>-5980.785232889994</v>
       </c>
       <c r="H834" t="n">
-        <v>0</v>
-      </c>
-      <c r="I834" t="inlineStr"/>
-      <c r="J834" t="n">
-        <v>354000</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I834" t="n">
+        <v>353300</v>
+      </c>
+      <c r="J834" t="inlineStr"/>
       <c r="K834" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28008,12 +28942,12 @@
         <v>-5982.588832889995</v>
       </c>
       <c r="H835" t="n">
-        <v>0</v>
-      </c>
-      <c r="I835" t="inlineStr"/>
-      <c r="J835" t="n">
-        <v>354000</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I835" t="n">
+        <v>352900</v>
+      </c>
+      <c r="J835" t="inlineStr"/>
       <c r="K835" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28047,12 +28981,12 @@
         <v>-5981.188832889995</v>
       </c>
       <c r="H836" t="n">
-        <v>0</v>
-      </c>
-      <c r="I836" t="inlineStr"/>
-      <c r="J836" t="n">
-        <v>354000</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I836" t="n">
+        <v>352500</v>
+      </c>
+      <c r="J836" t="inlineStr"/>
       <c r="K836" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28086,12 +29020,12 @@
         <v>-5975.891332889995</v>
       </c>
       <c r="H837" t="n">
-        <v>0</v>
-      </c>
-      <c r="I837" t="inlineStr"/>
-      <c r="J837" t="n">
-        <v>354000</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I837" t="n">
+        <v>352800</v>
+      </c>
+      <c r="J837" t="inlineStr"/>
       <c r="K837" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28125,12 +29059,12 @@
         <v>-6133.149032889995</v>
       </c>
       <c r="H838" t="n">
-        <v>0</v>
-      </c>
-      <c r="I838" t="inlineStr"/>
-      <c r="J838" t="n">
-        <v>354000</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I838" t="n">
+        <v>352900</v>
+      </c>
+      <c r="J838" t="inlineStr"/>
       <c r="K838" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28164,12 +29098,12 @@
         <v>-6328.206232889996</v>
       </c>
       <c r="H839" t="n">
-        <v>0</v>
-      </c>
-      <c r="I839" t="inlineStr"/>
-      <c r="J839" t="n">
-        <v>354000</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I839" t="n">
+        <v>351300</v>
+      </c>
+      <c r="J839" t="inlineStr"/>
       <c r="K839" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28206,9 +29140,7 @@
         <v>0</v>
       </c>
       <c r="I840" t="inlineStr"/>
-      <c r="J840" t="n">
-        <v>354000</v>
-      </c>
+      <c r="J840" t="inlineStr"/>
       <c r="K840" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28242,12 +29174,12 @@
         <v>-6101.836632889996</v>
       </c>
       <c r="H841" t="n">
-        <v>0</v>
-      </c>
-      <c r="I841" t="inlineStr"/>
-      <c r="J841" t="n">
-        <v>354000</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I841" t="n">
+        <v>351100</v>
+      </c>
+      <c r="J841" t="inlineStr"/>
       <c r="K841" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28281,12 +29213,12 @@
         <v>-6003.878432889996</v>
       </c>
       <c r="H842" t="n">
-        <v>0</v>
-      </c>
-      <c r="I842" t="inlineStr"/>
-      <c r="J842" t="n">
-        <v>354000</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I842" t="n">
+        <v>352000</v>
+      </c>
+      <c r="J842" t="inlineStr"/>
       <c r="K842" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28320,12 +29252,12 @@
         <v>-6047.487632889995</v>
       </c>
       <c r="H843" t="n">
-        <v>0</v>
-      </c>
-      <c r="I843" t="inlineStr"/>
-      <c r="J843" t="n">
-        <v>354000</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I843" t="n">
+        <v>353200</v>
+      </c>
+      <c r="J843" t="inlineStr"/>
       <c r="K843" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28359,12 +29291,12 @@
         <v>-6110.823332889995</v>
       </c>
       <c r="H844" t="n">
-        <v>0</v>
-      </c>
-      <c r="I844" t="inlineStr"/>
-      <c r="J844" t="n">
-        <v>354000</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I844" t="n">
+        <v>352600</v>
+      </c>
+      <c r="J844" t="inlineStr"/>
       <c r="K844" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28398,12 +29330,12 @@
         <v>-6130.813332889995</v>
       </c>
       <c r="H845" t="n">
-        <v>0</v>
-      </c>
-      <c r="I845" t="inlineStr"/>
-      <c r="J845" t="n">
-        <v>354000</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I845" t="n">
+        <v>351900</v>
+      </c>
+      <c r="J845" t="inlineStr"/>
       <c r="K845" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28437,12 +29369,12 @@
         <v>-6074.878632889995</v>
       </c>
       <c r="H846" t="n">
-        <v>0</v>
-      </c>
-      <c r="I846" t="inlineStr"/>
-      <c r="J846" t="n">
-        <v>354000</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I846" t="n">
+        <v>351700</v>
+      </c>
+      <c r="J846" t="inlineStr"/>
       <c r="K846" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28476,12 +29408,12 @@
         <v>-6097.757432889995</v>
       </c>
       <c r="H847" t="n">
-        <v>0</v>
-      </c>
-      <c r="I847" t="inlineStr"/>
-      <c r="J847" t="n">
-        <v>354000</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I847" t="n">
+        <v>352600</v>
+      </c>
+      <c r="J847" t="inlineStr"/>
       <c r="K847" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28515,12 +29447,12 @@
         <v>-6069.388032889996</v>
       </c>
       <c r="H848" t="n">
-        <v>0</v>
-      </c>
-      <c r="I848" t="inlineStr"/>
-      <c r="J848" t="n">
-        <v>354000</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I848" t="n">
+        <v>352500</v>
+      </c>
+      <c r="J848" t="inlineStr"/>
       <c r="K848" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28554,12 +29486,12 @@
         <v>-5999.473832889996</v>
       </c>
       <c r="H849" t="n">
-        <v>0</v>
-      </c>
-      <c r="I849" t="inlineStr"/>
-      <c r="J849" t="n">
-        <v>354000</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I849" t="n">
+        <v>353000</v>
+      </c>
+      <c r="J849" t="inlineStr"/>
       <c r="K849" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28593,12 +29525,12 @@
         <v>-5899.071232889995</v>
       </c>
       <c r="H850" t="n">
-        <v>0</v>
-      </c>
-      <c r="I850" t="inlineStr"/>
-      <c r="J850" t="n">
+        <v>1</v>
+      </c>
+      <c r="I850" t="n">
         <v>354000</v>
       </c>
+      <c r="J850" t="inlineStr"/>
       <c r="K850" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28632,12 +29564,12 @@
         <v>-5844.408332889995</v>
       </c>
       <c r="H851" t="n">
-        <v>0</v>
-      </c>
-      <c r="I851" t="inlineStr"/>
-      <c r="J851" t="n">
-        <v>354000</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I851" t="n">
+        <v>355800</v>
+      </c>
+      <c r="J851" t="inlineStr"/>
       <c r="K851" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28674,9 +29606,7 @@
         <v>0</v>
       </c>
       <c r="I852" t="inlineStr"/>
-      <c r="J852" t="n">
-        <v>354000</v>
-      </c>
+      <c r="J852" t="inlineStr"/>
       <c r="K852" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28713,9 +29643,7 @@
         <v>0</v>
       </c>
       <c r="I853" t="inlineStr"/>
-      <c r="J853" t="n">
-        <v>354000</v>
-      </c>
+      <c r="J853" t="inlineStr"/>
       <c r="K853" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28752,9 +29680,7 @@
         <v>0</v>
       </c>
       <c r="I854" t="inlineStr"/>
-      <c r="J854" t="n">
-        <v>354000</v>
-      </c>
+      <c r="J854" t="inlineStr"/>
       <c r="K854" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28791,9 +29717,7 @@
         <v>0</v>
       </c>
       <c r="I855" t="inlineStr"/>
-      <c r="J855" t="n">
-        <v>354000</v>
-      </c>
+      <c r="J855" t="inlineStr"/>
       <c r="K855" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28830,9 +29754,7 @@
         <v>0</v>
       </c>
       <c r="I856" t="inlineStr"/>
-      <c r="J856" t="n">
-        <v>354000</v>
-      </c>
+      <c r="J856" t="inlineStr"/>
       <c r="K856" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28869,9 +29791,7 @@
         <v>0</v>
       </c>
       <c r="I857" t="inlineStr"/>
-      <c r="J857" t="n">
-        <v>354000</v>
-      </c>
+      <c r="J857" t="inlineStr"/>
       <c r="K857" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28908,9 +29828,7 @@
         <v>0</v>
       </c>
       <c r="I858" t="inlineStr"/>
-      <c r="J858" t="n">
-        <v>354000</v>
-      </c>
+      <c r="J858" t="inlineStr"/>
       <c r="K858" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28947,9 +29865,7 @@
         <v>0</v>
       </c>
       <c r="I859" t="inlineStr"/>
-      <c r="J859" t="n">
-        <v>354000</v>
-      </c>
+      <c r="J859" t="inlineStr"/>
       <c r="K859" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28986,9 +29902,7 @@
         <v>0</v>
       </c>
       <c r="I860" t="inlineStr"/>
-      <c r="J860" t="n">
-        <v>354000</v>
-      </c>
+      <c r="J860" t="inlineStr"/>
       <c r="K860" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29025,9 +29939,7 @@
         <v>0</v>
       </c>
       <c r="I861" t="inlineStr"/>
-      <c r="J861" t="n">
-        <v>354000</v>
-      </c>
+      <c r="J861" t="inlineStr"/>
       <c r="K861" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29064,9 +29976,7 @@
         <v>0</v>
       </c>
       <c r="I862" t="inlineStr"/>
-      <c r="J862" t="n">
-        <v>354000</v>
-      </c>
+      <c r="J862" t="inlineStr"/>
       <c r="K862" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29103,9 +30013,7 @@
         <v>0</v>
       </c>
       <c r="I863" t="inlineStr"/>
-      <c r="J863" t="n">
-        <v>354000</v>
-      </c>
+      <c r="J863" t="inlineStr"/>
       <c r="K863" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29142,9 +30050,7 @@
         <v>0</v>
       </c>
       <c r="I864" t="inlineStr"/>
-      <c r="J864" t="n">
-        <v>354000</v>
-      </c>
+      <c r="J864" t="inlineStr"/>
       <c r="K864" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29181,9 +30087,7 @@
         <v>0</v>
       </c>
       <c r="I865" t="inlineStr"/>
-      <c r="J865" t="n">
-        <v>354000</v>
-      </c>
+      <c r="J865" t="inlineStr"/>
       <c r="K865" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29220,9 +30124,7 @@
         <v>0</v>
       </c>
       <c r="I866" t="inlineStr"/>
-      <c r="J866" t="n">
-        <v>354000</v>
-      </c>
+      <c r="J866" t="inlineStr"/>
       <c r="K866" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29259,9 +30161,7 @@
         <v>0</v>
       </c>
       <c r="I867" t="inlineStr"/>
-      <c r="J867" t="n">
-        <v>354000</v>
-      </c>
+      <c r="J867" t="inlineStr"/>
       <c r="K867" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29298,9 +30198,7 @@
         <v>0</v>
       </c>
       <c r="I868" t="inlineStr"/>
-      <c r="J868" t="n">
-        <v>354000</v>
-      </c>
+      <c r="J868" t="inlineStr"/>
       <c r="K868" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29337,9 +30235,7 @@
         <v>0</v>
       </c>
       <c r="I869" t="inlineStr"/>
-      <c r="J869" t="n">
-        <v>354000</v>
-      </c>
+      <c r="J869" t="inlineStr"/>
       <c r="K869" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29376,9 +30272,7 @@
         <v>0</v>
       </c>
       <c r="I870" t="inlineStr"/>
-      <c r="J870" t="n">
-        <v>354000</v>
-      </c>
+      <c r="J870" t="inlineStr"/>
       <c r="K870" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29415,9 +30309,7 @@
         <v>0</v>
       </c>
       <c r="I871" t="inlineStr"/>
-      <c r="J871" t="n">
-        <v>354000</v>
-      </c>
+      <c r="J871" t="inlineStr"/>
       <c r="K871" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29454,9 +30346,7 @@
         <v>0</v>
       </c>
       <c r="I872" t="inlineStr"/>
-      <c r="J872" t="n">
-        <v>354000</v>
-      </c>
+      <c r="J872" t="inlineStr"/>
       <c r="K872" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29493,9 +30383,7 @@
         <v>0</v>
       </c>
       <c r="I873" t="inlineStr"/>
-      <c r="J873" t="n">
-        <v>354000</v>
-      </c>
+      <c r="J873" t="inlineStr"/>
       <c r="K873" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29532,9 +30420,7 @@
         <v>0</v>
       </c>
       <c r="I874" t="inlineStr"/>
-      <c r="J874" t="n">
-        <v>354000</v>
-      </c>
+      <c r="J874" t="inlineStr"/>
       <c r="K874" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29571,9 +30457,7 @@
         <v>0</v>
       </c>
       <c r="I875" t="inlineStr"/>
-      <c r="J875" t="n">
-        <v>354000</v>
-      </c>
+      <c r="J875" t="inlineStr"/>
       <c r="K875" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29610,9 +30494,7 @@
         <v>0</v>
       </c>
       <c r="I876" t="inlineStr"/>
-      <c r="J876" t="n">
-        <v>354000</v>
-      </c>
+      <c r="J876" t="inlineStr"/>
       <c r="K876" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29649,9 +30531,7 @@
         <v>0</v>
       </c>
       <c r="I877" t="inlineStr"/>
-      <c r="J877" t="n">
-        <v>354000</v>
-      </c>
+      <c r="J877" t="inlineStr"/>
       <c r="K877" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29688,9 +30568,7 @@
         <v>0</v>
       </c>
       <c r="I878" t="inlineStr"/>
-      <c r="J878" t="n">
-        <v>354000</v>
-      </c>
+      <c r="J878" t="inlineStr"/>
       <c r="K878" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29727,9 +30605,7 @@
         <v>0</v>
       </c>
       <c r="I879" t="inlineStr"/>
-      <c r="J879" t="n">
-        <v>354000</v>
-      </c>
+      <c r="J879" t="inlineStr"/>
       <c r="K879" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29766,9 +30642,7 @@
         <v>0</v>
       </c>
       <c r="I880" t="inlineStr"/>
-      <c r="J880" t="n">
-        <v>354000</v>
-      </c>
+      <c r="J880" t="inlineStr"/>
       <c r="K880" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29805,9 +30679,7 @@
         <v>0</v>
       </c>
       <c r="I881" t="inlineStr"/>
-      <c r="J881" t="n">
-        <v>354000</v>
-      </c>
+      <c r="J881" t="inlineStr"/>
       <c r="K881" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29844,9 +30716,7 @@
         <v>0</v>
       </c>
       <c r="I882" t="inlineStr"/>
-      <c r="J882" t="n">
-        <v>354000</v>
-      </c>
+      <c r="J882" t="inlineStr"/>
       <c r="K882" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29883,9 +30753,7 @@
         <v>0</v>
       </c>
       <c r="I883" t="inlineStr"/>
-      <c r="J883" t="n">
-        <v>354000</v>
-      </c>
+      <c r="J883" t="inlineStr"/>
       <c r="K883" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29922,9 +30790,7 @@
         <v>0</v>
       </c>
       <c r="I884" t="inlineStr"/>
-      <c r="J884" t="n">
-        <v>354000</v>
-      </c>
+      <c r="J884" t="inlineStr"/>
       <c r="K884" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29961,9 +30827,7 @@
         <v>0</v>
       </c>
       <c r="I885" t="inlineStr"/>
-      <c r="J885" t="n">
-        <v>354000</v>
-      </c>
+      <c r="J885" t="inlineStr"/>
       <c r="K885" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30000,9 +30864,7 @@
         <v>0</v>
       </c>
       <c r="I886" t="inlineStr"/>
-      <c r="J886" t="n">
-        <v>354000</v>
-      </c>
+      <c r="J886" t="inlineStr"/>
       <c r="K886" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30039,9 +30901,7 @@
         <v>0</v>
       </c>
       <c r="I887" t="inlineStr"/>
-      <c r="J887" t="n">
-        <v>354000</v>
-      </c>
+      <c r="J887" t="inlineStr"/>
       <c r="K887" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30078,9 +30938,7 @@
         <v>0</v>
       </c>
       <c r="I888" t="inlineStr"/>
-      <c r="J888" t="n">
-        <v>354000</v>
-      </c>
+      <c r="J888" t="inlineStr"/>
       <c r="K888" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30117,9 +30975,7 @@
         <v>0</v>
       </c>
       <c r="I889" t="inlineStr"/>
-      <c r="J889" t="n">
-        <v>354000</v>
-      </c>
+      <c r="J889" t="inlineStr"/>
       <c r="K889" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30156,9 +31012,7 @@
         <v>0</v>
       </c>
       <c r="I890" t="inlineStr"/>
-      <c r="J890" t="n">
-        <v>354000</v>
-      </c>
+      <c r="J890" t="inlineStr"/>
       <c r="K890" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30195,9 +31049,7 @@
         <v>0</v>
       </c>
       <c r="I891" t="inlineStr"/>
-      <c r="J891" t="n">
-        <v>354000</v>
-      </c>
+      <c r="J891" t="inlineStr"/>
       <c r="K891" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30234,9 +31086,7 @@
         <v>0</v>
       </c>
       <c r="I892" t="inlineStr"/>
-      <c r="J892" t="n">
-        <v>354000</v>
-      </c>
+      <c r="J892" t="inlineStr"/>
       <c r="K892" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30273,9 +31123,7 @@
         <v>0</v>
       </c>
       <c r="I893" t="inlineStr"/>
-      <c r="J893" t="n">
-        <v>354000</v>
-      </c>
+      <c r="J893" t="inlineStr"/>
       <c r="K893" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30309,12 +31157,12 @@
         <v>-6240.509043149994</v>
       </c>
       <c r="H894" t="n">
-        <v>0</v>
-      </c>
-      <c r="I894" t="inlineStr"/>
-      <c r="J894" t="n">
-        <v>354000</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I894" t="n">
+        <v>354900</v>
+      </c>
+      <c r="J894" t="inlineStr"/>
       <c r="K894" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30348,12 +31196,12 @@
         <v>-6301.547443149994</v>
       </c>
       <c r="H895" t="n">
-        <v>0</v>
-      </c>
-      <c r="I895" t="inlineStr"/>
-      <c r="J895" t="n">
-        <v>354000</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I895" t="n">
+        <v>354700</v>
+      </c>
+      <c r="J895" t="inlineStr"/>
       <c r="K895" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30387,12 +31235,12 @@
         <v>-6209.282543149994</v>
       </c>
       <c r="H896" t="n">
-        <v>0</v>
-      </c>
-      <c r="I896" t="inlineStr"/>
-      <c r="J896" t="n">
+        <v>1</v>
+      </c>
+      <c r="I896" t="n">
         <v>354000</v>
       </c>
+      <c r="J896" t="inlineStr"/>
       <c r="K896" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30429,9 +31277,7 @@
         <v>0</v>
       </c>
       <c r="I897" t="inlineStr"/>
-      <c r="J897" t="n">
-        <v>354000</v>
-      </c>
+      <c r="J897" t="inlineStr"/>
       <c r="K897" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30468,9 +31314,7 @@
         <v>0</v>
       </c>
       <c r="I898" t="inlineStr"/>
-      <c r="J898" t="n">
-        <v>354000</v>
-      </c>
+      <c r="J898" t="inlineStr"/>
       <c r="K898" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30504,12 +31348,12 @@
         <v>-6232.698643149994</v>
       </c>
       <c r="H899" t="n">
-        <v>0</v>
-      </c>
-      <c r="I899" t="inlineStr"/>
-      <c r="J899" t="n">
-        <v>354000</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I899" t="n">
+        <v>354500</v>
+      </c>
+      <c r="J899" t="inlineStr"/>
       <c r="K899" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30543,12 +31387,12 @@
         <v>-6271.602143149995</v>
       </c>
       <c r="H900" t="n">
-        <v>0</v>
-      </c>
-      <c r="I900" t="inlineStr"/>
-      <c r="J900" t="n">
-        <v>354000</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I900" t="n">
+        <v>355400</v>
+      </c>
+      <c r="J900" t="inlineStr"/>
       <c r="K900" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30585,9 +31429,7 @@
         <v>0</v>
       </c>
       <c r="I901" t="inlineStr"/>
-      <c r="J901" t="n">
-        <v>354000</v>
-      </c>
+      <c r="J901" t="inlineStr"/>
       <c r="K901" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30621,12 +31463,12 @@
         <v>-6303.351443149994</v>
       </c>
       <c r="H902" t="n">
-        <v>0</v>
-      </c>
-      <c r="I902" t="inlineStr"/>
-      <c r="J902" t="n">
-        <v>354000</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I902" t="n">
+        <v>355100</v>
+      </c>
+      <c r="J902" t="inlineStr"/>
       <c r="K902" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30660,12 +31502,12 @@
         <v>-6335.351443149994</v>
       </c>
       <c r="H903" t="n">
-        <v>0</v>
-      </c>
-      <c r="I903" t="inlineStr"/>
-      <c r="J903" t="n">
-        <v>354000</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I903" t="n">
+        <v>354900</v>
+      </c>
+      <c r="J903" t="inlineStr"/>
       <c r="K903" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30699,12 +31541,12 @@
         <v>-6313.589043149995</v>
       </c>
       <c r="H904" t="n">
-        <v>0</v>
-      </c>
-      <c r="I904" t="inlineStr"/>
-      <c r="J904" t="n">
-        <v>354000</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I904" t="n">
+        <v>354600</v>
+      </c>
+      <c r="J904" t="inlineStr"/>
       <c r="K904" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30741,9 +31583,7 @@
         <v>0</v>
       </c>
       <c r="I905" t="inlineStr"/>
-      <c r="J905" t="n">
-        <v>354000</v>
-      </c>
+      <c r="J905" t="inlineStr"/>
       <c r="K905" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30777,12 +31617,12 @@
         <v>-6388.371243149995</v>
       </c>
       <c r="H906" t="n">
-        <v>0</v>
-      </c>
-      <c r="I906" t="inlineStr"/>
-      <c r="J906" t="n">
-        <v>354000</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I906" t="n">
+        <v>354500</v>
+      </c>
+      <c r="J906" t="inlineStr"/>
       <c r="K906" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30816,12 +31656,12 @@
         <v>-6319.005043149995</v>
       </c>
       <c r="H907" t="n">
-        <v>0</v>
-      </c>
-      <c r="I907" t="inlineStr"/>
-      <c r="J907" t="n">
-        <v>354000</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I907" t="n">
+        <v>353300</v>
+      </c>
+      <c r="J907" t="inlineStr"/>
       <c r="K907" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30855,12 +31695,12 @@
         <v>-6245.920943149995</v>
       </c>
       <c r="H908" t="n">
-        <v>0</v>
-      </c>
-      <c r="I908" t="inlineStr"/>
-      <c r="J908" t="n">
-        <v>354000</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I908" t="n">
+        <v>353500</v>
+      </c>
+      <c r="J908" t="inlineStr"/>
       <c r="K908" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30894,12 +31734,12 @@
         <v>-6225.326743149995</v>
       </c>
       <c r="H909" t="n">
-        <v>0</v>
-      </c>
-      <c r="I909" t="inlineStr"/>
-      <c r="J909" t="n">
-        <v>354000</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I909" t="n">
+        <v>354100</v>
+      </c>
+      <c r="J909" t="inlineStr"/>
       <c r="K909" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30933,12 +31773,12 @@
         <v>-6223.414943149995</v>
       </c>
       <c r="H910" t="n">
-        <v>0</v>
-      </c>
-      <c r="I910" t="inlineStr"/>
-      <c r="J910" t="n">
-        <v>354000</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I910" t="n">
+        <v>354300</v>
+      </c>
+      <c r="J910" t="inlineStr"/>
       <c r="K910" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30972,12 +31812,12 @@
         <v>-6223.414943149995</v>
       </c>
       <c r="H911" t="n">
-        <v>0</v>
-      </c>
-      <c r="I911" t="inlineStr"/>
-      <c r="J911" t="n">
-        <v>354000</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I911" t="n">
+        <v>354400</v>
+      </c>
+      <c r="J911" t="inlineStr"/>
       <c r="K911" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31011,12 +31851,12 @@
         <v>-6237.705643149995</v>
       </c>
       <c r="H912" t="n">
-        <v>0</v>
-      </c>
-      <c r="I912" t="inlineStr"/>
-      <c r="J912" t="n">
-        <v>354000</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I912" t="n">
+        <v>354400</v>
+      </c>
+      <c r="J912" t="inlineStr"/>
       <c r="K912" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31050,12 +31890,12 @@
         <v>-6161.705643149995</v>
       </c>
       <c r="H913" t="n">
-        <v>0</v>
-      </c>
-      <c r="I913" t="inlineStr"/>
-      <c r="J913" t="n">
-        <v>354000</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I913" t="n">
+        <v>354100</v>
+      </c>
+      <c r="J913" t="inlineStr"/>
       <c r="K913" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31089,12 +31929,12 @@
         <v>-6181.838943149995</v>
       </c>
       <c r="H914" t="n">
-        <v>0</v>
-      </c>
-      <c r="I914" t="inlineStr"/>
-      <c r="J914" t="n">
-        <v>354000</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I914" t="n">
+        <v>354200</v>
+      </c>
+      <c r="J914" t="inlineStr"/>
       <c r="K914" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31128,12 +31968,12 @@
         <v>-6182.838943149995</v>
       </c>
       <c r="H915" t="n">
-        <v>0</v>
-      </c>
-      <c r="I915" t="inlineStr"/>
-      <c r="J915" t="n">
-        <v>354000</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I915" t="n">
+        <v>354100</v>
+      </c>
+      <c r="J915" t="inlineStr"/>
       <c r="K915" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31167,12 +32007,12 @@
         <v>-6189.831643149995</v>
       </c>
       <c r="H916" t="n">
-        <v>0</v>
-      </c>
-      <c r="I916" t="inlineStr"/>
-      <c r="J916" t="n">
-        <v>354000</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I916" t="n">
+        <v>353400</v>
+      </c>
+      <c r="J916" t="inlineStr"/>
       <c r="K916" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31206,12 +32046,12 @@
         <v>-6190.211843149995</v>
       </c>
       <c r="H917" t="n">
-        <v>0</v>
-      </c>
-      <c r="I917" t="inlineStr"/>
-      <c r="J917" t="n">
-        <v>354000</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I917" t="n">
+        <v>353200</v>
+      </c>
+      <c r="J917" t="inlineStr"/>
       <c r="K917" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31245,12 +32085,12 @@
         <v>-6198.437843149994</v>
       </c>
       <c r="H918" t="n">
-        <v>0</v>
-      </c>
-      <c r="I918" t="inlineStr"/>
-      <c r="J918" t="n">
-        <v>354000</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I918" t="n">
+        <v>353000</v>
+      </c>
+      <c r="J918" t="inlineStr"/>
       <c r="K918" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31284,12 +32124,12 @@
         <v>-6195.437843149994</v>
       </c>
       <c r="H919" t="n">
-        <v>0</v>
-      </c>
-      <c r="I919" t="inlineStr"/>
-      <c r="J919" t="n">
-        <v>354000</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I919" t="n">
+        <v>352800</v>
+      </c>
+      <c r="J919" t="inlineStr"/>
       <c r="K919" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31323,12 +32163,12 @@
         <v>-6185.349043149994</v>
       </c>
       <c r="H920" t="n">
-        <v>0</v>
-      </c>
-      <c r="I920" t="inlineStr"/>
-      <c r="J920" t="n">
-        <v>354000</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I920" t="n">
+        <v>353100</v>
+      </c>
+      <c r="J920" t="inlineStr"/>
       <c r="K920" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31362,14 +32202,12 @@
         <v>-6209.263843149994</v>
       </c>
       <c r="H921" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I921" t="n">
         <v>353900</v>
       </c>
-      <c r="J921" t="n">
-        <v>354000</v>
-      </c>
+      <c r="J921" t="inlineStr"/>
       <c r="K921" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31403,14 +32241,12 @@
         <v>-6272.086943149993</v>
       </c>
       <c r="H922" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I922" t="n">
         <v>353300</v>
       </c>
-      <c r="J922" t="n">
-        <v>354000</v>
-      </c>
+      <c r="J922" t="inlineStr"/>
       <c r="K922" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31444,12 +32280,12 @@
         <v>-6222.495643149993</v>
       </c>
       <c r="H923" t="n">
-        <v>0</v>
-      </c>
-      <c r="I923" t="inlineStr"/>
-      <c r="J923" t="n">
-        <v>354000</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I923" t="n">
+        <v>353100</v>
+      </c>
+      <c r="J923" t="inlineStr"/>
       <c r="K923" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31483,12 +32319,12 @@
         <v>-6200.227443149993</v>
       </c>
       <c r="H924" t="n">
-        <v>0</v>
-      </c>
-      <c r="I924" t="inlineStr"/>
-      <c r="J924" t="n">
-        <v>354000</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I924" t="n">
+        <v>353900</v>
+      </c>
+      <c r="J924" t="inlineStr"/>
       <c r="K924" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31522,14 +32358,12 @@
         <v>-6200.053143149993</v>
       </c>
       <c r="H925" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I925" t="n">
         <v>354300</v>
       </c>
-      <c r="J925" t="n">
-        <v>354000</v>
-      </c>
+      <c r="J925" t="inlineStr"/>
       <c r="K925" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31563,14 +32397,12 @@
         <v>-6180.074643149993</v>
       </c>
       <c r="H926" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I926" t="n">
         <v>354700</v>
       </c>
-      <c r="J926" t="n">
-        <v>354000</v>
-      </c>
+      <c r="J926" t="inlineStr"/>
       <c r="K926" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31604,14 +32436,12 @@
         <v>-6248.577943149993</v>
       </c>
       <c r="H927" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I927" t="n">
         <v>357400</v>
       </c>
-      <c r="J927" t="n">
-        <v>354000</v>
-      </c>
+      <c r="J927" t="inlineStr"/>
       <c r="K927" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31645,12 +32475,12 @@
         <v>-6228.557943149993</v>
       </c>
       <c r="H928" t="n">
-        <v>0</v>
-      </c>
-      <c r="I928" t="inlineStr"/>
-      <c r="J928" t="n">
-        <v>354000</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I928" t="n">
+        <v>355600</v>
+      </c>
+      <c r="J928" t="inlineStr"/>
       <c r="K928" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31684,12 +32514,12 @@
         <v>-6228.557943149993</v>
       </c>
       <c r="H929" t="n">
-        <v>0</v>
-      </c>
-      <c r="I929" t="inlineStr"/>
-      <c r="J929" t="n">
-        <v>354000</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I929" t="n">
+        <v>356800</v>
+      </c>
+      <c r="J929" t="inlineStr"/>
       <c r="K929" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31723,12 +32553,12 @@
         <v>-6228.557943149993</v>
       </c>
       <c r="H930" t="n">
-        <v>0</v>
-      </c>
-      <c r="I930" t="inlineStr"/>
-      <c r="J930" t="n">
-        <v>354000</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I930" t="n">
+        <v>356800</v>
+      </c>
+      <c r="J930" t="inlineStr"/>
       <c r="K930" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31765,9 +32595,7 @@
         <v>0</v>
       </c>
       <c r="I931" t="inlineStr"/>
-      <c r="J931" t="n">
-        <v>354000</v>
-      </c>
+      <c r="J931" t="inlineStr"/>
       <c r="K931" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31804,9 +32632,7 @@
         <v>0</v>
       </c>
       <c r="I932" t="inlineStr"/>
-      <c r="J932" t="n">
-        <v>354000</v>
-      </c>
+      <c r="J932" t="inlineStr"/>
       <c r="K932" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31843,9 +32669,7 @@
         <v>0</v>
       </c>
       <c r="I933" t="inlineStr"/>
-      <c r="J933" t="n">
-        <v>354000</v>
-      </c>
+      <c r="J933" t="inlineStr"/>
       <c r="K933" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31882,9 +32706,7 @@
         <v>0</v>
       </c>
       <c r="I934" t="inlineStr"/>
-      <c r="J934" t="n">
-        <v>354000</v>
-      </c>
+      <c r="J934" t="inlineStr"/>
       <c r="K934" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31921,9 +32743,7 @@
         <v>0</v>
       </c>
       <c r="I935" t="inlineStr"/>
-      <c r="J935" t="n">
-        <v>354000</v>
-      </c>
+      <c r="J935" t="inlineStr"/>
       <c r="K935" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31960,9 +32780,7 @@
         <v>0</v>
       </c>
       <c r="I936" t="inlineStr"/>
-      <c r="J936" t="n">
-        <v>354000</v>
-      </c>
+      <c r="J936" t="inlineStr"/>
       <c r="K936" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31999,9 +32817,7 @@
         <v>0</v>
       </c>
       <c r="I937" t="inlineStr"/>
-      <c r="J937" t="n">
-        <v>354000</v>
-      </c>
+      <c r="J937" t="inlineStr"/>
       <c r="K937" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32038,9 +32854,7 @@
         <v>0</v>
       </c>
       <c r="I938" t="inlineStr"/>
-      <c r="J938" t="n">
-        <v>354000</v>
-      </c>
+      <c r="J938" t="inlineStr"/>
       <c r="K938" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32077,9 +32891,7 @@
         <v>0</v>
       </c>
       <c r="I939" t="inlineStr"/>
-      <c r="J939" t="n">
-        <v>354000</v>
-      </c>
+      <c r="J939" t="inlineStr"/>
       <c r="K939" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32116,9 +32928,7 @@
         <v>0</v>
       </c>
       <c r="I940" t="inlineStr"/>
-      <c r="J940" t="n">
-        <v>354000</v>
-      </c>
+      <c r="J940" t="inlineStr"/>
       <c r="K940" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32155,9 +32965,7 @@
         <v>0</v>
       </c>
       <c r="I941" t="inlineStr"/>
-      <c r="J941" t="n">
-        <v>354000</v>
-      </c>
+      <c r="J941" t="inlineStr"/>
       <c r="K941" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32194,9 +33002,7 @@
         <v>0</v>
       </c>
       <c r="I942" t="inlineStr"/>
-      <c r="J942" t="n">
-        <v>354000</v>
-      </c>
+      <c r="J942" t="inlineStr"/>
       <c r="K942" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32233,9 +33039,7 @@
         <v>0</v>
       </c>
       <c r="I943" t="inlineStr"/>
-      <c r="J943" t="n">
-        <v>354000</v>
-      </c>
+      <c r="J943" t="inlineStr"/>
       <c r="K943" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32272,9 +33076,7 @@
         <v>0</v>
       </c>
       <c r="I944" t="inlineStr"/>
-      <c r="J944" t="n">
-        <v>354000</v>
-      </c>
+      <c r="J944" t="inlineStr"/>
       <c r="K944" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32311,9 +33113,7 @@
         <v>0</v>
       </c>
       <c r="I945" t="inlineStr"/>
-      <c r="J945" t="n">
-        <v>354000</v>
-      </c>
+      <c r="J945" t="inlineStr"/>
       <c r="K945" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32350,9 +33150,7 @@
         <v>0</v>
       </c>
       <c r="I946" t="inlineStr"/>
-      <c r="J946" t="n">
-        <v>354000</v>
-      </c>
+      <c r="J946" t="inlineStr"/>
       <c r="K946" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32386,12 +33184,10 @@
         <v>-5108.699377049993</v>
       </c>
       <c r="H947" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I947" t="inlineStr"/>
-      <c r="J947" t="n">
-        <v>354000</v>
-      </c>
+      <c r="J947" t="inlineStr"/>
       <c r="K947" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32425,12 +33221,10 @@
         <v>-4736.464558439993</v>
       </c>
       <c r="H948" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I948" t="inlineStr"/>
-      <c r="J948" t="n">
-        <v>354000</v>
-      </c>
+      <c r="J948" t="inlineStr"/>
       <c r="K948" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32464,12 +33258,10 @@
         <v>-4909.329458439993</v>
       </c>
       <c r="H949" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I949" t="inlineStr"/>
-      <c r="J949" t="n">
-        <v>354000</v>
-      </c>
+      <c r="J949" t="inlineStr"/>
       <c r="K949" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32503,12 +33295,10 @@
         <v>-4979.939658439993</v>
       </c>
       <c r="H950" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I950" t="inlineStr"/>
-      <c r="J950" t="n">
-        <v>354000</v>
-      </c>
+      <c r="J950" t="inlineStr"/>
       <c r="K950" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32542,12 +33332,10 @@
         <v>-5151.643702949993</v>
       </c>
       <c r="H951" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I951" t="inlineStr"/>
-      <c r="J951" t="n">
-        <v>354000</v>
-      </c>
+      <c r="J951" t="inlineStr"/>
       <c r="K951" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32584,9 +33372,7 @@
         <v>0</v>
       </c>
       <c r="I952" t="inlineStr"/>
-      <c r="J952" t="n">
-        <v>354000</v>
-      </c>
+      <c r="J952" t="inlineStr"/>
       <c r="K952" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32623,9 +33409,7 @@
         <v>0</v>
       </c>
       <c r="I953" t="inlineStr"/>
-      <c r="J953" t="n">
-        <v>354000</v>
-      </c>
+      <c r="J953" t="inlineStr"/>
       <c r="K953" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32662,9 +33446,7 @@
         <v>0</v>
       </c>
       <c r="I954" t="inlineStr"/>
-      <c r="J954" t="n">
-        <v>354000</v>
-      </c>
+      <c r="J954" t="inlineStr"/>
       <c r="K954" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32701,9 +33483,7 @@
         <v>0</v>
       </c>
       <c r="I955" t="inlineStr"/>
-      <c r="J955" t="n">
-        <v>354000</v>
-      </c>
+      <c r="J955" t="inlineStr"/>
       <c r="K955" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32740,9 +33520,7 @@
         <v>0</v>
       </c>
       <c r="I956" t="inlineStr"/>
-      <c r="J956" t="n">
-        <v>354000</v>
-      </c>
+      <c r="J956" t="inlineStr"/>
       <c r="K956" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32779,9 +33557,7 @@
         <v>0</v>
       </c>
       <c r="I957" t="inlineStr"/>
-      <c r="J957" t="n">
-        <v>354000</v>
-      </c>
+      <c r="J957" t="inlineStr"/>
       <c r="K957" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32818,9 +33594,7 @@
         <v>0</v>
       </c>
       <c r="I958" t="inlineStr"/>
-      <c r="J958" t="n">
-        <v>354000</v>
-      </c>
+      <c r="J958" t="inlineStr"/>
       <c r="K958" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32857,9 +33631,7 @@
         <v>0</v>
       </c>
       <c r="I959" t="inlineStr"/>
-      <c r="J959" t="n">
-        <v>354000</v>
-      </c>
+      <c r="J959" t="inlineStr"/>
       <c r="K959" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32896,9 +33668,7 @@
         <v>0</v>
       </c>
       <c r="I960" t="inlineStr"/>
-      <c r="J960" t="n">
-        <v>354000</v>
-      </c>
+      <c r="J960" t="inlineStr"/>
       <c r="K960" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32935,9 +33705,7 @@
         <v>0</v>
       </c>
       <c r="I961" t="inlineStr"/>
-      <c r="J961" t="n">
-        <v>354000</v>
-      </c>
+      <c r="J961" t="inlineStr"/>
       <c r="K961" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32974,9 +33742,7 @@
         <v>0</v>
       </c>
       <c r="I962" t="inlineStr"/>
-      <c r="J962" t="n">
-        <v>354000</v>
-      </c>
+      <c r="J962" t="inlineStr"/>
       <c r="K962" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33013,9 +33779,7 @@
         <v>0</v>
       </c>
       <c r="I963" t="inlineStr"/>
-      <c r="J963" t="n">
-        <v>354000</v>
-      </c>
+      <c r="J963" t="inlineStr"/>
       <c r="K963" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33052,9 +33816,7 @@
         <v>0</v>
       </c>
       <c r="I964" t="inlineStr"/>
-      <c r="J964" t="n">
-        <v>354000</v>
-      </c>
+      <c r="J964" t="inlineStr"/>
       <c r="K964" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33091,9 +33853,7 @@
         <v>0</v>
       </c>
       <c r="I965" t="inlineStr"/>
-      <c r="J965" t="n">
-        <v>354000</v>
-      </c>
+      <c r="J965" t="inlineStr"/>
       <c r="K965" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33130,9 +33890,7 @@
         <v>0</v>
       </c>
       <c r="I966" t="inlineStr"/>
-      <c r="J966" t="n">
-        <v>354000</v>
-      </c>
+      <c r="J966" t="inlineStr"/>
       <c r="K966" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33169,9 +33927,7 @@
         <v>0</v>
       </c>
       <c r="I967" t="inlineStr"/>
-      <c r="J967" t="n">
-        <v>354000</v>
-      </c>
+      <c r="J967" t="inlineStr"/>
       <c r="K967" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33208,9 +33964,7 @@
         <v>0</v>
       </c>
       <c r="I968" t="inlineStr"/>
-      <c r="J968" t="n">
-        <v>354000</v>
-      </c>
+      <c r="J968" t="inlineStr"/>
       <c r="K968" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33247,9 +34001,7 @@
         <v>0</v>
       </c>
       <c r="I969" t="inlineStr"/>
-      <c r="J969" t="n">
-        <v>354000</v>
-      </c>
+      <c r="J969" t="inlineStr"/>
       <c r="K969" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33283,12 +34035,10 @@
         <v>-4443.067218099993</v>
       </c>
       <c r="H970" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I970" t="inlineStr"/>
-      <c r="J970" t="n">
-        <v>354000</v>
-      </c>
+      <c r="J970" t="inlineStr"/>
       <c r="K970" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33322,12 +34072,10 @@
         <v>-4143.943789089993</v>
       </c>
       <c r="H971" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I971" t="inlineStr"/>
-      <c r="J971" t="n">
-        <v>354000</v>
-      </c>
+      <c r="J971" t="inlineStr"/>
       <c r="K971" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33361,12 +34109,10 @@
         <v>-4030.862368199992</v>
       </c>
       <c r="H972" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I972" t="inlineStr"/>
-      <c r="J972" t="n">
-        <v>354000</v>
-      </c>
+      <c r="J972" t="inlineStr"/>
       <c r="K972" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33403,9 +34149,7 @@
         <v>0</v>
       </c>
       <c r="I973" t="inlineStr"/>
-      <c r="J973" t="n">
-        <v>354000</v>
-      </c>
+      <c r="J973" t="inlineStr"/>
       <c r="K973" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33442,9 +34186,7 @@
         <v>0</v>
       </c>
       <c r="I974" t="inlineStr"/>
-      <c r="J974" t="n">
-        <v>354000</v>
-      </c>
+      <c r="J974" t="inlineStr"/>
       <c r="K974" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33481,9 +34223,7 @@
         <v>0</v>
       </c>
       <c r="I975" t="inlineStr"/>
-      <c r="J975" t="n">
-        <v>354000</v>
-      </c>
+      <c r="J975" t="inlineStr"/>
       <c r="K975" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33520,9 +34260,7 @@
         <v>0</v>
       </c>
       <c r="I976" t="inlineStr"/>
-      <c r="J976" t="n">
-        <v>354000</v>
-      </c>
+      <c r="J976" t="inlineStr"/>
       <c r="K976" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33559,9 +34297,7 @@
         <v>0</v>
       </c>
       <c r="I977" t="inlineStr"/>
-      <c r="J977" t="n">
-        <v>354000</v>
-      </c>
+      <c r="J977" t="inlineStr"/>
       <c r="K977" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33595,12 +34331,10 @@
         <v>-4487.498468199992</v>
       </c>
       <c r="H978" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I978" t="inlineStr"/>
-      <c r="J978" t="n">
-        <v>354000</v>
-      </c>
+      <c r="J978" t="inlineStr"/>
       <c r="K978" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33637,9 +34371,7 @@
         <v>0</v>
       </c>
       <c r="I979" t="inlineStr"/>
-      <c r="J979" t="n">
-        <v>354000</v>
-      </c>
+      <c r="J979" t="inlineStr"/>
       <c r="K979" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33673,12 +34405,10 @@
         <v>-4478.097178999992</v>
       </c>
       <c r="H980" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I980" t="inlineStr"/>
-      <c r="J980" t="n">
-        <v>354000</v>
-      </c>
+      <c r="J980" t="inlineStr"/>
       <c r="K980" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33715,9 +34445,7 @@
         <v>0</v>
       </c>
       <c r="I981" t="inlineStr"/>
-      <c r="J981" t="n">
-        <v>354000</v>
-      </c>
+      <c r="J981" t="inlineStr"/>
       <c r="K981" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33754,9 +34482,7 @@
         <v>0</v>
       </c>
       <c r="I982" t="inlineStr"/>
-      <c r="J982" t="n">
-        <v>354000</v>
-      </c>
+      <c r="J982" t="inlineStr"/>
       <c r="K982" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33790,12 +34516,10 @@
         <v>-4806.951578999992</v>
       </c>
       <c r="H983" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I983" t="inlineStr"/>
-      <c r="J983" t="n">
-        <v>354000</v>
-      </c>
+      <c r="J983" t="inlineStr"/>
       <c r="K983" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33832,9 +34556,7 @@
         <v>0</v>
       </c>
       <c r="I984" t="inlineStr"/>
-      <c r="J984" t="n">
-        <v>354000</v>
-      </c>
+      <c r="J984" t="inlineStr"/>
       <c r="K984" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33871,9 +34593,7 @@
         <v>0</v>
       </c>
       <c r="I985" t="inlineStr"/>
-      <c r="J985" t="n">
-        <v>354000</v>
-      </c>
+      <c r="J985" t="inlineStr"/>
       <c r="K985" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33907,12 +34627,10 @@
         <v>-4408.717092219992</v>
       </c>
       <c r="H986" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I986" t="inlineStr"/>
-      <c r="J986" t="n">
-        <v>354000</v>
-      </c>
+      <c r="J986" t="inlineStr"/>
       <c r="K986" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33946,12 +34664,10 @@
         <v>-4618.021333509992</v>
       </c>
       <c r="H987" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I987" t="inlineStr"/>
-      <c r="J987" t="n">
-        <v>354000</v>
-      </c>
+      <c r="J987" t="inlineStr"/>
       <c r="K987" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33985,12 +34701,10 @@
         <v>-4661.454833509993</v>
       </c>
       <c r="H988" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I988" t="inlineStr"/>
-      <c r="J988" t="n">
-        <v>354000</v>
-      </c>
+      <c r="J988" t="inlineStr"/>
       <c r="K988" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -34024,12 +34738,10 @@
         <v>-4679.268933509992</v>
       </c>
       <c r="H989" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I989" t="inlineStr"/>
-      <c r="J989" t="n">
-        <v>354000</v>
-      </c>
+      <c r="J989" t="inlineStr"/>
       <c r="K989" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -34063,12 +34775,10 @@
         <v>-4678.094944309993</v>
       </c>
       <c r="H990" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I990" t="inlineStr"/>
-      <c r="J990" t="n">
-        <v>354000</v>
-      </c>
+      <c r="J990" t="inlineStr"/>
       <c r="K990" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -34102,12 +34812,10 @@
         <v>-4673.071644309993</v>
       </c>
       <c r="H991" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I991" t="inlineStr"/>
-      <c r="J991" t="n">
-        <v>354000</v>
-      </c>
+      <c r="J991" t="inlineStr"/>
       <c r="K991" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -34141,12 +34849,10 @@
         <v>-4673.071644309993</v>
       </c>
       <c r="H992" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I992" t="inlineStr"/>
-      <c r="J992" t="n">
-        <v>354000</v>
-      </c>
+      <c r="J992" t="inlineStr"/>
       <c r="K992" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -34183,9 +34889,7 @@
         <v>0</v>
       </c>
       <c r="I993" t="inlineStr"/>
-      <c r="J993" t="n">
-        <v>354000</v>
-      </c>
+      <c r="J993" t="inlineStr"/>
       <c r="K993" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -34222,9 +34926,7 @@
         <v>0</v>
       </c>
       <c r="I994" t="inlineStr"/>
-      <c r="J994" t="n">
-        <v>354000</v>
-      </c>
+      <c r="J994" t="inlineStr"/>
       <c r="K994" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -34261,9 +34963,7 @@
         <v>0</v>
       </c>
       <c r="I995" t="inlineStr"/>
-      <c r="J995" t="n">
-        <v>354000</v>
-      </c>
+      <c r="J995" t="inlineStr"/>
       <c r="K995" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -34300,9 +35000,7 @@
         <v>0</v>
       </c>
       <c r="I996" t="inlineStr"/>
-      <c r="J996" t="n">
-        <v>354000</v>
-      </c>
+      <c r="J996" t="inlineStr"/>
       <c r="K996" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -34339,9 +35037,7 @@
         <v>0</v>
       </c>
       <c r="I997" t="inlineStr"/>
-      <c r="J997" t="n">
-        <v>354000</v>
-      </c>
+      <c r="J997" t="inlineStr"/>
       <c r="K997" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -34378,9 +35074,7 @@
         <v>0</v>
       </c>
       <c r="I998" t="inlineStr"/>
-      <c r="J998" t="n">
-        <v>354000</v>
-      </c>
+      <c r="J998" t="inlineStr"/>
       <c r="K998" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -34417,9 +35111,7 @@
         <v>0</v>
       </c>
       <c r="I999" t="inlineStr"/>
-      <c r="J999" t="n">
-        <v>354000</v>
-      </c>
+      <c r="J999" t="inlineStr"/>
       <c r="K999" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -34456,9 +35148,7 @@
         <v>0</v>
       </c>
       <c r="I1000" t="inlineStr"/>
-      <c r="J1000" t="n">
-        <v>354000</v>
-      </c>
+      <c r="J1000" t="inlineStr"/>
       <c r="K1000" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -34495,9 +35185,7 @@
         <v>0</v>
       </c>
       <c r="I1001" t="inlineStr"/>
-      <c r="J1001" t="n">
-        <v>354000</v>
-      </c>
+      <c r="J1001" t="inlineStr"/>
       <c r="K1001" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -34534,9 +35222,7 @@
         <v>0</v>
       </c>
       <c r="I1002" t="inlineStr"/>
-      <c r="J1002" t="n">
-        <v>354000</v>
-      </c>
+      <c r="J1002" t="inlineStr"/>
       <c r="K1002" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -34573,9 +35259,7 @@
         <v>0</v>
       </c>
       <c r="I1003" t="inlineStr"/>
-      <c r="J1003" t="n">
-        <v>354000</v>
-      </c>
+      <c r="J1003" t="inlineStr"/>
       <c r="K1003" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -34612,9 +35296,7 @@
         <v>0</v>
       </c>
       <c r="I1004" t="inlineStr"/>
-      <c r="J1004" t="n">
-        <v>354000</v>
-      </c>
+      <c r="J1004" t="inlineStr"/>
       <c r="K1004" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -34651,9 +35333,7 @@
         <v>0</v>
       </c>
       <c r="I1005" t="inlineStr"/>
-      <c r="J1005" t="n">
-        <v>354000</v>
-      </c>
+      <c r="J1005" t="inlineStr"/>
       <c r="K1005" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -34690,9 +35370,7 @@
         <v>0</v>
       </c>
       <c r="I1006" t="inlineStr"/>
-      <c r="J1006" t="n">
-        <v>354000</v>
-      </c>
+      <c r="J1006" t="inlineStr"/>
       <c r="K1006" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -34729,9 +35407,7 @@
         <v>0</v>
       </c>
       <c r="I1007" t="inlineStr"/>
-      <c r="J1007" t="n">
-        <v>354000</v>
-      </c>
+      <c r="J1007" t="inlineStr"/>
       <c r="K1007" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -34768,9 +35444,7 @@
         <v>0</v>
       </c>
       <c r="I1008" t="inlineStr"/>
-      <c r="J1008" t="n">
-        <v>354000</v>
-      </c>
+      <c r="J1008" t="inlineStr"/>
       <c r="K1008" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -34807,9 +35481,7 @@
         <v>0</v>
       </c>
       <c r="I1009" t="inlineStr"/>
-      <c r="J1009" t="n">
-        <v>354000</v>
-      </c>
+      <c r="J1009" t="inlineStr"/>
       <c r="K1009" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -34846,9 +35518,7 @@
         <v>0</v>
       </c>
       <c r="I1010" t="inlineStr"/>
-      <c r="J1010" t="n">
-        <v>354000</v>
-      </c>
+      <c r="J1010" t="inlineStr"/>
       <c r="K1010" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -34885,9 +35555,7 @@
         <v>0</v>
       </c>
       <c r="I1011" t="inlineStr"/>
-      <c r="J1011" t="n">
-        <v>354000</v>
-      </c>
+      <c r="J1011" t="inlineStr"/>
       <c r="K1011" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -34924,9 +35592,7 @@
         <v>0</v>
       </c>
       <c r="I1012" t="inlineStr"/>
-      <c r="J1012" t="n">
-        <v>354000</v>
-      </c>
+      <c r="J1012" t="inlineStr"/>
       <c r="K1012" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -34963,9 +35629,7 @@
         <v>0</v>
       </c>
       <c r="I1013" t="inlineStr"/>
-      <c r="J1013" t="n">
-        <v>354000</v>
-      </c>
+      <c r="J1013" t="inlineStr"/>
       <c r="K1013" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -35002,9 +35666,7 @@
         <v>0</v>
       </c>
       <c r="I1014" t="inlineStr"/>
-      <c r="J1014" t="n">
-        <v>354000</v>
-      </c>
+      <c r="J1014" t="inlineStr"/>
       <c r="K1014" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -35041,9 +35703,7 @@
         <v>0</v>
       </c>
       <c r="I1015" t="inlineStr"/>
-      <c r="J1015" t="n">
-        <v>354000</v>
-      </c>
+      <c r="J1015" t="inlineStr"/>
       <c r="K1015" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -35080,9 +35740,7 @@
         <v>0</v>
       </c>
       <c r="I1016" t="inlineStr"/>
-      <c r="J1016" t="n">
-        <v>354000</v>
-      </c>
+      <c r="J1016" t="inlineStr"/>
       <c r="K1016" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -35119,9 +35777,7 @@
         <v>0</v>
       </c>
       <c r="I1017" t="inlineStr"/>
-      <c r="J1017" t="n">
-        <v>354000</v>
-      </c>
+      <c r="J1017" t="inlineStr"/>
       <c r="K1017" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -35158,9 +35814,7 @@
         <v>0</v>
       </c>
       <c r="I1018" t="inlineStr"/>
-      <c r="J1018" t="n">
-        <v>354000</v>
-      </c>
+      <c r="J1018" t="inlineStr"/>
       <c r="K1018" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -35197,9 +35851,7 @@
         <v>0</v>
       </c>
       <c r="I1019" t="inlineStr"/>
-      <c r="J1019" t="n">
-        <v>354000</v>
-      </c>
+      <c r="J1019" t="inlineStr"/>
       <c r="K1019" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -35236,9 +35888,7 @@
         <v>0</v>
       </c>
       <c r="I1020" t="inlineStr"/>
-      <c r="J1020" t="n">
-        <v>354000</v>
-      </c>
+      <c r="J1020" t="inlineStr"/>
       <c r="K1020" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -35275,9 +35925,7 @@
         <v>0</v>
       </c>
       <c r="I1021" t="inlineStr"/>
-      <c r="J1021" t="n">
-        <v>354000</v>
-      </c>
+      <c r="J1021" t="inlineStr"/>
       <c r="K1021" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -35314,9 +35962,7 @@
         <v>0</v>
       </c>
       <c r="I1022" t="inlineStr"/>
-      <c r="J1022" t="n">
-        <v>354000</v>
-      </c>
+      <c r="J1022" t="inlineStr"/>
       <c r="K1022" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -35353,9 +35999,7 @@
         <v>0</v>
       </c>
       <c r="I1023" t="inlineStr"/>
-      <c r="J1023" t="n">
-        <v>354000</v>
-      </c>
+      <c r="J1023" t="inlineStr"/>
       <c r="K1023" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -35392,9 +36036,7 @@
         <v>0</v>
       </c>
       <c r="I1024" t="inlineStr"/>
-      <c r="J1024" t="n">
-        <v>354000</v>
-      </c>
+      <c r="J1024" t="inlineStr"/>
       <c r="K1024" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -35431,9 +36073,7 @@
         <v>0</v>
       </c>
       <c r="I1025" t="inlineStr"/>
-      <c r="J1025" t="n">
-        <v>354000</v>
-      </c>
+      <c r="J1025" t="inlineStr"/>
       <c r="K1025" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -35470,9 +36110,7 @@
         <v>0</v>
       </c>
       <c r="I1026" t="inlineStr"/>
-      <c r="J1026" t="n">
-        <v>354000</v>
-      </c>
+      <c r="J1026" t="inlineStr"/>
       <c r="K1026" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -35509,9 +36147,7 @@
         <v>0</v>
       </c>
       <c r="I1027" t="inlineStr"/>
-      <c r="J1027" t="n">
-        <v>354000</v>
-      </c>
+      <c r="J1027" t="inlineStr"/>
       <c r="K1027" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -35548,9 +36184,7 @@
         <v>0</v>
       </c>
       <c r="I1028" t="inlineStr"/>
-      <c r="J1028" t="n">
-        <v>354000</v>
-      </c>
+      <c r="J1028" t="inlineStr"/>
       <c r="K1028" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -35587,9 +36221,7 @@
         <v>0</v>
       </c>
       <c r="I1029" t="inlineStr"/>
-      <c r="J1029" t="n">
-        <v>354000</v>
-      </c>
+      <c r="J1029" t="inlineStr"/>
       <c r="K1029" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -35626,9 +36258,7 @@
         <v>0</v>
       </c>
       <c r="I1030" t="inlineStr"/>
-      <c r="J1030" t="n">
-        <v>354000</v>
-      </c>
+      <c r="J1030" t="inlineStr"/>
       <c r="K1030" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -35665,9 +36295,7 @@
         <v>0</v>
       </c>
       <c r="I1031" t="inlineStr"/>
-      <c r="J1031" t="n">
-        <v>354000</v>
-      </c>
+      <c r="J1031" t="inlineStr"/>
       <c r="K1031" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -35704,9 +36332,7 @@
         <v>0</v>
       </c>
       <c r="I1032" t="inlineStr"/>
-      <c r="J1032" t="n">
-        <v>354000</v>
-      </c>
+      <c r="J1032" t="inlineStr"/>
       <c r="K1032" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -35743,9 +36369,7 @@
         <v>0</v>
       </c>
       <c r="I1033" t="inlineStr"/>
-      <c r="J1033" t="n">
-        <v>354000</v>
-      </c>
+      <c r="J1033" t="inlineStr"/>
       <c r="K1033" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -35782,9 +36406,7 @@
         <v>0</v>
       </c>
       <c r="I1034" t="inlineStr"/>
-      <c r="J1034" t="n">
-        <v>354000</v>
-      </c>
+      <c r="J1034" t="inlineStr"/>
       <c r="K1034" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -35821,9 +36443,7 @@
         <v>0</v>
       </c>
       <c r="I1035" t="inlineStr"/>
-      <c r="J1035" t="n">
-        <v>354000</v>
-      </c>
+      <c r="J1035" t="inlineStr"/>
       <c r="K1035" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -35860,9 +36480,7 @@
         <v>0</v>
       </c>
       <c r="I1036" t="inlineStr"/>
-      <c r="J1036" t="n">
-        <v>354000</v>
-      </c>
+      <c r="J1036" t="inlineStr"/>
       <c r="K1036" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -35899,9 +36517,7 @@
         <v>0</v>
       </c>
       <c r="I1037" t="inlineStr"/>
-      <c r="J1037" t="n">
-        <v>354000</v>
-      </c>
+      <c r="J1037" t="inlineStr"/>
       <c r="K1037" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -35938,9 +36554,7 @@
         <v>0</v>
       </c>
       <c r="I1038" t="inlineStr"/>
-      <c r="J1038" t="n">
-        <v>354000</v>
-      </c>
+      <c r="J1038" t="inlineStr"/>
       <c r="K1038" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -35977,9 +36591,7 @@
         <v>0</v>
       </c>
       <c r="I1039" t="inlineStr"/>
-      <c r="J1039" t="n">
-        <v>354000</v>
-      </c>
+      <c r="J1039" t="inlineStr"/>
       <c r="K1039" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -36016,9 +36628,7 @@
         <v>0</v>
       </c>
       <c r="I1040" t="inlineStr"/>
-      <c r="J1040" t="n">
-        <v>354000</v>
-      </c>
+      <c r="J1040" t="inlineStr"/>
       <c r="K1040" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -36055,9 +36665,7 @@
         <v>0</v>
       </c>
       <c r="I1041" t="inlineStr"/>
-      <c r="J1041" t="n">
-        <v>354000</v>
-      </c>
+      <c r="J1041" t="inlineStr"/>
       <c r="K1041" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -36094,9 +36702,7 @@
         <v>0</v>
       </c>
       <c r="I1042" t="inlineStr"/>
-      <c r="J1042" t="n">
-        <v>354000</v>
-      </c>
+      <c r="J1042" t="inlineStr"/>
       <c r="K1042" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -36133,9 +36739,7 @@
         <v>0</v>
       </c>
       <c r="I1043" t="inlineStr"/>
-      <c r="J1043" t="n">
-        <v>354000</v>
-      </c>
+      <c r="J1043" t="inlineStr"/>
       <c r="K1043" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -36172,9 +36776,7 @@
         <v>0</v>
       </c>
       <c r="I1044" t="inlineStr"/>
-      <c r="J1044" t="n">
-        <v>354000</v>
-      </c>
+      <c r="J1044" t="inlineStr"/>
       <c r="K1044" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -36211,9 +36813,7 @@
         <v>0</v>
       </c>
       <c r="I1045" t="inlineStr"/>
-      <c r="J1045" t="n">
-        <v>354000</v>
-      </c>
+      <c r="J1045" t="inlineStr"/>
       <c r="K1045" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -36250,9 +36850,7 @@
         <v>0</v>
       </c>
       <c r="I1046" t="inlineStr"/>
-      <c r="J1046" t="n">
-        <v>354000</v>
-      </c>
+      <c r="J1046" t="inlineStr"/>
       <c r="K1046" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -36289,9 +36887,7 @@
         <v>0</v>
       </c>
       <c r="I1047" t="inlineStr"/>
-      <c r="J1047" t="n">
-        <v>354000</v>
-      </c>
+      <c r="J1047" t="inlineStr"/>
       <c r="K1047" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -36328,9 +36924,7 @@
         <v>0</v>
       </c>
       <c r="I1048" t="inlineStr"/>
-      <c r="J1048" t="n">
-        <v>354000</v>
-      </c>
+      <c r="J1048" t="inlineStr"/>
       <c r="K1048" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -36367,9 +36961,7 @@
         <v>0</v>
       </c>
       <c r="I1049" t="inlineStr"/>
-      <c r="J1049" t="n">
-        <v>354000</v>
-      </c>
+      <c r="J1049" t="inlineStr"/>
       <c r="K1049" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -36406,9 +36998,7 @@
         <v>0</v>
       </c>
       <c r="I1050" t="inlineStr"/>
-      <c r="J1050" t="n">
-        <v>354000</v>
-      </c>
+      <c r="J1050" t="inlineStr"/>
       <c r="K1050" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -36445,9 +37035,7 @@
         <v>0</v>
       </c>
       <c r="I1051" t="inlineStr"/>
-      <c r="J1051" t="n">
-        <v>354000</v>
-      </c>
+      <c r="J1051" t="inlineStr"/>
       <c r="K1051" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -36484,9 +37072,7 @@
         <v>0</v>
       </c>
       <c r="I1052" t="inlineStr"/>
-      <c r="J1052" t="n">
-        <v>354000</v>
-      </c>
+      <c r="J1052" t="inlineStr"/>
       <c r="K1052" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -36523,9 +37109,7 @@
         <v>0</v>
       </c>
       <c r="I1053" t="inlineStr"/>
-      <c r="J1053" t="n">
-        <v>354000</v>
-      </c>
+      <c r="J1053" t="inlineStr"/>
       <c r="K1053" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -36562,9 +37146,7 @@
         <v>0</v>
       </c>
       <c r="I1054" t="inlineStr"/>
-      <c r="J1054" t="n">
-        <v>354000</v>
-      </c>
+      <c r="J1054" t="inlineStr"/>
       <c r="K1054" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -36601,9 +37183,7 @@
         <v>0</v>
       </c>
       <c r="I1055" t="inlineStr"/>
-      <c r="J1055" t="n">
-        <v>354000</v>
-      </c>
+      <c r="J1055" t="inlineStr"/>
       <c r="K1055" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -36640,9 +37220,7 @@
         <v>0</v>
       </c>
       <c r="I1056" t="inlineStr"/>
-      <c r="J1056" t="n">
-        <v>354000</v>
-      </c>
+      <c r="J1056" t="inlineStr"/>
       <c r="K1056" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -36679,9 +37257,7 @@
         <v>0</v>
       </c>
       <c r="I1057" t="inlineStr"/>
-      <c r="J1057" t="n">
-        <v>354000</v>
-      </c>
+      <c r="J1057" t="inlineStr"/>
       <c r="K1057" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -36718,9 +37294,7 @@
         <v>0</v>
       </c>
       <c r="I1058" t="inlineStr"/>
-      <c r="J1058" t="n">
-        <v>354000</v>
-      </c>
+      <c r="J1058" t="inlineStr"/>
       <c r="K1058" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -36757,9 +37331,7 @@
         <v>0</v>
       </c>
       <c r="I1059" t="inlineStr"/>
-      <c r="J1059" t="n">
-        <v>354000</v>
-      </c>
+      <c r="J1059" t="inlineStr"/>
       <c r="K1059" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -36796,9 +37368,7 @@
         <v>0</v>
       </c>
       <c r="I1060" t="inlineStr"/>
-      <c r="J1060" t="n">
-        <v>354000</v>
-      </c>
+      <c r="J1060" t="inlineStr"/>
       <c r="K1060" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -36835,9 +37405,7 @@
         <v>0</v>
       </c>
       <c r="I1061" t="inlineStr"/>
-      <c r="J1061" t="n">
-        <v>354000</v>
-      </c>
+      <c r="J1061" t="inlineStr"/>
       <c r="K1061" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -36874,9 +37442,7 @@
         <v>0</v>
       </c>
       <c r="I1062" t="inlineStr"/>
-      <c r="J1062" t="n">
-        <v>354000</v>
-      </c>
+      <c r="J1062" t="inlineStr"/>
       <c r="K1062" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -36913,9 +37479,7 @@
         <v>0</v>
       </c>
       <c r="I1063" t="inlineStr"/>
-      <c r="J1063" t="n">
-        <v>354000</v>
-      </c>
+      <c r="J1063" t="inlineStr"/>
       <c r="K1063" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -36952,9 +37516,7 @@
         <v>0</v>
       </c>
       <c r="I1064" t="inlineStr"/>
-      <c r="J1064" t="n">
-        <v>354000</v>
-      </c>
+      <c r="J1064" t="inlineStr"/>
       <c r="K1064" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -36991,9 +37553,7 @@
         <v>0</v>
       </c>
       <c r="I1065" t="inlineStr"/>
-      <c r="J1065" t="n">
-        <v>354000</v>
-      </c>
+      <c r="J1065" t="inlineStr"/>
       <c r="K1065" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -37030,9 +37590,7 @@
         <v>0</v>
       </c>
       <c r="I1066" t="inlineStr"/>
-      <c r="J1066" t="n">
-        <v>354000</v>
-      </c>
+      <c r="J1066" t="inlineStr"/>
       <c r="K1066" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -37069,9 +37627,7 @@
         <v>0</v>
       </c>
       <c r="I1067" t="inlineStr"/>
-      <c r="J1067" t="n">
-        <v>354000</v>
-      </c>
+      <c r="J1067" t="inlineStr"/>
       <c r="K1067" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -37108,9 +37664,7 @@
         <v>0</v>
       </c>
       <c r="I1068" t="inlineStr"/>
-      <c r="J1068" t="n">
-        <v>354000</v>
-      </c>
+      <c r="J1068" t="inlineStr"/>
       <c r="K1068" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -37147,9 +37701,7 @@
         <v>0</v>
       </c>
       <c r="I1069" t="inlineStr"/>
-      <c r="J1069" t="n">
-        <v>354000</v>
-      </c>
+      <c r="J1069" t="inlineStr"/>
       <c r="K1069" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -37186,9 +37738,7 @@
         <v>0</v>
       </c>
       <c r="I1070" t="inlineStr"/>
-      <c r="J1070" t="n">
-        <v>354000</v>
-      </c>
+      <c r="J1070" t="inlineStr"/>
       <c r="K1070" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -37225,9 +37775,7 @@
         <v>0</v>
       </c>
       <c r="I1071" t="inlineStr"/>
-      <c r="J1071" t="n">
-        <v>354000</v>
-      </c>
+      <c r="J1071" t="inlineStr"/>
       <c r="K1071" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -37264,9 +37812,7 @@
         <v>0</v>
       </c>
       <c r="I1072" t="inlineStr"/>
-      <c r="J1072" t="n">
-        <v>354000</v>
-      </c>
+      <c r="J1072" t="inlineStr"/>
       <c r="K1072" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -37303,9 +37849,7 @@
         <v>0</v>
       </c>
       <c r="I1073" t="inlineStr"/>
-      <c r="J1073" t="n">
-        <v>354000</v>
-      </c>
+      <c r="J1073" t="inlineStr"/>
       <c r="K1073" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -37342,9 +37886,7 @@
         <v>0</v>
       </c>
       <c r="I1074" t="inlineStr"/>
-      <c r="J1074" t="n">
-        <v>354000</v>
-      </c>
+      <c r="J1074" t="inlineStr"/>
       <c r="K1074" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -37381,9 +37923,7 @@
         <v>0</v>
       </c>
       <c r="I1075" t="inlineStr"/>
-      <c r="J1075" t="n">
-        <v>354000</v>
-      </c>
+      <c r="J1075" t="inlineStr"/>
       <c r="K1075" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -37420,9 +37960,7 @@
         <v>0</v>
       </c>
       <c r="I1076" t="inlineStr"/>
-      <c r="J1076" t="n">
-        <v>354000</v>
-      </c>
+      <c r="J1076" t="inlineStr"/>
       <c r="K1076" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -37459,9 +37997,7 @@
         <v>0</v>
       </c>
       <c r="I1077" t="inlineStr"/>
-      <c r="J1077" t="n">
-        <v>354000</v>
-      </c>
+      <c r="J1077" t="inlineStr"/>
       <c r="K1077" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -37498,9 +38034,7 @@
         <v>0</v>
       </c>
       <c r="I1078" t="inlineStr"/>
-      <c r="J1078" t="n">
-        <v>354000</v>
-      </c>
+      <c r="J1078" t="inlineStr"/>
       <c r="K1078" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -37537,9 +38071,7 @@
         <v>0</v>
       </c>
       <c r="I1079" t="inlineStr"/>
-      <c r="J1079" t="n">
-        <v>354000</v>
-      </c>
+      <c r="J1079" t="inlineStr"/>
       <c r="K1079" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -37576,9 +38108,7 @@
         <v>0</v>
       </c>
       <c r="I1080" t="inlineStr"/>
-      <c r="J1080" t="n">
-        <v>354000</v>
-      </c>
+      <c r="J1080" t="inlineStr"/>
       <c r="K1080" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -37615,9 +38145,7 @@
         <v>0</v>
       </c>
       <c r="I1081" t="inlineStr"/>
-      <c r="J1081" t="n">
-        <v>354000</v>
-      </c>
+      <c r="J1081" t="inlineStr"/>
       <c r="K1081" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -37654,9 +38182,7 @@
         <v>0</v>
       </c>
       <c r="I1082" t="inlineStr"/>
-      <c r="J1082" t="n">
-        <v>354000</v>
-      </c>
+      <c r="J1082" t="inlineStr"/>
       <c r="K1082" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -37693,9 +38219,7 @@
         <v>0</v>
       </c>
       <c r="I1083" t="inlineStr"/>
-      <c r="J1083" t="n">
-        <v>354000</v>
-      </c>
+      <c r="J1083" t="inlineStr"/>
       <c r="K1083" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -37732,9 +38256,7 @@
         <v>0</v>
       </c>
       <c r="I1084" t="inlineStr"/>
-      <c r="J1084" t="n">
-        <v>354000</v>
-      </c>
+      <c r="J1084" t="inlineStr"/>
       <c r="K1084" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -37771,9 +38293,7 @@
         <v>0</v>
       </c>
       <c r="I1085" t="inlineStr"/>
-      <c r="J1085" t="n">
-        <v>354000</v>
-      </c>
+      <c r="J1085" t="inlineStr"/>
       <c r="K1085" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -37810,9 +38330,7 @@
         <v>0</v>
       </c>
       <c r="I1086" t="inlineStr"/>
-      <c r="J1086" t="n">
-        <v>354000</v>
-      </c>
+      <c r="J1086" t="inlineStr"/>
       <c r="K1086" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -37849,9 +38367,7 @@
         <v>0</v>
       </c>
       <c r="I1087" t="inlineStr"/>
-      <c r="J1087" t="n">
-        <v>354000</v>
-      </c>
+      <c r="J1087" t="inlineStr"/>
       <c r="K1087" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -37888,9 +38404,7 @@
         <v>0</v>
       </c>
       <c r="I1088" t="inlineStr"/>
-      <c r="J1088" t="n">
-        <v>354000</v>
-      </c>
+      <c r="J1088" t="inlineStr"/>
       <c r="K1088" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -37927,9 +38441,7 @@
         <v>0</v>
       </c>
       <c r="I1089" t="inlineStr"/>
-      <c r="J1089" t="n">
-        <v>354000</v>
-      </c>
+      <c r="J1089" t="inlineStr"/>
       <c r="K1089" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -37966,9 +38478,7 @@
         <v>0</v>
       </c>
       <c r="I1090" t="inlineStr"/>
-      <c r="J1090" t="n">
-        <v>354000</v>
-      </c>
+      <c r="J1090" t="inlineStr"/>
       <c r="K1090" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -38005,9 +38515,7 @@
         <v>0</v>
       </c>
       <c r="I1091" t="inlineStr"/>
-      <c r="J1091" t="n">
-        <v>354000</v>
-      </c>
+      <c r="J1091" t="inlineStr"/>
       <c r="K1091" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -38044,9 +38552,7 @@
         <v>0</v>
       </c>
       <c r="I1092" t="inlineStr"/>
-      <c r="J1092" t="n">
-        <v>354000</v>
-      </c>
+      <c r="J1092" t="inlineStr"/>
       <c r="K1092" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -38083,9 +38589,7 @@
         <v>0</v>
       </c>
       <c r="I1093" t="inlineStr"/>
-      <c r="J1093" t="n">
-        <v>354000</v>
-      </c>
+      <c r="J1093" t="inlineStr"/>
       <c r="K1093" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -38122,9 +38626,7 @@
         <v>0</v>
       </c>
       <c r="I1094" t="inlineStr"/>
-      <c r="J1094" t="n">
-        <v>354000</v>
-      </c>
+      <c r="J1094" t="inlineStr"/>
       <c r="K1094" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -38161,9 +38663,7 @@
         <v>0</v>
       </c>
       <c r="I1095" t="inlineStr"/>
-      <c r="J1095" t="n">
-        <v>354000</v>
-      </c>
+      <c r="J1095" t="inlineStr"/>
       <c r="K1095" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -38200,9 +38700,7 @@
         <v>0</v>
       </c>
       <c r="I1096" t="inlineStr"/>
-      <c r="J1096" t="n">
-        <v>354000</v>
-      </c>
+      <c r="J1096" t="inlineStr"/>
       <c r="K1096" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -38239,9 +38737,7 @@
         <v>0</v>
       </c>
       <c r="I1097" t="inlineStr"/>
-      <c r="J1097" t="n">
-        <v>354000</v>
-      </c>
+      <c r="J1097" t="inlineStr"/>
       <c r="K1097" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -38278,9 +38774,7 @@
         <v>0</v>
       </c>
       <c r="I1098" t="inlineStr"/>
-      <c r="J1098" t="n">
-        <v>354000</v>
-      </c>
+      <c r="J1098" t="inlineStr"/>
       <c r="K1098" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -38317,9 +38811,7 @@
         <v>0</v>
       </c>
       <c r="I1099" t="inlineStr"/>
-      <c r="J1099" t="n">
-        <v>354000</v>
-      </c>
+      <c r="J1099" t="inlineStr"/>
       <c r="K1099" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -38356,9 +38848,7 @@
         <v>0</v>
       </c>
       <c r="I1100" t="inlineStr"/>
-      <c r="J1100" t="n">
-        <v>354000</v>
-      </c>
+      <c r="J1100" t="inlineStr"/>
       <c r="K1100" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -38395,9 +38885,7 @@
         <v>0</v>
       </c>
       <c r="I1101" t="inlineStr"/>
-      <c r="J1101" t="n">
-        <v>354000</v>
-      </c>
+      <c r="J1101" t="inlineStr"/>
       <c r="K1101" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -38434,9 +38922,7 @@
         <v>0</v>
       </c>
       <c r="I1102" t="inlineStr"/>
-      <c r="J1102" t="n">
-        <v>354000</v>
-      </c>
+      <c r="J1102" t="inlineStr"/>
       <c r="K1102" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -38473,9 +38959,7 @@
         <v>0</v>
       </c>
       <c r="I1103" t="inlineStr"/>
-      <c r="J1103" t="n">
-        <v>354000</v>
-      </c>
+      <c r="J1103" t="inlineStr"/>
       <c r="K1103" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -38512,9 +38996,7 @@
         <v>0</v>
       </c>
       <c r="I1104" t="inlineStr"/>
-      <c r="J1104" t="n">
-        <v>354000</v>
-      </c>
+      <c r="J1104" t="inlineStr"/>
       <c r="K1104" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -38551,9 +39033,7 @@
         <v>0</v>
       </c>
       <c r="I1105" t="inlineStr"/>
-      <c r="J1105" t="n">
-        <v>354000</v>
-      </c>
+      <c r="J1105" t="inlineStr"/>
       <c r="K1105" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -38590,9 +39070,7 @@
         <v>0</v>
       </c>
       <c r="I1106" t="inlineStr"/>
-      <c r="J1106" t="n">
-        <v>354000</v>
-      </c>
+      <c r="J1106" t="inlineStr"/>
       <c r="K1106" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -38629,9 +39107,7 @@
         <v>0</v>
       </c>
       <c r="I1107" t="inlineStr"/>
-      <c r="J1107" t="n">
-        <v>354000</v>
-      </c>
+      <c r="J1107" t="inlineStr"/>
       <c r="K1107" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -38668,9 +39144,7 @@
         <v>0</v>
       </c>
       <c r="I1108" t="inlineStr"/>
-      <c r="J1108" t="n">
-        <v>354000</v>
-      </c>
+      <c r="J1108" t="inlineStr"/>
       <c r="K1108" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -38707,9 +39181,7 @@
         <v>0</v>
       </c>
       <c r="I1109" t="inlineStr"/>
-      <c r="J1109" t="n">
-        <v>354000</v>
-      </c>
+      <c r="J1109" t="inlineStr"/>
       <c r="K1109" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -38746,9 +39218,7 @@
         <v>0</v>
       </c>
       <c r="I1110" t="inlineStr"/>
-      <c r="J1110" t="n">
-        <v>354000</v>
-      </c>
+      <c r="J1110" t="inlineStr"/>
       <c r="K1110" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -38785,9 +39255,7 @@
         <v>0</v>
       </c>
       <c r="I1111" t="inlineStr"/>
-      <c r="J1111" t="n">
-        <v>354000</v>
-      </c>
+      <c r="J1111" t="inlineStr"/>
       <c r="K1111" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -38824,9 +39292,7 @@
         <v>0</v>
       </c>
       <c r="I1112" t="inlineStr"/>
-      <c r="J1112" t="n">
-        <v>354000</v>
-      </c>
+      <c r="J1112" t="inlineStr"/>
       <c r="K1112" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -38838,6 +39304,6 @@
       <c r="M1112" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-25 BackTest BCH.xlsx
+++ b/BackTest/2020-01-25 BackTest BCH.xlsx
@@ -451,7 +451,7 @@
         <v>-39.39647041999999</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>-26.39647041999999</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>-24.99647041999999</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>-21.03137041999999</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>-21.00137041999999</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>-81.04324528999999</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>-81.07324528999999</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>-60.79973503999999</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>-60.81973503999999</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>-141.28273504</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>-146.18273504</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>-146.18273504</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>-144.56763504</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>-147.76763504</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>-147.76523504</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>-153.36523504</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>-144.96523504</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>-214.15523504</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>-411.95783504</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>-710.78453504</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1111,7 +1111,7 @@
         <v>-730.72393504</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>-750.9271350400001</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
         <v>-994.5959350400001</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1210,7 +1210,7 @@
         <v>-1105.56663504</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1243,7 +1243,7 @@
         <v>-967.3071350400002</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1276,7 +1276,7 @@
         <v>-940.1296350400002</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1309,7 +1309,7 @@
         <v>-900.0212350400002</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
         <v>-900.0212350400002</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>-920.6961350400002</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>-915.0705350400002</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         <v>-880.2658350400002</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1474,7 +1474,7 @@
         <v>-858.2699350400002</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1507,7 +1507,7 @@
         <v>-859.9692350400002</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1540,7 +1540,7 @@
         <v>-862.4903350400002</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1573,7 +1573,7 @@
         <v>-863.4903350400002</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1606,7 +1606,7 @@
         <v>-906.5851350400002</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1639,7 +1639,7 @@
         <v>-851.2706350400002</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -1672,7 +1672,7 @@
         <v>-851.6654350400003</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -1738,7 +1738,7 @@
         <v>-861.9504350400002</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -1771,7 +1771,7 @@
         <v>-851.8893350400002</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -1804,7 +1804,7 @@
         <v>-851.8893350400002</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -1837,7 +1837,7 @@
         <v>-854.2550350400002</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -1870,7 +1870,7 @@
         <v>-851.8204710300001</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -1903,7 +1903,7 @@
         <v>-852.7598710300001</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -1936,7 +1936,7 @@
         <v>-858.6293096900001</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -1969,7 +1969,7 @@
         <v>-865.0633186100001</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2002,7 +2002,7 @@
         <v>-865.0633186100001</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2035,7 +2035,7 @@
         <v>-914.6994186100001</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2068,7 +2068,7 @@
         <v>-934.9893186100001</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2101,7 +2101,7 @@
         <v>-961.09591861</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -2167,7 +2167,7 @@
         <v>-925.90071861</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2200,7 +2200,7 @@
         <v>-739.90701861</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2233,7 +2233,7 @@
         <v>-631.00311861</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2266,7 +2266,7 @@
         <v>-578.42351861</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -2299,7 +2299,7 @@
         <v>-578.42351861</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -2332,7 +2332,7 @@
         <v>-603.76351861</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -2365,7 +2365,7 @@
         <v>-577.52351861</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -2398,7 +2398,7 @@
         <v>-580.5586186099999</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -2431,7 +2431,7 @@
         <v>-598.3575186099999</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2464,7 +2464,7 @@
         <v>-615.25641861</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -2497,7 +2497,7 @@
         <v>-627.85501861</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -2530,7 +2530,7 @@
         <v>-628.58421861</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -2563,7 +2563,7 @@
         <v>-648.39921861</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -2596,7 +2596,7 @@
         <v>-648.44871861</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -2629,7 +2629,7 @@
         <v>-686.18331861</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -2662,7 +2662,7 @@
         <v>-683.18331861</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -2695,7 +2695,7 @@
         <v>-691.18331861</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -2728,7 +2728,7 @@
         <v>-692.18331861</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -2761,7 +2761,7 @@
         <v>-692.43281861</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -2794,7 +2794,7 @@
         <v>-708.43281861</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -2827,7 +2827,7 @@
         <v>-765.9711186100001</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -2860,7 +2860,7 @@
         <v>-769.9077190200001</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -2893,7 +2893,7 @@
         <v>-814.36661902</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -2926,7 +2926,7 @@
         <v>-892.35121902</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -2959,7 +2959,7 @@
         <v>-865.45451902</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
@@ -2992,7 +2992,7 @@
         <v>-794.9815190200001</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
@@ -3025,7 +3025,7 @@
         <v>-795.3899190200001</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -3058,7 +3058,7 @@
         <v>-803.7028190200001</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
@@ -3091,7 +3091,7 @@
         <v>-985.6129190200002</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
@@ -3124,7 +3124,7 @@
         <v>-1211.98811902</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
@@ -3157,7 +3157,7 @@
         <v>-1210.11291902</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
@@ -9361,7 +9361,7 @@
         <v>-1791.4047747</v>
       </c>
       <c r="H272" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
@@ -9394,7 +9394,7 @@
         <v>-1783.4047747</v>
       </c>
       <c r="H273" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
@@ -9427,7 +9427,7 @@
         <v>-1774.7659747</v>
       </c>
       <c r="H274" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
@@ -9460,7 +9460,7 @@
         <v>-1772.7559747</v>
       </c>
       <c r="H275" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
@@ -9493,7 +9493,7 @@
         <v>-1772.7559747</v>
       </c>
       <c r="H276" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
@@ -9526,7 +9526,7 @@
         <v>-1764.88165333</v>
       </c>
       <c r="H277" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
@@ -9559,7 +9559,7 @@
         <v>-1764.88715333</v>
       </c>
       <c r="H278" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
@@ -9592,7 +9592,7 @@
         <v>-1798.13435333</v>
       </c>
       <c r="H279" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
@@ -9625,7 +9625,7 @@
         <v>-1803.35805333</v>
       </c>
       <c r="H280" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
@@ -9757,7 +9757,7 @@
         <v>-1803.74895943</v>
       </c>
       <c r="H284" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
@@ -9823,7 +9823,7 @@
         <v>-1803.41415943</v>
       </c>
       <c r="H286" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
@@ -9856,7 +9856,7 @@
         <v>-1806.19155943</v>
       </c>
       <c r="H287" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
@@ -13255,7 +13255,7 @@
         <v>-2102.326484889999</v>
       </c>
       <c r="H390" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I390" t="inlineStr"/>
       <c r="J390" t="inlineStr"/>
@@ -13321,7 +13321,7 @@
         <v>-2100.49608511</v>
       </c>
       <c r="H392" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I392" t="inlineStr"/>
       <c r="J392" t="inlineStr"/>
@@ -13387,7 +13387,7 @@
         <v>-2190.25178511</v>
       </c>
       <c r="H394" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I394" t="inlineStr"/>
       <c r="J394" t="inlineStr"/>
@@ -28303,11 +28303,17 @@
         <v>-6074.878632889995</v>
       </c>
       <c r="H846" t="n">
-        <v>0</v>
-      </c>
-      <c r="I846" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I846" t="n">
+        <v>351700</v>
+      </c>
       <c r="J846" t="inlineStr"/>
-      <c r="K846" t="inlineStr"/>
+      <c r="K846" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L846" t="n">
         <v>1</v>
       </c>
@@ -28336,11 +28342,17 @@
         <v>-6097.757432889995</v>
       </c>
       <c r="H847" t="n">
-        <v>0</v>
-      </c>
-      <c r="I847" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I847" t="n">
+        <v>352600</v>
+      </c>
       <c r="J847" t="inlineStr"/>
-      <c r="K847" t="inlineStr"/>
+      <c r="K847" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L847" t="n">
         <v>1</v>
       </c>
@@ -28373,7 +28385,11 @@
       </c>
       <c r="I848" t="inlineStr"/>
       <c r="J848" t="inlineStr"/>
-      <c r="K848" t="inlineStr"/>
+      <c r="K848" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L848" t="n">
         <v>1</v>
       </c>
@@ -28406,7 +28422,11 @@
       </c>
       <c r="I849" t="inlineStr"/>
       <c r="J849" t="inlineStr"/>
-      <c r="K849" t="inlineStr"/>
+      <c r="K849" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L849" t="n">
         <v>1</v>
       </c>
@@ -28439,7 +28459,11 @@
       </c>
       <c r="I850" t="inlineStr"/>
       <c r="J850" t="inlineStr"/>
-      <c r="K850" t="inlineStr"/>
+      <c r="K850" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L850" t="n">
         <v>1</v>
       </c>
@@ -28472,7 +28496,11 @@
       </c>
       <c r="I851" t="inlineStr"/>
       <c r="J851" t="inlineStr"/>
-      <c r="K851" t="inlineStr"/>
+      <c r="K851" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L851" t="n">
         <v>1</v>
       </c>
@@ -28505,7 +28533,11 @@
       </c>
       <c r="I852" t="inlineStr"/>
       <c r="J852" t="inlineStr"/>
-      <c r="K852" t="inlineStr"/>
+      <c r="K852" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L852" t="n">
         <v>1</v>
       </c>
@@ -28538,7 +28570,11 @@
       </c>
       <c r="I853" t="inlineStr"/>
       <c r="J853" t="inlineStr"/>
-      <c r="K853" t="inlineStr"/>
+      <c r="K853" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L853" t="n">
         <v>1</v>
       </c>
@@ -28571,7 +28607,11 @@
       </c>
       <c r="I854" t="inlineStr"/>
       <c r="J854" t="inlineStr"/>
-      <c r="K854" t="inlineStr"/>
+      <c r="K854" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L854" t="n">
         <v>1</v>
       </c>
@@ -28604,7 +28644,11 @@
       </c>
       <c r="I855" t="inlineStr"/>
       <c r="J855" t="inlineStr"/>
-      <c r="K855" t="inlineStr"/>
+      <c r="K855" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L855" t="n">
         <v>1</v>
       </c>
@@ -28637,7 +28681,11 @@
       </c>
       <c r="I856" t="inlineStr"/>
       <c r="J856" t="inlineStr"/>
-      <c r="K856" t="inlineStr"/>
+      <c r="K856" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L856" t="n">
         <v>1</v>
       </c>
@@ -28670,7 +28718,11 @@
       </c>
       <c r="I857" t="inlineStr"/>
       <c r="J857" t="inlineStr"/>
-      <c r="K857" t="inlineStr"/>
+      <c r="K857" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L857" t="n">
         <v>1</v>
       </c>
@@ -28703,7 +28755,11 @@
       </c>
       <c r="I858" t="inlineStr"/>
       <c r="J858" t="inlineStr"/>
-      <c r="K858" t="inlineStr"/>
+      <c r="K858" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L858" t="n">
         <v>1</v>
       </c>
@@ -28736,7 +28792,11 @@
       </c>
       <c r="I859" t="inlineStr"/>
       <c r="J859" t="inlineStr"/>
-      <c r="K859" t="inlineStr"/>
+      <c r="K859" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L859" t="n">
         <v>1</v>
       </c>
@@ -28769,7 +28829,11 @@
       </c>
       <c r="I860" t="inlineStr"/>
       <c r="J860" t="inlineStr"/>
-      <c r="K860" t="inlineStr"/>
+      <c r="K860" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L860" t="n">
         <v>1</v>
       </c>
@@ -28802,7 +28866,11 @@
       </c>
       <c r="I861" t="inlineStr"/>
       <c r="J861" t="inlineStr"/>
-      <c r="K861" t="inlineStr"/>
+      <c r="K861" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L861" t="n">
         <v>1</v>
       </c>
@@ -28835,7 +28903,11 @@
       </c>
       <c r="I862" t="inlineStr"/>
       <c r="J862" t="inlineStr"/>
-      <c r="K862" t="inlineStr"/>
+      <c r="K862" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L862" t="n">
         <v>1</v>
       </c>
@@ -28868,7 +28940,11 @@
       </c>
       <c r="I863" t="inlineStr"/>
       <c r="J863" t="inlineStr"/>
-      <c r="K863" t="inlineStr"/>
+      <c r="K863" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L863" t="n">
         <v>1</v>
       </c>
@@ -28901,7 +28977,11 @@
       </c>
       <c r="I864" t="inlineStr"/>
       <c r="J864" t="inlineStr"/>
-      <c r="K864" t="inlineStr"/>
+      <c r="K864" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L864" t="n">
         <v>1</v>
       </c>
@@ -28934,7 +29014,11 @@
       </c>
       <c r="I865" t="inlineStr"/>
       <c r="J865" t="inlineStr"/>
-      <c r="K865" t="inlineStr"/>
+      <c r="K865" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L865" t="n">
         <v>1</v>
       </c>
@@ -28967,7 +29051,11 @@
       </c>
       <c r="I866" t="inlineStr"/>
       <c r="J866" t="inlineStr"/>
-      <c r="K866" t="inlineStr"/>
+      <c r="K866" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L866" t="n">
         <v>1</v>
       </c>
@@ -29000,7 +29088,11 @@
       </c>
       <c r="I867" t="inlineStr"/>
       <c r="J867" t="inlineStr"/>
-      <c r="K867" t="inlineStr"/>
+      <c r="K867" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L867" t="n">
         <v>1</v>
       </c>
@@ -29033,7 +29125,11 @@
       </c>
       <c r="I868" t="inlineStr"/>
       <c r="J868" t="inlineStr"/>
-      <c r="K868" t="inlineStr"/>
+      <c r="K868" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L868" t="n">
         <v>1</v>
       </c>
@@ -29066,7 +29162,11 @@
       </c>
       <c r="I869" t="inlineStr"/>
       <c r="J869" t="inlineStr"/>
-      <c r="K869" t="inlineStr"/>
+      <c r="K869" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L869" t="n">
         <v>1</v>
       </c>
@@ -29099,7 +29199,11 @@
       </c>
       <c r="I870" t="inlineStr"/>
       <c r="J870" t="inlineStr"/>
-      <c r="K870" t="inlineStr"/>
+      <c r="K870" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L870" t="n">
         <v>1</v>
       </c>
@@ -29132,7 +29236,11 @@
       </c>
       <c r="I871" t="inlineStr"/>
       <c r="J871" t="inlineStr"/>
-      <c r="K871" t="inlineStr"/>
+      <c r="K871" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L871" t="n">
         <v>1</v>
       </c>
@@ -29165,7 +29273,11 @@
       </c>
       <c r="I872" t="inlineStr"/>
       <c r="J872" t="inlineStr"/>
-      <c r="K872" t="inlineStr"/>
+      <c r="K872" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L872" t="n">
         <v>1</v>
       </c>
@@ -29198,7 +29310,11 @@
       </c>
       <c r="I873" t="inlineStr"/>
       <c r="J873" t="inlineStr"/>
-      <c r="K873" t="inlineStr"/>
+      <c r="K873" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L873" t="n">
         <v>1</v>
       </c>
@@ -29231,7 +29347,11 @@
       </c>
       <c r="I874" t="inlineStr"/>
       <c r="J874" t="inlineStr"/>
-      <c r="K874" t="inlineStr"/>
+      <c r="K874" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L874" t="n">
         <v>1</v>
       </c>
@@ -29264,7 +29384,11 @@
       </c>
       <c r="I875" t="inlineStr"/>
       <c r="J875" t="inlineStr"/>
-      <c r="K875" t="inlineStr"/>
+      <c r="K875" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L875" t="n">
         <v>1</v>
       </c>
@@ -29297,7 +29421,11 @@
       </c>
       <c r="I876" t="inlineStr"/>
       <c r="J876" t="inlineStr"/>
-      <c r="K876" t="inlineStr"/>
+      <c r="K876" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L876" t="n">
         <v>1</v>
       </c>
@@ -29330,7 +29458,11 @@
       </c>
       <c r="I877" t="inlineStr"/>
       <c r="J877" t="inlineStr"/>
-      <c r="K877" t="inlineStr"/>
+      <c r="K877" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L877" t="n">
         <v>1</v>
       </c>
@@ -29363,7 +29495,11 @@
       </c>
       <c r="I878" t="inlineStr"/>
       <c r="J878" t="inlineStr"/>
-      <c r="K878" t="inlineStr"/>
+      <c r="K878" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L878" t="n">
         <v>1</v>
       </c>
@@ -29396,7 +29532,11 @@
       </c>
       <c r="I879" t="inlineStr"/>
       <c r="J879" t="inlineStr"/>
-      <c r="K879" t="inlineStr"/>
+      <c r="K879" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L879" t="n">
         <v>1</v>
       </c>
@@ -29429,7 +29569,11 @@
       </c>
       <c r="I880" t="inlineStr"/>
       <c r="J880" t="inlineStr"/>
-      <c r="K880" t="inlineStr"/>
+      <c r="K880" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L880" t="n">
         <v>1</v>
       </c>
@@ -29462,7 +29606,11 @@
       </c>
       <c r="I881" t="inlineStr"/>
       <c r="J881" t="inlineStr"/>
-      <c r="K881" t="inlineStr"/>
+      <c r="K881" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L881" t="n">
         <v>1</v>
       </c>
@@ -29495,7 +29643,11 @@
       </c>
       <c r="I882" t="inlineStr"/>
       <c r="J882" t="inlineStr"/>
-      <c r="K882" t="inlineStr"/>
+      <c r="K882" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L882" t="n">
         <v>1</v>
       </c>
@@ -29528,7 +29680,11 @@
       </c>
       <c r="I883" t="inlineStr"/>
       <c r="J883" t="inlineStr"/>
-      <c r="K883" t="inlineStr"/>
+      <c r="K883" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L883" t="n">
         <v>1</v>
       </c>
@@ -29561,7 +29717,11 @@
       </c>
       <c r="I884" t="inlineStr"/>
       <c r="J884" t="inlineStr"/>
-      <c r="K884" t="inlineStr"/>
+      <c r="K884" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L884" t="n">
         <v>1</v>
       </c>
@@ -29594,7 +29754,11 @@
       </c>
       <c r="I885" t="inlineStr"/>
       <c r="J885" t="inlineStr"/>
-      <c r="K885" t="inlineStr"/>
+      <c r="K885" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L885" t="n">
         <v>1</v>
       </c>
@@ -29627,7 +29791,11 @@
       </c>
       <c r="I886" t="inlineStr"/>
       <c r="J886" t="inlineStr"/>
-      <c r="K886" t="inlineStr"/>
+      <c r="K886" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L886" t="n">
         <v>1</v>
       </c>
@@ -29660,7 +29828,11 @@
       </c>
       <c r="I887" t="inlineStr"/>
       <c r="J887" t="inlineStr"/>
-      <c r="K887" t="inlineStr"/>
+      <c r="K887" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L887" t="n">
         <v>1</v>
       </c>
@@ -29693,7 +29865,11 @@
       </c>
       <c r="I888" t="inlineStr"/>
       <c r="J888" t="inlineStr"/>
-      <c r="K888" t="inlineStr"/>
+      <c r="K888" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L888" t="n">
         <v>1</v>
       </c>
@@ -29726,7 +29902,11 @@
       </c>
       <c r="I889" t="inlineStr"/>
       <c r="J889" t="inlineStr"/>
-      <c r="K889" t="inlineStr"/>
+      <c r="K889" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L889" t="n">
         <v>1</v>
       </c>
@@ -29759,7 +29939,11 @@
       </c>
       <c r="I890" t="inlineStr"/>
       <c r="J890" t="inlineStr"/>
-      <c r="K890" t="inlineStr"/>
+      <c r="K890" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L890" t="n">
         <v>1</v>
       </c>
@@ -29792,7 +29976,11 @@
       </c>
       <c r="I891" t="inlineStr"/>
       <c r="J891" t="inlineStr"/>
-      <c r="K891" t="inlineStr"/>
+      <c r="K891" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L891" t="n">
         <v>1</v>
       </c>
@@ -29825,7 +30013,11 @@
       </c>
       <c r="I892" t="inlineStr"/>
       <c r="J892" t="inlineStr"/>
-      <c r="K892" t="inlineStr"/>
+      <c r="K892" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L892" t="n">
         <v>1</v>
       </c>
@@ -29858,7 +30050,11 @@
       </c>
       <c r="I893" t="inlineStr"/>
       <c r="J893" t="inlineStr"/>
-      <c r="K893" t="inlineStr"/>
+      <c r="K893" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L893" t="n">
         <v>1</v>
       </c>
@@ -29891,7 +30087,11 @@
       </c>
       <c r="I894" t="inlineStr"/>
       <c r="J894" t="inlineStr"/>
-      <c r="K894" t="inlineStr"/>
+      <c r="K894" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L894" t="n">
         <v>1</v>
       </c>
@@ -29920,11 +30120,17 @@
         <v>-6301.547443149994</v>
       </c>
       <c r="H895" t="n">
-        <v>0</v>
-      </c>
-      <c r="I895" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I895" t="n">
+        <v>354700</v>
+      </c>
       <c r="J895" t="inlineStr"/>
-      <c r="K895" t="inlineStr"/>
+      <c r="K895" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L895" t="n">
         <v>1</v>
       </c>
@@ -29953,11 +30159,17 @@
         <v>-6209.282543149994</v>
       </c>
       <c r="H896" t="n">
-        <v>0</v>
-      </c>
-      <c r="I896" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I896" t="n">
+        <v>354000</v>
+      </c>
       <c r="J896" t="inlineStr"/>
-      <c r="K896" t="inlineStr"/>
+      <c r="K896" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L896" t="n">
         <v>1</v>
       </c>
@@ -29990,7 +30202,11 @@
       </c>
       <c r="I897" t="inlineStr"/>
       <c r="J897" t="inlineStr"/>
-      <c r="K897" t="inlineStr"/>
+      <c r="K897" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L897" t="n">
         <v>1</v>
       </c>
@@ -30019,11 +30235,17 @@
         <v>-6239.801543149994</v>
       </c>
       <c r="H898" t="n">
-        <v>0</v>
-      </c>
-      <c r="I898" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I898" t="n">
+        <v>354300</v>
+      </c>
       <c r="J898" t="inlineStr"/>
-      <c r="K898" t="inlineStr"/>
+      <c r="K898" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L898" t="n">
         <v>1</v>
       </c>
@@ -30056,7 +30278,11 @@
       </c>
       <c r="I899" t="inlineStr"/>
       <c r="J899" t="inlineStr"/>
-      <c r="K899" t="inlineStr"/>
+      <c r="K899" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L899" t="n">
         <v>1</v>
       </c>
@@ -30089,7 +30315,11 @@
       </c>
       <c r="I900" t="inlineStr"/>
       <c r="J900" t="inlineStr"/>
-      <c r="K900" t="inlineStr"/>
+      <c r="K900" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L900" t="n">
         <v>1</v>
       </c>
@@ -30122,7 +30352,11 @@
       </c>
       <c r="I901" t="inlineStr"/>
       <c r="J901" t="inlineStr"/>
-      <c r="K901" t="inlineStr"/>
+      <c r="K901" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L901" t="n">
         <v>1</v>
       </c>
@@ -30155,7 +30389,11 @@
       </c>
       <c r="I902" t="inlineStr"/>
       <c r="J902" t="inlineStr"/>
-      <c r="K902" t="inlineStr"/>
+      <c r="K902" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L902" t="n">
         <v>1</v>
       </c>
@@ -30188,7 +30426,11 @@
       </c>
       <c r="I903" t="inlineStr"/>
       <c r="J903" t="inlineStr"/>
-      <c r="K903" t="inlineStr"/>
+      <c r="K903" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L903" t="n">
         <v>1</v>
       </c>
@@ -30221,7 +30463,11 @@
       </c>
       <c r="I904" t="inlineStr"/>
       <c r="J904" t="inlineStr"/>
-      <c r="K904" t="inlineStr"/>
+      <c r="K904" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L904" t="n">
         <v>1</v>
       </c>
@@ -30254,7 +30500,11 @@
       </c>
       <c r="I905" t="inlineStr"/>
       <c r="J905" t="inlineStr"/>
-      <c r="K905" t="inlineStr"/>
+      <c r="K905" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L905" t="n">
         <v>1</v>
       </c>
@@ -30287,7 +30537,11 @@
       </c>
       <c r="I906" t="inlineStr"/>
       <c r="J906" t="inlineStr"/>
-      <c r="K906" t="inlineStr"/>
+      <c r="K906" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L906" t="n">
         <v>1</v>
       </c>
@@ -30320,7 +30574,11 @@
       </c>
       <c r="I907" t="inlineStr"/>
       <c r="J907" t="inlineStr"/>
-      <c r="K907" t="inlineStr"/>
+      <c r="K907" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L907" t="n">
         <v>1</v>
       </c>
@@ -30353,7 +30611,11 @@
       </c>
       <c r="I908" t="inlineStr"/>
       <c r="J908" t="inlineStr"/>
-      <c r="K908" t="inlineStr"/>
+      <c r="K908" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L908" t="n">
         <v>1</v>
       </c>
@@ -30386,7 +30648,11 @@
       </c>
       <c r="I909" t="inlineStr"/>
       <c r="J909" t="inlineStr"/>
-      <c r="K909" t="inlineStr"/>
+      <c r="K909" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L909" t="n">
         <v>1</v>
       </c>
@@ -30419,7 +30685,11 @@
       </c>
       <c r="I910" t="inlineStr"/>
       <c r="J910" t="inlineStr"/>
-      <c r="K910" t="inlineStr"/>
+      <c r="K910" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L910" t="n">
         <v>1</v>
       </c>
@@ -30452,7 +30722,11 @@
       </c>
       <c r="I911" t="inlineStr"/>
       <c r="J911" t="inlineStr"/>
-      <c r="K911" t="inlineStr"/>
+      <c r="K911" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L911" t="n">
         <v>1</v>
       </c>
@@ -30485,7 +30759,11 @@
       </c>
       <c r="I912" t="inlineStr"/>
       <c r="J912" t="inlineStr"/>
-      <c r="K912" t="inlineStr"/>
+      <c r="K912" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L912" t="n">
         <v>1</v>
       </c>
@@ -30514,15 +30792,15 @@
         <v>-6161.705643149995</v>
       </c>
       <c r="H913" t="n">
-        <v>1</v>
-      </c>
-      <c r="I913" t="n">
-        <v>354100</v>
-      </c>
-      <c r="J913" t="n">
-        <v>354100</v>
-      </c>
-      <c r="K913" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I913" t="inlineStr"/>
+      <c r="J913" t="inlineStr"/>
+      <c r="K913" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L913" t="n">
         <v>1</v>
       </c>
@@ -30551,17 +30829,13 @@
         <v>-6181.838943149995</v>
       </c>
       <c r="H914" t="n">
-        <v>1</v>
-      </c>
-      <c r="I914" t="n">
-        <v>354200</v>
-      </c>
-      <c r="J914" t="n">
-        <v>354100</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I914" t="inlineStr"/>
+      <c r="J914" t="inlineStr"/>
       <c r="K914" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L914" t="n">
@@ -30592,14 +30866,10 @@
         <v>-6182.838943149995</v>
       </c>
       <c r="H915" t="n">
-        <v>1</v>
-      </c>
-      <c r="I915" t="n">
-        <v>354100</v>
-      </c>
-      <c r="J915" t="n">
-        <v>354100</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I915" t="inlineStr"/>
+      <c r="J915" t="inlineStr"/>
       <c r="K915" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30633,14 +30903,10 @@
         <v>-6189.831643149995</v>
       </c>
       <c r="H916" t="n">
-        <v>1</v>
-      </c>
-      <c r="I916" t="n">
-        <v>353400</v>
-      </c>
-      <c r="J916" t="n">
-        <v>354100</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I916" t="inlineStr"/>
+      <c r="J916" t="inlineStr"/>
       <c r="K916" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30679,9 +30945,7 @@
       <c r="I917" t="n">
         <v>353200</v>
       </c>
-      <c r="J917" t="n">
-        <v>354100</v>
-      </c>
+      <c r="J917" t="inlineStr"/>
       <c r="K917" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30720,9 +30984,7 @@
       <c r="I918" t="n">
         <v>353000</v>
       </c>
-      <c r="J918" t="n">
-        <v>354100</v>
-      </c>
+      <c r="J918" t="inlineStr"/>
       <c r="K918" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30761,9 +31023,7 @@
       <c r="I919" t="n">
         <v>352800</v>
       </c>
-      <c r="J919" t="n">
-        <v>354100</v>
-      </c>
+      <c r="J919" t="inlineStr"/>
       <c r="K919" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30802,9 +31062,7 @@
       <c r="I920" t="n">
         <v>353100</v>
       </c>
-      <c r="J920" t="n">
-        <v>354100</v>
-      </c>
+      <c r="J920" t="inlineStr"/>
       <c r="K920" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30843,9 +31101,7 @@
       <c r="I921" t="n">
         <v>353900</v>
       </c>
-      <c r="J921" t="n">
-        <v>354100</v>
-      </c>
+      <c r="J921" t="inlineStr"/>
       <c r="K921" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30884,9 +31140,7 @@
       <c r="I922" t="n">
         <v>353300</v>
       </c>
-      <c r="J922" t="n">
-        <v>354100</v>
-      </c>
+      <c r="J922" t="inlineStr"/>
       <c r="K922" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30925,9 +31179,7 @@
       <c r="I923" t="n">
         <v>353100</v>
       </c>
-      <c r="J923" t="n">
-        <v>354100</v>
-      </c>
+      <c r="J923" t="inlineStr"/>
       <c r="K923" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30966,9 +31218,7 @@
       <c r="I924" t="n">
         <v>353900</v>
       </c>
-      <c r="J924" t="n">
-        <v>354100</v>
-      </c>
+      <c r="J924" t="inlineStr"/>
       <c r="K924" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31007,9 +31257,7 @@
       <c r="I925" t="n">
         <v>354300</v>
       </c>
-      <c r="J925" t="n">
-        <v>354100</v>
-      </c>
+      <c r="J925" t="inlineStr"/>
       <c r="K925" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31048,9 +31296,7 @@
       <c r="I926" t="n">
         <v>354700</v>
       </c>
-      <c r="J926" t="n">
-        <v>354100</v>
-      </c>
+      <c r="J926" t="inlineStr"/>
       <c r="K926" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31089,9 +31335,7 @@
       <c r="I927" t="n">
         <v>357400</v>
       </c>
-      <c r="J927" t="n">
-        <v>354100</v>
-      </c>
+      <c r="J927" t="inlineStr"/>
       <c r="K927" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31130,9 +31374,7 @@
       <c r="I928" t="n">
         <v>355600</v>
       </c>
-      <c r="J928" t="n">
-        <v>354100</v>
-      </c>
+      <c r="J928" t="inlineStr"/>
       <c r="K928" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31171,9 +31413,7 @@
       <c r="I929" t="n">
         <v>356800</v>
       </c>
-      <c r="J929" t="n">
-        <v>354100</v>
-      </c>
+      <c r="J929" t="inlineStr"/>
       <c r="K929" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31212,9 +31452,7 @@
       <c r="I930" t="n">
         <v>356800</v>
       </c>
-      <c r="J930" t="n">
-        <v>354100</v>
-      </c>
+      <c r="J930" t="inlineStr"/>
       <c r="K930" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31248,12 +31486,12 @@
         <v>-6250.157943149993</v>
       </c>
       <c r="H931" t="n">
-        <v>0</v>
-      </c>
-      <c r="I931" t="inlineStr"/>
-      <c r="J931" t="n">
-        <v>354100</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I931" t="n">
+        <v>356800</v>
+      </c>
+      <c r="J931" t="inlineStr"/>
       <c r="K931" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31292,9 +31530,7 @@
       <c r="I932" t="n">
         <v>356300</v>
       </c>
-      <c r="J932" t="n">
-        <v>354100</v>
-      </c>
+      <c r="J932" t="inlineStr"/>
       <c r="K932" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31328,14 +31564,10 @@
         <v>-6169.578743149993</v>
       </c>
       <c r="H933" t="n">
-        <v>1</v>
-      </c>
-      <c r="I933" t="n">
-        <v>356300</v>
-      </c>
-      <c r="J933" t="n">
-        <v>354100</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I933" t="inlineStr"/>
+      <c r="J933" t="inlineStr"/>
       <c r="K933" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31369,14 +31601,10 @@
         <v>-6132.610143149993</v>
       </c>
       <c r="H934" t="n">
-        <v>1</v>
-      </c>
-      <c r="I934" t="n">
-        <v>356700</v>
-      </c>
-      <c r="J934" t="n">
-        <v>354100</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I934" t="inlineStr"/>
+      <c r="J934" t="inlineStr"/>
       <c r="K934" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31413,9 +31641,7 @@
         <v>0</v>
       </c>
       <c r="I935" t="inlineStr"/>
-      <c r="J935" t="n">
-        <v>354100</v>
-      </c>
+      <c r="J935" t="inlineStr"/>
       <c r="K935" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31452,9 +31678,7 @@
         <v>0</v>
       </c>
       <c r="I936" t="inlineStr"/>
-      <c r="J936" t="n">
-        <v>354100</v>
-      </c>
+      <c r="J936" t="inlineStr"/>
       <c r="K936" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31491,9 +31715,7 @@
         <v>0</v>
       </c>
       <c r="I937" t="inlineStr"/>
-      <c r="J937" t="n">
-        <v>354100</v>
-      </c>
+      <c r="J937" t="inlineStr"/>
       <c r="K937" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31530,9 +31752,7 @@
         <v>0</v>
       </c>
       <c r="I938" t="inlineStr"/>
-      <c r="J938" t="n">
-        <v>354100</v>
-      </c>
+      <c r="J938" t="inlineStr"/>
       <c r="K938" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31569,9 +31789,7 @@
         <v>0</v>
       </c>
       <c r="I939" t="inlineStr"/>
-      <c r="J939" t="n">
-        <v>354100</v>
-      </c>
+      <c r="J939" t="inlineStr"/>
       <c r="K939" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31608,9 +31826,7 @@
         <v>0</v>
       </c>
       <c r="I940" t="inlineStr"/>
-      <c r="J940" t="n">
-        <v>354100</v>
-      </c>
+      <c r="J940" t="inlineStr"/>
       <c r="K940" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31647,9 +31863,7 @@
         <v>0</v>
       </c>
       <c r="I941" t="inlineStr"/>
-      <c r="J941" t="n">
-        <v>354100</v>
-      </c>
+      <c r="J941" t="inlineStr"/>
       <c r="K941" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31686,9 +31900,7 @@
         <v>0</v>
       </c>
       <c r="I942" t="inlineStr"/>
-      <c r="J942" t="n">
-        <v>354100</v>
-      </c>
+      <c r="J942" t="inlineStr"/>
       <c r="K942" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31725,9 +31937,7 @@
         <v>0</v>
       </c>
       <c r="I943" t="inlineStr"/>
-      <c r="J943" t="n">
-        <v>354100</v>
-      </c>
+      <c r="J943" t="inlineStr"/>
       <c r="K943" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31764,9 +31974,7 @@
         <v>0</v>
       </c>
       <c r="I944" t="inlineStr"/>
-      <c r="J944" t="n">
-        <v>354100</v>
-      </c>
+      <c r="J944" t="inlineStr"/>
       <c r="K944" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31803,9 +32011,7 @@
         <v>0</v>
       </c>
       <c r="I945" t="inlineStr"/>
-      <c r="J945" t="n">
-        <v>354100</v>
-      </c>
+      <c r="J945" t="inlineStr"/>
       <c r="K945" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31842,9 +32048,7 @@
         <v>0</v>
       </c>
       <c r="I946" t="inlineStr"/>
-      <c r="J946" t="n">
-        <v>354100</v>
-      </c>
+      <c r="J946" t="inlineStr"/>
       <c r="K946" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31881,9 +32085,7 @@
         <v>0</v>
       </c>
       <c r="I947" t="inlineStr"/>
-      <c r="J947" t="n">
-        <v>354100</v>
-      </c>
+      <c r="J947" t="inlineStr"/>
       <c r="K947" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31920,9 +32122,7 @@
         <v>0</v>
       </c>
       <c r="I948" t="inlineStr"/>
-      <c r="J948" t="n">
-        <v>354100</v>
-      </c>
+      <c r="J948" t="inlineStr"/>
       <c r="K948" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31956,19 +32156,17 @@
         <v>-4909.329458439993</v>
       </c>
       <c r="H949" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I949" t="inlineStr"/>
-      <c r="J949" t="n">
-        <v>354100</v>
-      </c>
+      <c r="J949" t="inlineStr"/>
       <c r="K949" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L949" t="n">
-        <v>1.047527534594747</v>
+        <v>1</v>
       </c>
       <c r="M949" t="inlineStr"/>
     </row>
@@ -31995,11 +32193,15 @@
         <v>-4979.939658439993</v>
       </c>
       <c r="H950" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I950" t="inlineStr"/>
       <c r="J950" t="inlineStr"/>
-      <c r="K950" t="inlineStr"/>
+      <c r="K950" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L950" t="n">
         <v>1</v>
       </c>
@@ -32032,7 +32234,11 @@
       </c>
       <c r="I951" t="inlineStr"/>
       <c r="J951" t="inlineStr"/>
-      <c r="K951" t="inlineStr"/>
+      <c r="K951" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L951" t="n">
         <v>1</v>
       </c>
@@ -32065,7 +32271,11 @@
       </c>
       <c r="I952" t="inlineStr"/>
       <c r="J952" t="inlineStr"/>
-      <c r="K952" t="inlineStr"/>
+      <c r="K952" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L952" t="n">
         <v>1</v>
       </c>
@@ -32098,7 +32308,11 @@
       </c>
       <c r="I953" t="inlineStr"/>
       <c r="J953" t="inlineStr"/>
-      <c r="K953" t="inlineStr"/>
+      <c r="K953" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L953" t="n">
         <v>1</v>
       </c>
@@ -32131,7 +32345,11 @@
       </c>
       <c r="I954" t="inlineStr"/>
       <c r="J954" t="inlineStr"/>
-      <c r="K954" t="inlineStr"/>
+      <c r="K954" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L954" t="n">
         <v>1</v>
       </c>
@@ -32164,7 +32382,11 @@
       </c>
       <c r="I955" t="inlineStr"/>
       <c r="J955" t="inlineStr"/>
-      <c r="K955" t="inlineStr"/>
+      <c r="K955" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L955" t="n">
         <v>1</v>
       </c>
@@ -32197,7 +32419,11 @@
       </c>
       <c r="I956" t="inlineStr"/>
       <c r="J956" t="inlineStr"/>
-      <c r="K956" t="inlineStr"/>
+      <c r="K956" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L956" t="n">
         <v>1</v>
       </c>
@@ -32230,7 +32456,11 @@
       </c>
       <c r="I957" t="inlineStr"/>
       <c r="J957" t="inlineStr"/>
-      <c r="K957" t="inlineStr"/>
+      <c r="K957" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L957" t="n">
         <v>1</v>
       </c>
@@ -32263,7 +32493,11 @@
       </c>
       <c r="I958" t="inlineStr"/>
       <c r="J958" t="inlineStr"/>
-      <c r="K958" t="inlineStr"/>
+      <c r="K958" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L958" t="n">
         <v>1</v>
       </c>
@@ -32296,7 +32530,11 @@
       </c>
       <c r="I959" t="inlineStr"/>
       <c r="J959" t="inlineStr"/>
-      <c r="K959" t="inlineStr"/>
+      <c r="K959" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L959" t="n">
         <v>1</v>
       </c>
@@ -32329,7 +32567,11 @@
       </c>
       <c r="I960" t="inlineStr"/>
       <c r="J960" t="inlineStr"/>
-      <c r="K960" t="inlineStr"/>
+      <c r="K960" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L960" t="n">
         <v>1</v>
       </c>
@@ -32362,7 +32604,11 @@
       </c>
       <c r="I961" t="inlineStr"/>
       <c r="J961" t="inlineStr"/>
-      <c r="K961" t="inlineStr"/>
+      <c r="K961" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L961" t="n">
         <v>1</v>
       </c>
@@ -32395,7 +32641,11 @@
       </c>
       <c r="I962" t="inlineStr"/>
       <c r="J962" t="inlineStr"/>
-      <c r="K962" t="inlineStr"/>
+      <c r="K962" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L962" t="n">
         <v>1</v>
       </c>
@@ -32428,7 +32678,11 @@
       </c>
       <c r="I963" t="inlineStr"/>
       <c r="J963" t="inlineStr"/>
-      <c r="K963" t="inlineStr"/>
+      <c r="K963" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L963" t="n">
         <v>1</v>
       </c>
@@ -32461,7 +32715,11 @@
       </c>
       <c r="I964" t="inlineStr"/>
       <c r="J964" t="inlineStr"/>
-      <c r="K964" t="inlineStr"/>
+      <c r="K964" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L964" t="n">
         <v>1</v>
       </c>
@@ -32494,7 +32752,11 @@
       </c>
       <c r="I965" t="inlineStr"/>
       <c r="J965" t="inlineStr"/>
-      <c r="K965" t="inlineStr"/>
+      <c r="K965" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L965" t="n">
         <v>1</v>
       </c>
@@ -32527,7 +32789,11 @@
       </c>
       <c r="I966" t="inlineStr"/>
       <c r="J966" t="inlineStr"/>
-      <c r="K966" t="inlineStr"/>
+      <c r="K966" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L966" t="n">
         <v>1</v>
       </c>
@@ -32560,7 +32826,11 @@
       </c>
       <c r="I967" t="inlineStr"/>
       <c r="J967" t="inlineStr"/>
-      <c r="K967" t="inlineStr"/>
+      <c r="K967" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L967" t="n">
         <v>1</v>
       </c>
@@ -32593,7 +32863,11 @@
       </c>
       <c r="I968" t="inlineStr"/>
       <c r="J968" t="inlineStr"/>
-      <c r="K968" t="inlineStr"/>
+      <c r="K968" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L968" t="n">
         <v>1</v>
       </c>
@@ -32622,11 +32896,15 @@
         <v>-4262.449998529993</v>
       </c>
       <c r="H969" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I969" t="inlineStr"/>
       <c r="J969" t="inlineStr"/>
-      <c r="K969" t="inlineStr"/>
+      <c r="K969" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L969" t="n">
         <v>1</v>
       </c>
@@ -32655,11 +32933,15 @@
         <v>-4443.067218099993</v>
       </c>
       <c r="H970" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I970" t="inlineStr"/>
       <c r="J970" t="inlineStr"/>
-      <c r="K970" t="inlineStr"/>
+      <c r="K970" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L970" t="n">
         <v>1</v>
       </c>
@@ -32688,11 +32970,15 @@
         <v>-4143.943789089993</v>
       </c>
       <c r="H971" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I971" t="inlineStr"/>
       <c r="J971" t="inlineStr"/>
-      <c r="K971" t="inlineStr"/>
+      <c r="K971" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L971" t="n">
         <v>1</v>
       </c>
@@ -32721,11 +33007,15 @@
         <v>-4030.862368199992</v>
       </c>
       <c r="H972" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I972" t="inlineStr"/>
       <c r="J972" t="inlineStr"/>
-      <c r="K972" t="inlineStr"/>
+      <c r="K972" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L972" t="n">
         <v>1</v>
       </c>
@@ -32754,11 +33044,15 @@
         <v>-4211.160368199992</v>
       </c>
       <c r="H973" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I973" t="inlineStr"/>
       <c r="J973" t="inlineStr"/>
-      <c r="K973" t="inlineStr"/>
+      <c r="K973" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L973" t="n">
         <v>1</v>
       </c>
@@ -32787,11 +33081,15 @@
         <v>-4375.530068199992</v>
       </c>
       <c r="H974" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I974" t="inlineStr"/>
       <c r="J974" t="inlineStr"/>
-      <c r="K974" t="inlineStr"/>
+      <c r="K974" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L974" t="n">
         <v>1</v>
       </c>
@@ -32820,11 +33118,15 @@
         <v>-4486.157368199993</v>
       </c>
       <c r="H975" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I975" t="inlineStr"/>
       <c r="J975" t="inlineStr"/>
-      <c r="K975" t="inlineStr"/>
+      <c r="K975" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L975" t="n">
         <v>1</v>
       </c>
@@ -32853,11 +33155,15 @@
         <v>-4638.634268199992</v>
       </c>
       <c r="H976" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I976" t="inlineStr"/>
       <c r="J976" t="inlineStr"/>
-      <c r="K976" t="inlineStr"/>
+      <c r="K976" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L976" t="n">
         <v>1</v>
       </c>
@@ -32886,11 +33192,15 @@
         <v>-4464.287968199992</v>
       </c>
       <c r="H977" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I977" t="inlineStr"/>
       <c r="J977" t="inlineStr"/>
-      <c r="K977" t="inlineStr"/>
+      <c r="K977" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L977" t="n">
         <v>1</v>
       </c>
@@ -32919,11 +33229,15 @@
         <v>-4487.498468199992</v>
       </c>
       <c r="H978" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I978" t="inlineStr"/>
       <c r="J978" t="inlineStr"/>
-      <c r="K978" t="inlineStr"/>
+      <c r="K978" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L978" t="n">
         <v>1</v>
       </c>
@@ -32956,7 +33270,11 @@
       </c>
       <c r="I979" t="inlineStr"/>
       <c r="J979" t="inlineStr"/>
-      <c r="K979" t="inlineStr"/>
+      <c r="K979" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L979" t="n">
         <v>1</v>
       </c>
@@ -32989,7 +33307,11 @@
       </c>
       <c r="I980" t="inlineStr"/>
       <c r="J980" t="inlineStr"/>
-      <c r="K980" t="inlineStr"/>
+      <c r="K980" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L980" t="n">
         <v>1</v>
       </c>
@@ -33022,7 +33344,11 @@
       </c>
       <c r="I981" t="inlineStr"/>
       <c r="J981" t="inlineStr"/>
-      <c r="K981" t="inlineStr"/>
+      <c r="K981" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L981" t="n">
         <v>1</v>
       </c>
@@ -33055,7 +33381,11 @@
       </c>
       <c r="I982" t="inlineStr"/>
       <c r="J982" t="inlineStr"/>
-      <c r="K982" t="inlineStr"/>
+      <c r="K982" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L982" t="n">
         <v>1</v>
       </c>
@@ -33088,7 +33418,11 @@
       </c>
       <c r="I983" t="inlineStr"/>
       <c r="J983" t="inlineStr"/>
-      <c r="K983" t="inlineStr"/>
+      <c r="K983" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L983" t="n">
         <v>1</v>
       </c>
@@ -33121,7 +33455,11 @@
       </c>
       <c r="I984" t="inlineStr"/>
       <c r="J984" t="inlineStr"/>
-      <c r="K984" t="inlineStr"/>
+      <c r="K984" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L984" t="n">
         <v>1</v>
       </c>
@@ -33154,7 +33492,11 @@
       </c>
       <c r="I985" t="inlineStr"/>
       <c r="J985" t="inlineStr"/>
-      <c r="K985" t="inlineStr"/>
+      <c r="K985" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L985" t="n">
         <v>1</v>
       </c>
@@ -33187,7 +33529,11 @@
       </c>
       <c r="I986" t="inlineStr"/>
       <c r="J986" t="inlineStr"/>
-      <c r="K986" t="inlineStr"/>
+      <c r="K986" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L986" t="n">
         <v>1</v>
       </c>
@@ -33220,7 +33566,11 @@
       </c>
       <c r="I987" t="inlineStr"/>
       <c r="J987" t="inlineStr"/>
-      <c r="K987" t="inlineStr"/>
+      <c r="K987" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L987" t="n">
         <v>1</v>
       </c>
@@ -33253,7 +33603,11 @@
       </c>
       <c r="I988" t="inlineStr"/>
       <c r="J988" t="inlineStr"/>
-      <c r="K988" t="inlineStr"/>
+      <c r="K988" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L988" t="n">
         <v>1</v>
       </c>
@@ -33286,7 +33640,11 @@
       </c>
       <c r="I989" t="inlineStr"/>
       <c r="J989" t="inlineStr"/>
-      <c r="K989" t="inlineStr"/>
+      <c r="K989" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L989" t="n">
         <v>1</v>
       </c>
@@ -33319,7 +33677,11 @@
       </c>
       <c r="I990" t="inlineStr"/>
       <c r="J990" t="inlineStr"/>
-      <c r="K990" t="inlineStr"/>
+      <c r="K990" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L990" t="n">
         <v>1</v>
       </c>
@@ -33352,7 +33714,11 @@
       </c>
       <c r="I991" t="inlineStr"/>
       <c r="J991" t="inlineStr"/>
-      <c r="K991" t="inlineStr"/>
+      <c r="K991" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L991" t="n">
         <v>1</v>
       </c>
@@ -33385,7 +33751,11 @@
       </c>
       <c r="I992" t="inlineStr"/>
       <c r="J992" t="inlineStr"/>
-      <c r="K992" t="inlineStr"/>
+      <c r="K992" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L992" t="n">
         <v>1</v>
       </c>
@@ -33418,7 +33788,11 @@
       </c>
       <c r="I993" t="inlineStr"/>
       <c r="J993" t="inlineStr"/>
-      <c r="K993" t="inlineStr"/>
+      <c r="K993" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L993" t="n">
         <v>1</v>
       </c>
@@ -33451,7 +33825,11 @@
       </c>
       <c r="I994" t="inlineStr"/>
       <c r="J994" t="inlineStr"/>
-      <c r="K994" t="inlineStr"/>
+      <c r="K994" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L994" t="n">
         <v>1</v>
       </c>
@@ -33484,7 +33862,11 @@
       </c>
       <c r="I995" t="inlineStr"/>
       <c r="J995" t="inlineStr"/>
-      <c r="K995" t="inlineStr"/>
+      <c r="K995" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L995" t="n">
         <v>1</v>
       </c>
@@ -33517,7 +33899,11 @@
       </c>
       <c r="I996" t="inlineStr"/>
       <c r="J996" t="inlineStr"/>
-      <c r="K996" t="inlineStr"/>
+      <c r="K996" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L996" t="n">
         <v>1</v>
       </c>
@@ -33550,7 +33936,11 @@
       </c>
       <c r="I997" t="inlineStr"/>
       <c r="J997" t="inlineStr"/>
-      <c r="K997" t="inlineStr"/>
+      <c r="K997" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L997" t="n">
         <v>1</v>
       </c>
@@ -33583,7 +33973,11 @@
       </c>
       <c r="I998" t="inlineStr"/>
       <c r="J998" t="inlineStr"/>
-      <c r="K998" t="inlineStr"/>
+      <c r="K998" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L998" t="n">
         <v>1</v>
       </c>
@@ -33616,7 +34010,11 @@
       </c>
       <c r="I999" t="inlineStr"/>
       <c r="J999" t="inlineStr"/>
-      <c r="K999" t="inlineStr"/>
+      <c r="K999" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L999" t="n">
         <v>1</v>
       </c>
@@ -33649,7 +34047,11 @@
       </c>
       <c r="I1000" t="inlineStr"/>
       <c r="J1000" t="inlineStr"/>
-      <c r="K1000" t="inlineStr"/>
+      <c r="K1000" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1000" t="n">
         <v>1</v>
       </c>
@@ -33682,7 +34084,11 @@
       </c>
       <c r="I1001" t="inlineStr"/>
       <c r="J1001" t="inlineStr"/>
-      <c r="K1001" t="inlineStr"/>
+      <c r="K1001" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1001" t="n">
         <v>1</v>
       </c>
@@ -33715,7 +34121,11 @@
       </c>
       <c r="I1002" t="inlineStr"/>
       <c r="J1002" t="inlineStr"/>
-      <c r="K1002" t="inlineStr"/>
+      <c r="K1002" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1002" t="n">
         <v>1</v>
       </c>
@@ -33748,7 +34158,11 @@
       </c>
       <c r="I1003" t="inlineStr"/>
       <c r="J1003" t="inlineStr"/>
-      <c r="K1003" t="inlineStr"/>
+      <c r="K1003" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1003" t="n">
         <v>1</v>
       </c>
@@ -33781,7 +34195,11 @@
       </c>
       <c r="I1004" t="inlineStr"/>
       <c r="J1004" t="inlineStr"/>
-      <c r="K1004" t="inlineStr"/>
+      <c r="K1004" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1004" t="n">
         <v>1</v>
       </c>
@@ -33814,7 +34232,11 @@
       </c>
       <c r="I1005" t="inlineStr"/>
       <c r="J1005" t="inlineStr"/>
-      <c r="K1005" t="inlineStr"/>
+      <c r="K1005" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1005" t="n">
         <v>1</v>
       </c>
@@ -33847,7 +34269,11 @@
       </c>
       <c r="I1006" t="inlineStr"/>
       <c r="J1006" t="inlineStr"/>
-      <c r="K1006" t="inlineStr"/>
+      <c r="K1006" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1006" t="n">
         <v>1</v>
       </c>
@@ -33880,7 +34306,11 @@
       </c>
       <c r="I1007" t="inlineStr"/>
       <c r="J1007" t="inlineStr"/>
-      <c r="K1007" t="inlineStr"/>
+      <c r="K1007" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1007" t="n">
         <v>1</v>
       </c>
@@ -33913,7 +34343,11 @@
       </c>
       <c r="I1008" t="inlineStr"/>
       <c r="J1008" t="inlineStr"/>
-      <c r="K1008" t="inlineStr"/>
+      <c r="K1008" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1008" t="n">
         <v>1</v>
       </c>
@@ -33946,7 +34380,11 @@
       </c>
       <c r="I1009" t="inlineStr"/>
       <c r="J1009" t="inlineStr"/>
-      <c r="K1009" t="inlineStr"/>
+      <c r="K1009" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1009" t="n">
         <v>1</v>
       </c>
@@ -33979,7 +34417,11 @@
       </c>
       <c r="I1010" t="inlineStr"/>
       <c r="J1010" t="inlineStr"/>
-      <c r="K1010" t="inlineStr"/>
+      <c r="K1010" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1010" t="n">
         <v>1</v>
       </c>
@@ -34012,7 +34454,11 @@
       </c>
       <c r="I1011" t="inlineStr"/>
       <c r="J1011" t="inlineStr"/>
-      <c r="K1011" t="inlineStr"/>
+      <c r="K1011" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1011" t="n">
         <v>1</v>
       </c>
@@ -34045,7 +34491,11 @@
       </c>
       <c r="I1012" t="inlineStr"/>
       <c r="J1012" t="inlineStr"/>
-      <c r="K1012" t="inlineStr"/>
+      <c r="K1012" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1012" t="n">
         <v>1</v>
       </c>
@@ -34078,7 +34528,11 @@
       </c>
       <c r="I1013" t="inlineStr"/>
       <c r="J1013" t="inlineStr"/>
-      <c r="K1013" t="inlineStr"/>
+      <c r="K1013" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1013" t="n">
         <v>1</v>
       </c>
@@ -34111,7 +34565,11 @@
       </c>
       <c r="I1014" t="inlineStr"/>
       <c r="J1014" t="inlineStr"/>
-      <c r="K1014" t="inlineStr"/>
+      <c r="K1014" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1014" t="n">
         <v>1</v>
       </c>
@@ -34144,7 +34602,11 @@
       </c>
       <c r="I1015" t="inlineStr"/>
       <c r="J1015" t="inlineStr"/>
-      <c r="K1015" t="inlineStr"/>
+      <c r="K1015" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1015" t="n">
         <v>1</v>
       </c>
@@ -34177,7 +34639,11 @@
       </c>
       <c r="I1016" t="inlineStr"/>
       <c r="J1016" t="inlineStr"/>
-      <c r="K1016" t="inlineStr"/>
+      <c r="K1016" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1016" t="n">
         <v>1</v>
       </c>
@@ -34210,7 +34676,11 @@
       </c>
       <c r="I1017" t="inlineStr"/>
       <c r="J1017" t="inlineStr"/>
-      <c r="K1017" t="inlineStr"/>
+      <c r="K1017" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1017" t="n">
         <v>1</v>
       </c>
@@ -34243,7 +34713,11 @@
       </c>
       <c r="I1018" t="inlineStr"/>
       <c r="J1018" t="inlineStr"/>
-      <c r="K1018" t="inlineStr"/>
+      <c r="K1018" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1018" t="n">
         <v>1</v>
       </c>
@@ -34276,7 +34750,11 @@
       </c>
       <c r="I1019" t="inlineStr"/>
       <c r="J1019" t="inlineStr"/>
-      <c r="K1019" t="inlineStr"/>
+      <c r="K1019" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1019" t="n">
         <v>1</v>
       </c>
@@ -34309,7 +34787,11 @@
       </c>
       <c r="I1020" t="inlineStr"/>
       <c r="J1020" t="inlineStr"/>
-      <c r="K1020" t="inlineStr"/>
+      <c r="K1020" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1020" t="n">
         <v>1</v>
       </c>
@@ -34342,7 +34824,11 @@
       </c>
       <c r="I1021" t="inlineStr"/>
       <c r="J1021" t="inlineStr"/>
-      <c r="K1021" t="inlineStr"/>
+      <c r="K1021" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1021" t="n">
         <v>1</v>
       </c>
@@ -34375,7 +34861,11 @@
       </c>
       <c r="I1022" t="inlineStr"/>
       <c r="J1022" t="inlineStr"/>
-      <c r="K1022" t="inlineStr"/>
+      <c r="K1022" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1022" t="n">
         <v>1</v>
       </c>
@@ -34408,7 +34898,11 @@
       </c>
       <c r="I1023" t="inlineStr"/>
       <c r="J1023" t="inlineStr"/>
-      <c r="K1023" t="inlineStr"/>
+      <c r="K1023" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1023" t="n">
         <v>1</v>
       </c>
@@ -34441,7 +34935,11 @@
       </c>
       <c r="I1024" t="inlineStr"/>
       <c r="J1024" t="inlineStr"/>
-      <c r="K1024" t="inlineStr"/>
+      <c r="K1024" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1024" t="n">
         <v>1</v>
       </c>
@@ -34474,7 +34972,11 @@
       </c>
       <c r="I1025" t="inlineStr"/>
       <c r="J1025" t="inlineStr"/>
-      <c r="K1025" t="inlineStr"/>
+      <c r="K1025" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1025" t="n">
         <v>1</v>
       </c>
@@ -34507,7 +35009,11 @@
       </c>
       <c r="I1026" t="inlineStr"/>
       <c r="J1026" t="inlineStr"/>
-      <c r="K1026" t="inlineStr"/>
+      <c r="K1026" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1026" t="n">
         <v>1</v>
       </c>
@@ -34540,7 +35046,11 @@
       </c>
       <c r="I1027" t="inlineStr"/>
       <c r="J1027" t="inlineStr"/>
-      <c r="K1027" t="inlineStr"/>
+      <c r="K1027" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1027" t="n">
         <v>1</v>
       </c>
@@ -34573,7 +35083,11 @@
       </c>
       <c r="I1028" t="inlineStr"/>
       <c r="J1028" t="inlineStr"/>
-      <c r="K1028" t="inlineStr"/>
+      <c r="K1028" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1028" t="n">
         <v>1</v>
       </c>
@@ -34606,7 +35120,11 @@
       </c>
       <c r="I1029" t="inlineStr"/>
       <c r="J1029" t="inlineStr"/>
-      <c r="K1029" t="inlineStr"/>
+      <c r="K1029" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1029" t="n">
         <v>1</v>
       </c>
@@ -34639,7 +35157,11 @@
       </c>
       <c r="I1030" t="inlineStr"/>
       <c r="J1030" t="inlineStr"/>
-      <c r="K1030" t="inlineStr"/>
+      <c r="K1030" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1030" t="n">
         <v>1</v>
       </c>
@@ -34672,7 +35194,11 @@
       </c>
       <c r="I1031" t="inlineStr"/>
       <c r="J1031" t="inlineStr"/>
-      <c r="K1031" t="inlineStr"/>
+      <c r="K1031" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1031" t="n">
         <v>1</v>
       </c>
@@ -34705,7 +35231,11 @@
       </c>
       <c r="I1032" t="inlineStr"/>
       <c r="J1032" t="inlineStr"/>
-      <c r="K1032" t="inlineStr"/>
+      <c r="K1032" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1032" t="n">
         <v>1</v>
       </c>
@@ -34738,7 +35268,11 @@
       </c>
       <c r="I1033" t="inlineStr"/>
       <c r="J1033" t="inlineStr"/>
-      <c r="K1033" t="inlineStr"/>
+      <c r="K1033" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1033" t="n">
         <v>1</v>
       </c>
@@ -34771,7 +35305,11 @@
       </c>
       <c r="I1034" t="inlineStr"/>
       <c r="J1034" t="inlineStr"/>
-      <c r="K1034" t="inlineStr"/>
+      <c r="K1034" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1034" t="n">
         <v>1</v>
       </c>
@@ -34804,7 +35342,11 @@
       </c>
       <c r="I1035" t="inlineStr"/>
       <c r="J1035" t="inlineStr"/>
-      <c r="K1035" t="inlineStr"/>
+      <c r="K1035" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1035" t="n">
         <v>1</v>
       </c>
@@ -34837,7 +35379,11 @@
       </c>
       <c r="I1036" t="inlineStr"/>
       <c r="J1036" t="inlineStr"/>
-      <c r="K1036" t="inlineStr"/>
+      <c r="K1036" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1036" t="n">
         <v>1</v>
       </c>
@@ -34870,7 +35416,11 @@
       </c>
       <c r="I1037" t="inlineStr"/>
       <c r="J1037" t="inlineStr"/>
-      <c r="K1037" t="inlineStr"/>
+      <c r="K1037" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1037" t="n">
         <v>1</v>
       </c>
@@ -34903,7 +35453,11 @@
       </c>
       <c r="I1038" t="inlineStr"/>
       <c r="J1038" t="inlineStr"/>
-      <c r="K1038" t="inlineStr"/>
+      <c r="K1038" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1038" t="n">
         <v>1</v>
       </c>
@@ -34936,7 +35490,11 @@
       </c>
       <c r="I1039" t="inlineStr"/>
       <c r="J1039" t="inlineStr"/>
-      <c r="K1039" t="inlineStr"/>
+      <c r="K1039" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1039" t="n">
         <v>1</v>
       </c>
@@ -34969,7 +35527,11 @@
       </c>
       <c r="I1040" t="inlineStr"/>
       <c r="J1040" t="inlineStr"/>
-      <c r="K1040" t="inlineStr"/>
+      <c r="K1040" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1040" t="n">
         <v>1</v>
       </c>
@@ -35002,7 +35564,11 @@
       </c>
       <c r="I1041" t="inlineStr"/>
       <c r="J1041" t="inlineStr"/>
-      <c r="K1041" t="inlineStr"/>
+      <c r="K1041" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1041" t="n">
         <v>1</v>
       </c>
@@ -35035,7 +35601,11 @@
       </c>
       <c r="I1042" t="inlineStr"/>
       <c r="J1042" t="inlineStr"/>
-      <c r="K1042" t="inlineStr"/>
+      <c r="K1042" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1042" t="n">
         <v>1</v>
       </c>
@@ -35068,7 +35638,11 @@
       </c>
       <c r="I1043" t="inlineStr"/>
       <c r="J1043" t="inlineStr"/>
-      <c r="K1043" t="inlineStr"/>
+      <c r="K1043" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1043" t="n">
         <v>1</v>
       </c>
@@ -35101,7 +35675,11 @@
       </c>
       <c r="I1044" t="inlineStr"/>
       <c r="J1044" t="inlineStr"/>
-      <c r="K1044" t="inlineStr"/>
+      <c r="K1044" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1044" t="n">
         <v>1</v>
       </c>
@@ -35134,7 +35712,11 @@
       </c>
       <c r="I1045" t="inlineStr"/>
       <c r="J1045" t="inlineStr"/>
-      <c r="K1045" t="inlineStr"/>
+      <c r="K1045" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1045" t="n">
         <v>1</v>
       </c>
@@ -35167,7 +35749,11 @@
       </c>
       <c r="I1046" t="inlineStr"/>
       <c r="J1046" t="inlineStr"/>
-      <c r="K1046" t="inlineStr"/>
+      <c r="K1046" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1046" t="n">
         <v>1</v>
       </c>
@@ -35200,7 +35786,11 @@
       </c>
       <c r="I1047" t="inlineStr"/>
       <c r="J1047" t="inlineStr"/>
-      <c r="K1047" t="inlineStr"/>
+      <c r="K1047" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1047" t="n">
         <v>1</v>
       </c>
@@ -35233,7 +35823,11 @@
       </c>
       <c r="I1048" t="inlineStr"/>
       <c r="J1048" t="inlineStr"/>
-      <c r="K1048" t="inlineStr"/>
+      <c r="K1048" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1048" t="n">
         <v>1</v>
       </c>
@@ -35266,7 +35860,11 @@
       </c>
       <c r="I1049" t="inlineStr"/>
       <c r="J1049" t="inlineStr"/>
-      <c r="K1049" t="inlineStr"/>
+      <c r="K1049" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1049" t="n">
         <v>1</v>
       </c>
@@ -35299,7 +35897,11 @@
       </c>
       <c r="I1050" t="inlineStr"/>
       <c r="J1050" t="inlineStr"/>
-      <c r="K1050" t="inlineStr"/>
+      <c r="K1050" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1050" t="n">
         <v>1</v>
       </c>
@@ -35332,7 +35934,11 @@
       </c>
       <c r="I1051" t="inlineStr"/>
       <c r="J1051" t="inlineStr"/>
-      <c r="K1051" t="inlineStr"/>
+      <c r="K1051" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1051" t="n">
         <v>1</v>
       </c>
@@ -35365,7 +35971,11 @@
       </c>
       <c r="I1052" t="inlineStr"/>
       <c r="J1052" t="inlineStr"/>
-      <c r="K1052" t="inlineStr"/>
+      <c r="K1052" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1052" t="n">
         <v>1</v>
       </c>
@@ -35398,7 +36008,11 @@
       </c>
       <c r="I1053" t="inlineStr"/>
       <c r="J1053" t="inlineStr"/>
-      <c r="K1053" t="inlineStr"/>
+      <c r="K1053" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1053" t="n">
         <v>1</v>
       </c>
@@ -35431,7 +36045,11 @@
       </c>
       <c r="I1054" t="inlineStr"/>
       <c r="J1054" t="inlineStr"/>
-      <c r="K1054" t="inlineStr"/>
+      <c r="K1054" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1054" t="n">
         <v>1</v>
       </c>
@@ -35464,7 +36082,11 @@
       </c>
       <c r="I1055" t="inlineStr"/>
       <c r="J1055" t="inlineStr"/>
-      <c r="K1055" t="inlineStr"/>
+      <c r="K1055" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1055" t="n">
         <v>1</v>
       </c>
@@ -35497,7 +36119,11 @@
       </c>
       <c r="I1056" t="inlineStr"/>
       <c r="J1056" t="inlineStr"/>
-      <c r="K1056" t="inlineStr"/>
+      <c r="K1056" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1056" t="n">
         <v>1</v>
       </c>
@@ -35530,7 +36156,11 @@
       </c>
       <c r="I1057" t="inlineStr"/>
       <c r="J1057" t="inlineStr"/>
-      <c r="K1057" t="inlineStr"/>
+      <c r="K1057" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1057" t="n">
         <v>1</v>
       </c>
@@ -35563,7 +36193,11 @@
       </c>
       <c r="I1058" t="inlineStr"/>
       <c r="J1058" t="inlineStr"/>
-      <c r="K1058" t="inlineStr"/>
+      <c r="K1058" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1058" t="n">
         <v>1</v>
       </c>
@@ -35596,7 +36230,11 @@
       </c>
       <c r="I1059" t="inlineStr"/>
       <c r="J1059" t="inlineStr"/>
-      <c r="K1059" t="inlineStr"/>
+      <c r="K1059" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1059" t="n">
         <v>1</v>
       </c>
@@ -35629,7 +36267,11 @@
       </c>
       <c r="I1060" t="inlineStr"/>
       <c r="J1060" t="inlineStr"/>
-      <c r="K1060" t="inlineStr"/>
+      <c r="K1060" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1060" t="n">
         <v>1</v>
       </c>
@@ -35662,7 +36304,11 @@
       </c>
       <c r="I1061" t="inlineStr"/>
       <c r="J1061" t="inlineStr"/>
-      <c r="K1061" t="inlineStr"/>
+      <c r="K1061" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1061" t="n">
         <v>1</v>
       </c>
@@ -35695,7 +36341,11 @@
       </c>
       <c r="I1062" t="inlineStr"/>
       <c r="J1062" t="inlineStr"/>
-      <c r="K1062" t="inlineStr"/>
+      <c r="K1062" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1062" t="n">
         <v>1</v>
       </c>
@@ -35728,7 +36378,11 @@
       </c>
       <c r="I1063" t="inlineStr"/>
       <c r="J1063" t="inlineStr"/>
-      <c r="K1063" t="inlineStr"/>
+      <c r="K1063" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1063" t="n">
         <v>1</v>
       </c>
@@ -35761,7 +36415,11 @@
       </c>
       <c r="I1064" t="inlineStr"/>
       <c r="J1064" t="inlineStr"/>
-      <c r="K1064" t="inlineStr"/>
+      <c r="K1064" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1064" t="n">
         <v>1</v>
       </c>
@@ -35794,7 +36452,11 @@
       </c>
       <c r="I1065" t="inlineStr"/>
       <c r="J1065" t="inlineStr"/>
-      <c r="K1065" t="inlineStr"/>
+      <c r="K1065" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1065" t="n">
         <v>1</v>
       </c>
@@ -35827,7 +36489,11 @@
       </c>
       <c r="I1066" t="inlineStr"/>
       <c r="J1066" t="inlineStr"/>
-      <c r="K1066" t="inlineStr"/>
+      <c r="K1066" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1066" t="n">
         <v>1</v>
       </c>
@@ -35860,7 +36526,11 @@
       </c>
       <c r="I1067" t="inlineStr"/>
       <c r="J1067" t="inlineStr"/>
-      <c r="K1067" t="inlineStr"/>
+      <c r="K1067" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1067" t="n">
         <v>1</v>
       </c>
@@ -35893,7 +36563,11 @@
       </c>
       <c r="I1068" t="inlineStr"/>
       <c r="J1068" t="inlineStr"/>
-      <c r="K1068" t="inlineStr"/>
+      <c r="K1068" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1068" t="n">
         <v>1</v>
       </c>
@@ -35926,7 +36600,11 @@
       </c>
       <c r="I1069" t="inlineStr"/>
       <c r="J1069" t="inlineStr"/>
-      <c r="K1069" t="inlineStr"/>
+      <c r="K1069" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1069" t="n">
         <v>1</v>
       </c>
@@ -35959,7 +36637,11 @@
       </c>
       <c r="I1070" t="inlineStr"/>
       <c r="J1070" t="inlineStr"/>
-      <c r="K1070" t="inlineStr"/>
+      <c r="K1070" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1070" t="n">
         <v>1</v>
       </c>
@@ -35992,7 +36674,11 @@
       </c>
       <c r="I1071" t="inlineStr"/>
       <c r="J1071" t="inlineStr"/>
-      <c r="K1071" t="inlineStr"/>
+      <c r="K1071" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1071" t="n">
         <v>1</v>
       </c>
@@ -36025,7 +36711,11 @@
       </c>
       <c r="I1072" t="inlineStr"/>
       <c r="J1072" t="inlineStr"/>
-      <c r="K1072" t="inlineStr"/>
+      <c r="K1072" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1072" t="n">
         <v>1</v>
       </c>
@@ -36058,7 +36748,11 @@
       </c>
       <c r="I1073" t="inlineStr"/>
       <c r="J1073" t="inlineStr"/>
-      <c r="K1073" t="inlineStr"/>
+      <c r="K1073" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1073" t="n">
         <v>1</v>
       </c>
@@ -36091,7 +36785,11 @@
       </c>
       <c r="I1074" t="inlineStr"/>
       <c r="J1074" t="inlineStr"/>
-      <c r="K1074" t="inlineStr"/>
+      <c r="K1074" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1074" t="n">
         <v>1</v>
       </c>
@@ -36124,7 +36822,11 @@
       </c>
       <c r="I1075" t="inlineStr"/>
       <c r="J1075" t="inlineStr"/>
-      <c r="K1075" t="inlineStr"/>
+      <c r="K1075" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1075" t="n">
         <v>1</v>
       </c>
@@ -36157,7 +36859,11 @@
       </c>
       <c r="I1076" t="inlineStr"/>
       <c r="J1076" t="inlineStr"/>
-      <c r="K1076" t="inlineStr"/>
+      <c r="K1076" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1076" t="n">
         <v>1</v>
       </c>
@@ -36190,7 +36896,11 @@
       </c>
       <c r="I1077" t="inlineStr"/>
       <c r="J1077" t="inlineStr"/>
-      <c r="K1077" t="inlineStr"/>
+      <c r="K1077" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1077" t="n">
         <v>1</v>
       </c>
@@ -36223,7 +36933,11 @@
       </c>
       <c r="I1078" t="inlineStr"/>
       <c r="J1078" t="inlineStr"/>
-      <c r="K1078" t="inlineStr"/>
+      <c r="K1078" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1078" t="n">
         <v>1</v>
       </c>
@@ -36256,7 +36970,11 @@
       </c>
       <c r="I1079" t="inlineStr"/>
       <c r="J1079" t="inlineStr"/>
-      <c r="K1079" t="inlineStr"/>
+      <c r="K1079" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1079" t="n">
         <v>1</v>
       </c>
@@ -36289,7 +37007,11 @@
       </c>
       <c r="I1080" t="inlineStr"/>
       <c r="J1080" t="inlineStr"/>
-      <c r="K1080" t="inlineStr"/>
+      <c r="K1080" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1080" t="n">
         <v>1</v>
       </c>
@@ -36322,7 +37044,11 @@
       </c>
       <c r="I1081" t="inlineStr"/>
       <c r="J1081" t="inlineStr"/>
-      <c r="K1081" t="inlineStr"/>
+      <c r="K1081" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1081" t="n">
         <v>1</v>
       </c>
@@ -36355,7 +37081,11 @@
       </c>
       <c r="I1082" t="inlineStr"/>
       <c r="J1082" t="inlineStr"/>
-      <c r="K1082" t="inlineStr"/>
+      <c r="K1082" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1082" t="n">
         <v>1</v>
       </c>
@@ -36388,7 +37118,11 @@
       </c>
       <c r="I1083" t="inlineStr"/>
       <c r="J1083" t="inlineStr"/>
-      <c r="K1083" t="inlineStr"/>
+      <c r="K1083" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1083" t="n">
         <v>1</v>
       </c>
@@ -36421,7 +37155,11 @@
       </c>
       <c r="I1084" t="inlineStr"/>
       <c r="J1084" t="inlineStr"/>
-      <c r="K1084" t="inlineStr"/>
+      <c r="K1084" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1084" t="n">
         <v>1</v>
       </c>
@@ -36454,7 +37192,11 @@
       </c>
       <c r="I1085" t="inlineStr"/>
       <c r="J1085" t="inlineStr"/>
-      <c r="K1085" t="inlineStr"/>
+      <c r="K1085" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1085" t="n">
         <v>1</v>
       </c>
@@ -36487,7 +37229,11 @@
       </c>
       <c r="I1086" t="inlineStr"/>
       <c r="J1086" t="inlineStr"/>
-      <c r="K1086" t="inlineStr"/>
+      <c r="K1086" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1086" t="n">
         <v>1</v>
       </c>
@@ -36520,7 +37266,11 @@
       </c>
       <c r="I1087" t="inlineStr"/>
       <c r="J1087" t="inlineStr"/>
-      <c r="K1087" t="inlineStr"/>
+      <c r="K1087" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1087" t="n">
         <v>1</v>
       </c>
@@ -36553,7 +37303,11 @@
       </c>
       <c r="I1088" t="inlineStr"/>
       <c r="J1088" t="inlineStr"/>
-      <c r="K1088" t="inlineStr"/>
+      <c r="K1088" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1088" t="n">
         <v>1</v>
       </c>
@@ -36586,7 +37340,11 @@
       </c>
       <c r="I1089" t="inlineStr"/>
       <c r="J1089" t="inlineStr"/>
-      <c r="K1089" t="inlineStr"/>
+      <c r="K1089" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1089" t="n">
         <v>1</v>
       </c>
@@ -36619,7 +37377,11 @@
       </c>
       <c r="I1090" t="inlineStr"/>
       <c r="J1090" t="inlineStr"/>
-      <c r="K1090" t="inlineStr"/>
+      <c r="K1090" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1090" t="n">
         <v>1</v>
       </c>
@@ -36652,7 +37414,11 @@
       </c>
       <c r="I1091" t="inlineStr"/>
       <c r="J1091" t="inlineStr"/>
-      <c r="K1091" t="inlineStr"/>
+      <c r="K1091" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1091" t="n">
         <v>1</v>
       </c>
@@ -36685,7 +37451,11 @@
       </c>
       <c r="I1092" t="inlineStr"/>
       <c r="J1092" t="inlineStr"/>
-      <c r="K1092" t="inlineStr"/>
+      <c r="K1092" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1092" t="n">
         <v>1</v>
       </c>
@@ -36718,7 +37488,11 @@
       </c>
       <c r="I1093" t="inlineStr"/>
       <c r="J1093" t="inlineStr"/>
-      <c r="K1093" t="inlineStr"/>
+      <c r="K1093" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1093" t="n">
         <v>1</v>
       </c>
@@ -36751,7 +37525,11 @@
       </c>
       <c r="I1094" t="inlineStr"/>
       <c r="J1094" t="inlineStr"/>
-      <c r="K1094" t="inlineStr"/>
+      <c r="K1094" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1094" t="n">
         <v>1</v>
       </c>
@@ -36784,7 +37562,11 @@
       </c>
       <c r="I1095" t="inlineStr"/>
       <c r="J1095" t="inlineStr"/>
-      <c r="K1095" t="inlineStr"/>
+      <c r="K1095" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1095" t="n">
         <v>1</v>
       </c>
@@ -36817,7 +37599,11 @@
       </c>
       <c r="I1096" t="inlineStr"/>
       <c r="J1096" t="inlineStr"/>
-      <c r="K1096" t="inlineStr"/>
+      <c r="K1096" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1096" t="n">
         <v>1</v>
       </c>
@@ -36850,7 +37636,11 @@
       </c>
       <c r="I1097" t="inlineStr"/>
       <c r="J1097" t="inlineStr"/>
-      <c r="K1097" t="inlineStr"/>
+      <c r="K1097" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1097" t="n">
         <v>1</v>
       </c>
@@ -36883,7 +37673,11 @@
       </c>
       <c r="I1098" t="inlineStr"/>
       <c r="J1098" t="inlineStr"/>
-      <c r="K1098" t="inlineStr"/>
+      <c r="K1098" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1098" t="n">
         <v>1</v>
       </c>
@@ -36916,7 +37710,11 @@
       </c>
       <c r="I1099" t="inlineStr"/>
       <c r="J1099" t="inlineStr"/>
-      <c r="K1099" t="inlineStr"/>
+      <c r="K1099" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1099" t="n">
         <v>1</v>
       </c>
@@ -36949,7 +37747,11 @@
       </c>
       <c r="I1100" t="inlineStr"/>
       <c r="J1100" t="inlineStr"/>
-      <c r="K1100" t="inlineStr"/>
+      <c r="K1100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1100" t="n">
         <v>1</v>
       </c>
@@ -36982,7 +37784,11 @@
       </c>
       <c r="I1101" t="inlineStr"/>
       <c r="J1101" t="inlineStr"/>
-      <c r="K1101" t="inlineStr"/>
+      <c r="K1101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1101" t="n">
         <v>1</v>
       </c>
@@ -37015,7 +37821,11 @@
       </c>
       <c r="I1102" t="inlineStr"/>
       <c r="J1102" t="inlineStr"/>
-      <c r="K1102" t="inlineStr"/>
+      <c r="K1102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1102" t="n">
         <v>1</v>
       </c>
@@ -37048,7 +37858,11 @@
       </c>
       <c r="I1103" t="inlineStr"/>
       <c r="J1103" t="inlineStr"/>
-      <c r="K1103" t="inlineStr"/>
+      <c r="K1103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1103" t="n">
         <v>1</v>
       </c>
@@ -37081,7 +37895,11 @@
       </c>
       <c r="I1104" t="inlineStr"/>
       <c r="J1104" t="inlineStr"/>
-      <c r="K1104" t="inlineStr"/>
+      <c r="K1104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1104" t="n">
         <v>1</v>
       </c>
@@ -37114,7 +37932,11 @@
       </c>
       <c r="I1105" t="inlineStr"/>
       <c r="J1105" t="inlineStr"/>
-      <c r="K1105" t="inlineStr"/>
+      <c r="K1105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1105" t="n">
         <v>1</v>
       </c>
@@ -37147,7 +37969,11 @@
       </c>
       <c r="I1106" t="inlineStr"/>
       <c r="J1106" t="inlineStr"/>
-      <c r="K1106" t="inlineStr"/>
+      <c r="K1106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1106" t="n">
         <v>1</v>
       </c>
@@ -37180,7 +38006,11 @@
       </c>
       <c r="I1107" t="inlineStr"/>
       <c r="J1107" t="inlineStr"/>
-      <c r="K1107" t="inlineStr"/>
+      <c r="K1107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1107" t="n">
         <v>1</v>
       </c>
@@ -37213,7 +38043,11 @@
       </c>
       <c r="I1108" t="inlineStr"/>
       <c r="J1108" t="inlineStr"/>
-      <c r="K1108" t="inlineStr"/>
+      <c r="K1108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1108" t="n">
         <v>1</v>
       </c>
@@ -37246,7 +38080,11 @@
       </c>
       <c r="I1109" t="inlineStr"/>
       <c r="J1109" t="inlineStr"/>
-      <c r="K1109" t="inlineStr"/>
+      <c r="K1109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1109" t="n">
         <v>1</v>
       </c>
@@ -37279,7 +38117,11 @@
       </c>
       <c r="I1110" t="inlineStr"/>
       <c r="J1110" t="inlineStr"/>
-      <c r="K1110" t="inlineStr"/>
+      <c r="K1110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1110" t="n">
         <v>1</v>
       </c>
@@ -37312,7 +38154,11 @@
       </c>
       <c r="I1111" t="inlineStr"/>
       <c r="J1111" t="inlineStr"/>
-      <c r="K1111" t="inlineStr"/>
+      <c r="K1111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1111" t="n">
         <v>1</v>
       </c>
@@ -37345,7 +38191,11 @@
       </c>
       <c r="I1112" t="inlineStr"/>
       <c r="J1112" t="inlineStr"/>
-      <c r="K1112" t="inlineStr"/>
+      <c r="K1112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1112" t="n">
         <v>1</v>
       </c>
